--- a/meta/api/BlancoApiPostSample.xlsx
+++ b/meta/api/BlancoApiPostSample.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28410"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10510"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRest/meta/api/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGenerator/meta/api/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73CC59B-637D-794D-B98E-D0949F0C57C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2560" yWindow="460" windowWidth="21420" windowHeight="14880" tabRatio="860" activeTab="1"/>
+    <workbookView xWindow="2560" yWindow="460" windowWidth="21420" windowHeight="14880" tabRatio="860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="process" sheetId="19" r:id="rId1"/>
@@ -33,10 +34,18 @@
     <definedName name="必須">config!$D$5:$D$6</definedName>
     <definedName name="必須フラグ">config!$C$5:$C$7</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -46,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="203">
   <si>
     <t>項目名</t>
     <rPh sb="0" eb="3">
@@ -2153,12 +2162,24 @@
     <t>blanco\rest\valueobject</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>field_5</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>オブジェクト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SimpleObject</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -3029,6 +3050,36 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3069,36 +3120,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3180,6 +3201,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3636,8 +3660,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:J53"/>
@@ -3646,7 +3670,7 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="27" style="1" customWidth="1"/>
     <col min="2" max="2" width="31.6640625" style="1" bestFit="1" customWidth="1"/>
@@ -3665,7 +3689,7 @@
     <col min="15" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="19">
       <c r="A1" s="18" t="s">
         <v>25</v>
       </c>
@@ -3673,24 +3697,24 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5" s="4" t="s">
         <v>70</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
@@ -3699,7 +3723,7 @@
       </c>
       <c r="C6" s="29"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4">
       <c r="A7" s="4" t="s">
         <v>88</v>
       </c>
@@ -3709,7 +3733,7 @@
       <c r="C7" s="61"/>
       <c r="D7" s="61"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="A8" s="4" t="s">
         <v>165</v>
       </c>
@@ -3718,7 +3742,7 @@
       </c>
       <c r="C8" s="29"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4">
       <c r="A9" s="4" t="s">
         <v>166</v>
       </c>
@@ -3727,7 +3751,7 @@
       </c>
       <c r="C9" s="29"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4">
       <c r="A10" s="104" t="s">
         <v>167</v>
       </c>
@@ -3736,7 +3760,7 @@
       </c>
       <c r="C10" s="29"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4">
       <c r="A11" s="104" t="s">
         <v>168</v>
       </c>
@@ -3745,7 +3769,7 @@
       </c>
       <c r="C11" s="29"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4">
       <c r="A12" s="104" t="s">
         <v>169</v>
       </c>
@@ -3754,7 +3778,7 @@
       </c>
       <c r="C12" s="29"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4">
       <c r="A13" s="104" t="s">
         <v>170</v>
       </c>
@@ -3763,7 +3787,7 @@
       </c>
       <c r="C13" s="29"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4">
       <c r="A14" s="104" t="s">
         <v>171</v>
       </c>
@@ -3772,7 +3796,7 @@
       </c>
       <c r="C14" s="29"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4">
       <c r="A15" s="104" t="s">
         <v>172</v>
       </c>
@@ -3781,14 +3805,14 @@
       </c>
       <c r="C15" s="29"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4">
       <c r="A16" s="104" t="s">
         <v>143</v>
       </c>
       <c r="B16" s="105"/>
       <c r="C16" s="29"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10">
       <c r="A17" s="4" t="s">
         <v>26</v>
       </c>
@@ -3797,7 +3821,7 @@
       </c>
       <c r="C17" s="29"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10">
       <c r="A18" s="4" t="s">
         <v>11</v>
       </c>
@@ -3805,7 +3829,7 @@
       <c r="C18" s="61"/>
       <c r="D18" s="61"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10">
       <c r="A19" s="4" t="s">
         <v>106</v>
       </c>
@@ -3815,7 +3839,7 @@
       <c r="C19" s="61"/>
       <c r="D19" s="61"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10">
       <c r="A20" s="4" t="s">
         <v>27</v>
       </c>
@@ -3825,70 +3849,70 @@
       <c r="C20" s="61"/>
       <c r="D20" s="61"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10">
       <c r="A21" s="61"/>
       <c r="B21" s="61"/>
       <c r="C21" s="61"/>
       <c r="D21" s="61"/>
     </row>
-    <row r="22" spans="1:10" s="123" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="121" t="s">
+    <row r="22" spans="1:10" s="109" customFormat="1">
+      <c r="A22" s="107" t="s">
         <v>190</v>
       </c>
-      <c r="B22" s="122"/>
-      <c r="C22" s="122"/>
-      <c r="D22" s="122"/>
-      <c r="E22" s="122"/>
-      <c r="F22" s="133"/>
+      <c r="B22" s="108"/>
+      <c r="C22" s="108"/>
+      <c r="D22" s="108"/>
+      <c r="E22" s="108"/>
+      <c r="F22" s="119"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" s="123" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="124" t="s">
+    <row r="23" spans="1:10" s="109" customFormat="1">
+      <c r="A23" s="110" t="s">
         <v>191</v>
       </c>
-      <c r="B23" s="125"/>
-      <c r="C23" s="126" t="s">
+      <c r="B23" s="111"/>
+      <c r="C23" s="112" t="s">
         <v>194</v>
       </c>
-      <c r="D23" s="126"/>
-      <c r="E23" s="126"/>
-      <c r="F23" s="134"/>
+      <c r="D23" s="112"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="120"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" s="123" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="127" t="s">
+    <row r="24" spans="1:10" s="109" customFormat="1">
+      <c r="A24" s="113" t="s">
         <v>192</v>
       </c>
-      <c r="B24" s="128"/>
-      <c r="C24" s="129" t="s">
+      <c r="B24" s="114"/>
+      <c r="C24" s="115" t="s">
         <v>196</v>
       </c>
-      <c r="D24" s="130"/>
-      <c r="E24" s="131"/>
-      <c r="F24" s="132"/>
-    </row>
-    <row r="25" spans="1:10" s="123" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="127" t="s">
+      <c r="D24" s="116"/>
+      <c r="E24" s="117"/>
+      <c r="F24" s="118"/>
+    </row>
+    <row r="25" spans="1:10" s="109" customFormat="1">
+      <c r="A25" s="113" t="s">
         <v>193</v>
       </c>
-      <c r="B25" s="128"/>
-      <c r="C25" s="135" t="s">
+      <c r="B25" s="114"/>
+      <c r="C25" s="121" t="s">
         <v>197</v>
       </c>
-      <c r="D25" s="136"/>
-      <c r="E25" s="137"/>
-      <c r="F25" s="132"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="D25" s="122"/>
+      <c r="E25" s="123"/>
+      <c r="F25" s="118"/>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="6"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10">
       <c r="A27" s="4" t="s">
         <v>71</v>
       </c>
@@ -3897,188 +3921,188 @@
       <c r="D27" s="2"/>
       <c r="E27" s="5"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10">
       <c r="A28" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="B28" s="107" t="s">
+      <c r="B28" s="129" t="s">
         <v>73</v>
       </c>
-      <c r="C28" s="108"/>
-      <c r="D28" s="109"/>
+      <c r="C28" s="130"/>
+      <c r="D28" s="131"/>
       <c r="E28" s="31" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10">
       <c r="A29" s="52"/>
       <c r="B29" s="3"/>
       <c r="C29" s="29"/>
       <c r="D29" s="54"/>
       <c r="E29" s="52"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10">
       <c r="A30" s="52"/>
       <c r="B30" s="3"/>
       <c r="C30" s="29"/>
       <c r="D30" s="54"/>
       <c r="E30" s="52"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10">
       <c r="A31" s="52"/>
       <c r="B31" s="3"/>
       <c r="C31" s="29"/>
       <c r="D31" s="54"/>
       <c r="E31" s="52"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10">
       <c r="A32" s="52"/>
       <c r="B32" s="3"/>
       <c r="C32" s="29"/>
       <c r="D32" s="54"/>
       <c r="E32" s="52"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5">
       <c r="A33" s="52"/>
       <c r="B33" s="3"/>
       <c r="C33" s="29"/>
       <c r="D33" s="54"/>
       <c r="E33" s="52"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5">
       <c r="A34" s="52"/>
       <c r="B34" s="3"/>
       <c r="C34" s="29"/>
       <c r="D34" s="54"/>
       <c r="E34" s="52"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5">
       <c r="A35" s="52"/>
       <c r="B35" s="3"/>
       <c r="C35" s="29"/>
       <c r="D35" s="54"/>
       <c r="E35" s="52"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5">
       <c r="A36" s="52"/>
       <c r="B36" s="3"/>
       <c r="C36" s="29"/>
       <c r="D36" s="54"/>
       <c r="E36" s="52"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5">
       <c r="A37" s="52"/>
       <c r="B37" s="3"/>
       <c r="C37" s="29"/>
       <c r="D37" s="54"/>
       <c r="E37" s="52"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5">
       <c r="A38" s="52"/>
       <c r="B38" s="3"/>
       <c r="C38" s="29"/>
       <c r="D38" s="54"/>
       <c r="E38" s="52"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5">
       <c r="A39" s="52"/>
       <c r="B39" s="3"/>
       <c r="C39" s="29"/>
       <c r="D39" s="54"/>
       <c r="E39" s="52"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5">
       <c r="A40" s="52"/>
       <c r="B40" s="3"/>
       <c r="C40" s="29"/>
       <c r="D40" s="54"/>
       <c r="E40" s="52"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5">
       <c r="A41" s="52"/>
       <c r="B41" s="3"/>
       <c r="C41" s="29"/>
       <c r="D41" s="54"/>
       <c r="E41" s="52"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5">
       <c r="A42" s="52"/>
       <c r="B42" s="3"/>
       <c r="C42" s="29"/>
       <c r="D42" s="54"/>
       <c r="E42" s="52"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5">
       <c r="A43" s="52"/>
       <c r="B43" s="3"/>
       <c r="C43" s="29"/>
       <c r="D43" s="54"/>
       <c r="E43" s="52"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5">
       <c r="A44" s="52"/>
       <c r="B44" s="3"/>
       <c r="C44" s="29"/>
       <c r="D44" s="54"/>
       <c r="E44" s="52"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5">
       <c r="A45" s="52"/>
       <c r="B45" s="3"/>
       <c r="C45" s="29"/>
       <c r="D45" s="54"/>
       <c r="E45" s="52"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5">
       <c r="A46" s="52"/>
       <c r="B46" s="3"/>
       <c r="C46" s="29"/>
       <c r="D46" s="54"/>
       <c r="E46" s="52"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5">
       <c r="A47" s="52"/>
       <c r="B47" s="3"/>
       <c r="C47" s="29"/>
       <c r="D47" s="54"/>
       <c r="E47" s="52"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5">
       <c r="A48" s="52"/>
       <c r="B48" s="3"/>
       <c r="C48" s="29"/>
       <c r="D48" s="54"/>
       <c r="E48" s="52"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:5">
       <c r="A49" s="52"/>
       <c r="B49" s="3"/>
       <c r="C49" s="29"/>
       <c r="D49" s="54"/>
       <c r="E49" s="52"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:5">
       <c r="A50" s="52"/>
       <c r="B50" s="3"/>
       <c r="C50" s="29"/>
       <c r="D50" s="54"/>
       <c r="E50" s="52"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:5">
       <c r="A51" s="52"/>
       <c r="B51" s="3"/>
       <c r="C51" s="29"/>
       <c r="D51" s="54"/>
       <c r="E51" s="52"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:5">
       <c r="A52" s="52"/>
       <c r="B52" s="3"/>
       <c r="C52" s="29"/>
       <c r="D52" s="54"/>
       <c r="E52" s="52"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:5">
       <c r="A53" s="53"/>
       <c r="B53" s="38"/>
       <c r="C53" s="55"/>
@@ -4098,7 +4122,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>config!$C$5:$C$6</xm:f>
           </x14:formula1>
@@ -4111,17 +4135,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:R52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.1640625" style="1" customWidth="1"/>
@@ -4150,7 +4174,7 @@
     <col min="26" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="19">
       <c r="A1" s="18" t="s">
         <v>30</v>
       </c>
@@ -4158,17 +4182,17 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11">
       <c r="B2" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11">
       <c r="B3" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -4179,7 +4203,7 @@
       <c r="F5" s="29"/>
       <c r="G5" s="29"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
@@ -4192,7 +4216,7 @@
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11">
       <c r="A7" s="4" t="s">
         <v>88</v>
       </c>
@@ -4209,7 +4233,7 @@
       <c r="J7" s="61"/>
       <c r="K7"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
@@ -4217,17 +4241,17 @@
       <c r="C8" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="138"/>
+      <c r="D8" s="124"/>
       <c r="E8" s="61"/>
       <c r="F8" s="29"/>
       <c r="G8" s="29"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11">
       <c r="A9" s="4" t="s">
         <v>155</v>
       </c>
       <c r="B9" s="5"/>
-      <c r="C9" s="139" t="s">
+      <c r="C9" s="125" t="s">
         <v>164</v>
       </c>
       <c r="D9" s="55"/>
@@ -4235,7 +4259,7 @@
       <c r="F9" s="29"/>
       <c r="G9" s="29"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11">
       <c r="A10" s="63" t="s">
         <v>156</v>
       </c>
@@ -4245,7 +4269,7 @@
       <c r="E10" s="61"/>
       <c r="G10" s="29"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11">
       <c r="A11" s="63" t="s">
         <v>157</v>
       </c>
@@ -4255,7 +4279,7 @@
       <c r="E11" s="61"/>
       <c r="G11" s="29"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11">
       <c r="A12" s="63" t="s">
         <v>158</v>
       </c>
@@ -4265,7 +4289,7 @@
       <c r="E12" s="61"/>
       <c r="G12" s="29"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11">
       <c r="A13" s="63" t="s">
         <v>159</v>
       </c>
@@ -4275,37 +4299,37 @@
       <c r="E13" s="61"/>
       <c r="G13" s="29"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11">
       <c r="A14" s="63" t="s">
         <v>160</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="C14" s="139"/>
+      <c r="C14" s="125"/>
       <c r="D14" s="103"/>
       <c r="E14" s="61"/>
       <c r="G14" s="29"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11">
       <c r="A15" s="63" t="s">
         <v>161</v>
       </c>
       <c r="B15" s="5"/>
-      <c r="C15" s="139"/>
+      <c r="C15" s="125"/>
       <c r="D15" s="103"/>
       <c r="E15" s="61"/>
       <c r="G15" s="29"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11">
       <c r="A16" s="63" t="s">
         <v>162</v>
       </c>
       <c r="B16" s="5"/>
-      <c r="C16" s="139"/>
+      <c r="C16" s="125"/>
       <c r="D16" s="103"/>
       <c r="E16" s="61"/>
       <c r="G16" s="29"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:18">
       <c r="A17" s="63" t="s">
         <v>142</v>
       </c>
@@ -4317,7 +4341,7 @@
       <c r="E17" s="61"/>
       <c r="G17" s="29"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:18">
       <c r="A18" s="4" t="s">
         <v>11</v>
       </c>
@@ -4327,7 +4351,7 @@
       <c r="E18" s="61"/>
       <c r="F18" s="61"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:18">
       <c r="A19" s="4" t="s">
         <v>106</v>
       </c>
@@ -4339,68 +4363,68 @@
       <c r="E19" s="61"/>
       <c r="F19" s="61"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:18">
       <c r="A20" s="6"/>
       <c r="C20" s="29"/>
     </row>
-    <row r="21" spans="1:18" s="123" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="121" t="s">
+    <row r="21" spans="1:18" s="109" customFormat="1">
+      <c r="A21" s="107" t="s">
         <v>195</v>
       </c>
-      <c r="B21" s="122"/>
-      <c r="C21" s="122"/>
-      <c r="D21" s="122"/>
-      <c r="E21" s="122"/>
-      <c r="F21" s="133"/>
+      <c r="B21" s="108"/>
+      <c r="C21" s="108"/>
+      <c r="D21" s="108"/>
+      <c r="E21" s="108"/>
+      <c r="F21" s="119"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:18" s="123" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="124" t="s">
+    <row r="22" spans="1:18" s="109" customFormat="1">
+      <c r="A22" s="110" t="s">
         <v>191</v>
       </c>
-      <c r="B22" s="125"/>
-      <c r="C22" s="126" t="s">
+      <c r="B22" s="111"/>
+      <c r="C22" s="112" t="s">
         <v>173</v>
       </c>
-      <c r="D22" s="126"/>
-      <c r="E22" s="126"/>
-      <c r="F22" s="134"/>
+      <c r="D22" s="112"/>
+      <c r="E22" s="112"/>
+      <c r="F22" s="120"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:18" s="123" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="127" t="s">
+    <row r="23" spans="1:18" s="109" customFormat="1">
+      <c r="A23" s="113" t="s">
         <v>192</v>
       </c>
-      <c r="B23" s="128"/>
-      <c r="C23" s="129" t="s">
+      <c r="B23" s="114"/>
+      <c r="C23" s="115" t="s">
         <v>198</v>
       </c>
-      <c r="D23" s="130"/>
-      <c r="E23" s="131"/>
-      <c r="F23" s="132"/>
-    </row>
-    <row r="24" spans="1:18" s="123" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="127" t="s">
+      <c r="D23" s="116"/>
+      <c r="E23" s="117"/>
+      <c r="F23" s="118"/>
+    </row>
+    <row r="24" spans="1:18" s="109" customFormat="1">
+      <c r="A24" s="113" t="s">
         <v>193</v>
       </c>
-      <c r="B24" s="128"/>
-      <c r="C24" s="140" t="s">
+      <c r="B24" s="114"/>
+      <c r="C24" s="126" t="s">
         <v>199</v>
       </c>
-      <c r="D24" s="141"/>
-      <c r="E24" s="142"/>
-      <c r="F24" s="132"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="D24" s="127"/>
+      <c r="E24" s="128"/>
+      <c r="F24" s="118"/>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="6"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:18">
       <c r="A26" s="20" t="s">
         <v>10</v>
       </c>
@@ -4422,51 +4446,51 @@
       <c r="Q26" s="41"/>
       <c r="R26" s="41"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A27" s="112" t="s">
+    <row r="27" spans="1:18">
+      <c r="A27" s="134" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="112" t="s">
+      <c r="B27" s="134" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="114" t="s">
+      <c r="C27" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="D27" s="112" t="s">
+      <c r="D27" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="E27" s="115" t="s">
+      <c r="E27" s="137" t="s">
         <v>174</v>
       </c>
-      <c r="F27" s="112" t="s">
+      <c r="F27" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="G27" s="112" t="s">
+      <c r="G27" s="134" t="s">
         <v>117</v>
       </c>
-      <c r="H27" s="110" t="s">
+      <c r="H27" s="132" t="s">
         <v>78</v>
       </c>
-      <c r="I27" s="111"/>
-      <c r="J27" s="110" t="s">
+      <c r="I27" s="133"/>
+      <c r="J27" s="132" t="s">
         <v>17</v>
       </c>
-      <c r="K27" s="111"/>
+      <c r="K27" s="133"/>
       <c r="L27" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="M27" s="112" t="s">
+      <c r="M27" s="134" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A28" s="113"/>
-      <c r="B28" s="113"/>
-      <c r="C28" s="113"/>
-      <c r="D28" s="113"/>
-      <c r="E28" s="116"/>
-      <c r="F28" s="113"/>
-      <c r="G28" s="113"/>
+    <row r="28" spans="1:18">
+      <c r="A28" s="135"/>
+      <c r="B28" s="135"/>
+      <c r="C28" s="135"/>
+      <c r="D28" s="135"/>
+      <c r="E28" s="138"/>
+      <c r="F28" s="135"/>
+      <c r="G28" s="135"/>
       <c r="H28" s="31" t="s">
         <v>82</v>
       </c>
@@ -4482,9 +4506,9 @@
       <c r="L28" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="M28" s="113"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="M28" s="135"/>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29" s="7">
         <v>1</v>
       </c>
@@ -4513,7 +4537,7 @@
       <c r="L29" s="32"/>
       <c r="M29" s="9"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:18">
       <c r="A30" s="10">
         <f t="shared" ref="A30:A32" si="0">A29+1</f>
         <v>2</v>
@@ -4541,7 +4565,7 @@
       <c r="L30" s="33"/>
       <c r="M30" s="12"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:18">
       <c r="A31" s="10">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4565,7 +4589,7 @@
       <c r="L31" s="33"/>
       <c r="M31" s="14"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:18">
       <c r="A32" s="10">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4587,11 +4611,19 @@
       <c r="L32" s="33"/>
       <c r="M32" s="14"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A33" s="10"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="27"/>
+    <row r="33" spans="1:13">
+      <c r="A33" s="10">
+        <v>5</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="D33" s="27" t="s">
+        <v>202</v>
+      </c>
       <c r="E33" s="27"/>
       <c r="F33" s="93"/>
       <c r="G33" s="27"/>
@@ -4602,7 +4634,7 @@
       <c r="L33" s="34"/>
       <c r="M33" s="14"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:13">
       <c r="A34" s="10"/>
       <c r="B34" s="23"/>
       <c r="C34" s="13"/>
@@ -4617,7 +4649,7 @@
       <c r="L34" s="33"/>
       <c r="M34" s="14"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:13">
       <c r="A35" s="10"/>
       <c r="B35" s="23"/>
       <c r="C35" s="13"/>
@@ -4632,7 +4664,7 @@
       <c r="L35" s="33"/>
       <c r="M35" s="14"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:13">
       <c r="A36" s="10"/>
       <c r="B36" s="23"/>
       <c r="C36" s="13"/>
@@ -4647,7 +4679,7 @@
       <c r="L36" s="33"/>
       <c r="M36" s="14"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:13">
       <c r="A37" s="10"/>
       <c r="B37" s="23"/>
       <c r="C37" s="13"/>
@@ -4662,7 +4694,7 @@
       <c r="L37" s="34"/>
       <c r="M37" s="14"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:13">
       <c r="A38" s="10"/>
       <c r="B38" s="23"/>
       <c r="C38" s="13"/>
@@ -4677,7 +4709,7 @@
       <c r="L38" s="33"/>
       <c r="M38" s="14"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:13">
       <c r="A39" s="10"/>
       <c r="B39" s="23"/>
       <c r="C39" s="13"/>
@@ -4692,7 +4724,7 @@
       <c r="L39" s="33"/>
       <c r="M39" s="14"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:13">
       <c r="A40" s="10"/>
       <c r="B40" s="23"/>
       <c r="C40" s="13"/>
@@ -4707,7 +4739,7 @@
       <c r="L40" s="33"/>
       <c r="M40" s="14"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:13">
       <c r="A41" s="10"/>
       <c r="B41" s="23"/>
       <c r="C41" s="13"/>
@@ -4722,7 +4754,7 @@
       <c r="L41" s="33"/>
       <c r="M41" s="14"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:13">
       <c r="A42" s="10"/>
       <c r="B42" s="23"/>
       <c r="C42" s="13"/>
@@ -4737,7 +4769,7 @@
       <c r="L42" s="33"/>
       <c r="M42" s="14"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:13">
       <c r="A43" s="10"/>
       <c r="B43" s="23"/>
       <c r="C43" s="13"/>
@@ -4752,7 +4784,7 @@
       <c r="L43" s="34"/>
       <c r="M43" s="14"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:13">
       <c r="A44" s="10"/>
       <c r="B44" s="23"/>
       <c r="C44" s="13"/>
@@ -4767,7 +4799,7 @@
       <c r="L44" s="33"/>
       <c r="M44" s="14"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:13">
       <c r="A45" s="10"/>
       <c r="B45" s="23"/>
       <c r="C45" s="13"/>
@@ -4782,7 +4814,7 @@
       <c r="L45" s="33"/>
       <c r="M45" s="14"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:13">
       <c r="A46" s="10"/>
       <c r="B46" s="23"/>
       <c r="C46" s="13"/>
@@ -4797,7 +4829,7 @@
       <c r="L46" s="33"/>
       <c r="M46" s="14"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:13">
       <c r="A47" s="10"/>
       <c r="B47" s="23"/>
       <c r="C47" s="13"/>
@@ -4812,7 +4844,7 @@
       <c r="L47" s="33"/>
       <c r="M47" s="14"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:13">
       <c r="A48" s="10"/>
       <c r="B48" s="23"/>
       <c r="C48" s="13"/>
@@ -4827,7 +4859,7 @@
       <c r="L48" s="34"/>
       <c r="M48" s="14"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:13">
       <c r="A49" s="10"/>
       <c r="B49" s="23"/>
       <c r="C49" s="13"/>
@@ -4842,7 +4874,7 @@
       <c r="L49" s="33"/>
       <c r="M49" s="14"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:13">
       <c r="A50" s="10"/>
       <c r="B50" s="23"/>
       <c r="C50" s="13"/>
@@ -4857,7 +4889,7 @@
       <c r="L50" s="33"/>
       <c r="M50" s="14"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:13">
       <c r="A51" s="10"/>
       <c r="B51" s="23"/>
       <c r="C51" s="13"/>
@@ -4872,7 +4904,7 @@
       <c r="L51" s="34"/>
       <c r="M51" s="14"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:13">
       <c r="A52" s="15"/>
       <c r="B52" s="24"/>
       <c r="C52" s="16"/>
@@ -4902,12 +4934,12 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C8">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>Validate実装パターン</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C19" r:id="rId1" display="http://tempuri.org/sample"/>
+    <hyperlink ref="C19" r:id="rId1" display="http://tempuri.org/sample" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.11811023622047245"/>
   <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="landscape"/>
@@ -4918,19 +4950,19 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
             <xm:f>config!$E$5:$E$8</xm:f>
           </x14:formula1>
           <xm:sqref>C14:C16</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
           <x14:formula1>
             <xm:f>config!$D$5:$D$8</xm:f>
           </x14:formula1>
           <xm:sqref>C9</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000003000000}">
           <x14:formula1>
             <xm:f>config!$C$5:$C$6</xm:f>
           </x14:formula1>
@@ -4943,8 +4975,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M45"/>
@@ -4953,7 +4985,7 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.1640625" style="1" customWidth="1"/>
@@ -4982,7 +5014,7 @@
     <col min="26" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="19">
       <c r="A1" s="18" t="s">
         <v>30</v>
       </c>
@@ -4990,17 +5022,17 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11">
       <c r="B2" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11">
       <c r="B3" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -5010,7 +5042,7 @@
       <c r="E5" s="61"/>
       <c r="G5" s="29"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
@@ -5022,7 +5054,7 @@
       <c r="E6" s="61"/>
       <c r="G6" s="29"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11">
       <c r="A7" s="4" t="s">
         <v>88</v>
       </c>
@@ -5038,7 +5070,7 @@
       <c r="J7" s="61"/>
       <c r="K7"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
@@ -5050,7 +5082,7 @@
       <c r="E8" s="61"/>
       <c r="G8" s="29"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11">
       <c r="A9" s="4" t="s">
         <v>155</v>
       </c>
@@ -5063,7 +5095,7 @@
       <c r="F9" s="29"/>
       <c r="G9" s="29"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11">
       <c r="A10" s="63" t="s">
         <v>142</v>
       </c>
@@ -5074,7 +5106,7 @@
       <c r="D10" s="102"/>
       <c r="E10" s="61"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
@@ -5083,7 +5115,7 @@
       <c r="D11" s="37"/>
       <c r="E11" s="61"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11">
       <c r="A12" s="4" t="s">
         <v>106</v>
       </c>
@@ -5094,67 +5126,67 @@
       <c r="D12" s="37"/>
       <c r="E12" s="61"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11">
       <c r="A13" s="6"/>
     </row>
-    <row r="14" spans="1:11" s="123" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="121" t="s">
+    <row r="14" spans="1:11" s="109" customFormat="1">
+      <c r="A14" s="107" t="s">
         <v>195</v>
       </c>
-      <c r="B14" s="122"/>
-      <c r="C14" s="122"/>
-      <c r="D14" s="122"/>
-      <c r="E14" s="122"/>
-      <c r="F14" s="133"/>
+      <c r="B14" s="108"/>
+      <c r="C14" s="108"/>
+      <c r="D14" s="108"/>
+      <c r="E14" s="108"/>
+      <c r="F14" s="119"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:11" s="123" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="124" t="s">
+    <row r="15" spans="1:11" s="109" customFormat="1">
+      <c r="A15" s="110" t="s">
         <v>191</v>
       </c>
-      <c r="B15" s="125"/>
-      <c r="C15" s="126" t="s">
+      <c r="B15" s="111"/>
+      <c r="C15" s="112" t="s">
         <v>173</v>
       </c>
-      <c r="D15" s="126"/>
-      <c r="E15" s="126"/>
-      <c r="F15" s="134"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="112"/>
+      <c r="F15" s="120"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:11" s="123" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="127" t="s">
+    <row r="16" spans="1:11" s="109" customFormat="1">
+      <c r="A16" s="113" t="s">
         <v>192</v>
       </c>
-      <c r="B16" s="128"/>
-      <c r="C16" s="129" t="s">
+      <c r="B16" s="114"/>
+      <c r="C16" s="115" t="s">
         <v>198</v>
       </c>
-      <c r="D16" s="130"/>
-      <c r="E16" s="131"/>
-      <c r="F16" s="132"/>
-    </row>
-    <row r="17" spans="1:13" s="123" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="127" t="s">
+      <c r="D16" s="116"/>
+      <c r="E16" s="117"/>
+      <c r="F16" s="118"/>
+    </row>
+    <row r="17" spans="1:13" s="109" customFormat="1">
+      <c r="A17" s="113" t="s">
         <v>193</v>
       </c>
-      <c r="B17" s="128"/>
-      <c r="C17" s="140" t="s">
+      <c r="B17" s="114"/>
+      <c r="C17" s="126" t="s">
         <v>199</v>
       </c>
-      <c r="D17" s="141"/>
-      <c r="E17" s="142"/>
-      <c r="F17" s="132"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="D17" s="127"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="118"/>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="6"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:13">
       <c r="A19" s="63" t="s">
         <v>118</v>
       </c>
@@ -5171,53 +5203,53 @@
       <c r="L19" s="64"/>
       <c r="M19" s="65"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A20" s="115" t="s">
+    <row r="20" spans="1:13" ht="15">
+      <c r="A20" s="137" t="s">
         <v>119</v>
       </c>
-      <c r="B20" s="115" t="s">
+      <c r="B20" s="137" t="s">
         <v>120</v>
       </c>
       <c r="C20" s="67" t="s">
         <v>121</v>
       </c>
-      <c r="D20" s="115" t="s">
+      <c r="D20" s="137" t="s">
         <v>108</v>
       </c>
-      <c r="E20" s="115" t="s">
+      <c r="E20" s="137" t="s">
         <v>174</v>
       </c>
-      <c r="F20" s="115" t="s">
+      <c r="F20" s="137" t="s">
         <v>139</v>
       </c>
-      <c r="G20" s="115" t="s">
+      <c r="G20" s="137" t="s">
         <v>138</v>
       </c>
-      <c r="H20" s="120" t="s">
+      <c r="H20" s="142" t="s">
         <v>123</v>
       </c>
-      <c r="I20" s="118"/>
-      <c r="J20" s="117" t="s">
+      <c r="I20" s="140"/>
+      <c r="J20" s="139" t="s">
         <v>124</v>
       </c>
-      <c r="K20" s="118"/>
+      <c r="K20" s="140"/>
       <c r="L20" s="66" t="s">
         <v>125</v>
       </c>
-      <c r="M20" s="115" t="s">
+      <c r="M20" s="137" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A21" s="119"/>
-      <c r="B21" s="119"/>
+    <row r="21" spans="1:13" ht="15">
+      <c r="A21" s="141"/>
+      <c r="B21" s="141"/>
       <c r="C21" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="D21" s="119"/>
-      <c r="E21" s="116"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="119"/>
+      <c r="D21" s="141"/>
+      <c r="E21" s="138"/>
+      <c r="F21" s="141"/>
+      <c r="G21" s="141"/>
       <c r="H21" s="69" t="s">
         <v>127</v>
       </c>
@@ -5233,9 +5265,9 @@
       <c r="L21" s="70" t="s">
         <v>131</v>
       </c>
-      <c r="M21" s="119"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M21" s="141"/>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="71">
         <v>1</v>
       </c>
@@ -5260,7 +5292,7 @@
       <c r="L22" s="74"/>
       <c r="M22" s="75"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:13">
       <c r="A23" s="71">
         <v>2</v>
       </c>
@@ -5283,7 +5315,7 @@
       <c r="L23" s="72"/>
       <c r="M23" s="75"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:13">
       <c r="A24" s="71">
         <v>3</v>
       </c>
@@ -5304,7 +5336,7 @@
       <c r="L24" s="72"/>
       <c r="M24" s="78"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:13">
       <c r="A25" s="71">
         <v>4</v>
       </c>
@@ -5325,7 +5357,7 @@
       <c r="L25" s="72"/>
       <c r="M25" s="82"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:13">
       <c r="A26" s="71"/>
       <c r="B26" s="79"/>
       <c r="C26" s="80"/>
@@ -5340,7 +5372,7 @@
       <c r="L26" s="74"/>
       <c r="M26" s="82"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:13">
       <c r="A27" s="71"/>
       <c r="B27" s="79"/>
       <c r="C27" s="80"/>
@@ -5355,7 +5387,7 @@
       <c r="L27" s="72"/>
       <c r="M27" s="82"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:13">
       <c r="A28" s="71"/>
       <c r="B28" s="79"/>
       <c r="C28" s="80"/>
@@ -5370,7 +5402,7 @@
       <c r="L28" s="72"/>
       <c r="M28" s="82"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:13">
       <c r="A29" s="71"/>
       <c r="B29" s="79"/>
       <c r="C29" s="80"/>
@@ -5385,7 +5417,7 @@
       <c r="L29" s="72"/>
       <c r="M29" s="82"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:13">
       <c r="A30" s="71"/>
       <c r="B30" s="79"/>
       <c r="C30" s="80"/>
@@ -5400,7 +5432,7 @@
       <c r="L30" s="74"/>
       <c r="M30" s="82"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:13">
       <c r="A31" s="71"/>
       <c r="B31" s="79"/>
       <c r="C31" s="80"/>
@@ -5415,7 +5447,7 @@
       <c r="L31" s="72"/>
       <c r="M31" s="82"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:13">
       <c r="A32" s="71"/>
       <c r="B32" s="79"/>
       <c r="C32" s="80"/>
@@ -5430,7 +5462,7 @@
       <c r="L32" s="72"/>
       <c r="M32" s="82"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:13">
       <c r="A33" s="71"/>
       <c r="B33" s="79"/>
       <c r="C33" s="80"/>
@@ -5445,7 +5477,7 @@
       <c r="L33" s="72"/>
       <c r="M33" s="82"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:13">
       <c r="A34" s="71"/>
       <c r="B34" s="79"/>
       <c r="C34" s="80"/>
@@ -5460,7 +5492,7 @@
       <c r="L34" s="72"/>
       <c r="M34" s="82"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:13">
       <c r="A35" s="71"/>
       <c r="B35" s="79"/>
       <c r="C35" s="80"/>
@@ -5475,7 +5507,7 @@
       <c r="L35" s="72"/>
       <c r="M35" s="82"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:13">
       <c r="A36" s="71"/>
       <c r="B36" s="79"/>
       <c r="C36" s="80"/>
@@ -5490,7 +5522,7 @@
       <c r="L36" s="74"/>
       <c r="M36" s="82"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:13">
       <c r="A37" s="71"/>
       <c r="B37" s="79"/>
       <c r="C37" s="80"/>
@@ -5505,7 +5537,7 @@
       <c r="L37" s="72"/>
       <c r="M37" s="82"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:13">
       <c r="A38" s="71"/>
       <c r="B38" s="79"/>
       <c r="C38" s="80"/>
@@ -5520,7 +5552,7 @@
       <c r="L38" s="72"/>
       <c r="M38" s="82"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:13">
       <c r="A39" s="71"/>
       <c r="B39" s="79"/>
       <c r="C39" s="80"/>
@@ -5535,7 +5567,7 @@
       <c r="L39" s="72"/>
       <c r="M39" s="82"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:13">
       <c r="A40" s="71"/>
       <c r="B40" s="79"/>
       <c r="C40" s="80"/>
@@ -5550,7 +5582,7 @@
       <c r="L40" s="72"/>
       <c r="M40" s="82"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:13">
       <c r="A41" s="71"/>
       <c r="B41" s="79"/>
       <c r="C41" s="80"/>
@@ -5565,7 +5597,7 @@
       <c r="L41" s="74"/>
       <c r="M41" s="82"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:13">
       <c r="A42" s="71"/>
       <c r="B42" s="79"/>
       <c r="C42" s="80"/>
@@ -5580,7 +5612,7 @@
       <c r="L42" s="72"/>
       <c r="M42" s="82"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:13">
       <c r="A43" s="71"/>
       <c r="B43" s="79"/>
       <c r="C43" s="80"/>
@@ -5595,7 +5627,7 @@
       <c r="L43" s="72"/>
       <c r="M43" s="82"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:13">
       <c r="A44" s="71"/>
       <c r="B44" s="79"/>
       <c r="C44" s="80"/>
@@ -5610,7 +5642,7 @@
       <c r="L44" s="74"/>
       <c r="M44" s="82"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:13">
       <c r="A45" s="83"/>
       <c r="B45" s="84"/>
       <c r="C45" s="85"/>
@@ -5639,7 +5671,7 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C8">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>Validate実装パターン</formula1>
     </dataValidation>
   </dataValidations>
@@ -5652,13 +5684,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
           <x14:formula1>
             <xm:f>config!$D$5:$D$8</xm:f>
           </x14:formula1>
           <xm:sqref>C9</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000002000000}">
           <x14:formula1>
             <xm:f>config!$C$5:$C$6</xm:f>
           </x14:formula1>
@@ -5671,8 +5703,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:I57"/>
@@ -5681,14 +5713,14 @@
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="3.6640625" style="42" customWidth="1"/>
     <col min="2" max="2" width="4.5" style="42" customWidth="1"/>
     <col min="3" max="16384" width="8.83203125" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="19">
       <c r="A1" s="18" t="s">
         <v>30</v>
       </c>
@@ -5696,34 +5728,34 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="B2" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>37</v>
       </c>
@@ -5731,7 +5763,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>39</v>
@@ -5739,260 +5771,260 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>89</v>
       </c>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9">
       <c r="A16" s="1"/>
       <c r="C16" s="42" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3">
       <c r="B17" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3">
       <c r="C18" s="42" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3">
       <c r="B19" s="1"/>
       <c r="C19" s="42" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3">
       <c r="B20" s="1"/>
       <c r="C20" s="42" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3">
       <c r="A23" s="1"/>
       <c r="B23" s="42" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3">
       <c r="A24" s="1"/>
       <c r="C24" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3">
       <c r="A25" s="1"/>
       <c r="C25" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3">
       <c r="A26" s="1"/>
       <c r="B26" s="42" t="s">
         <v>50</v>
       </c>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3">
       <c r="A27" s="1"/>
       <c r="C27" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3">
       <c r="A28" s="1"/>
       <c r="B28" s="42" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3">
       <c r="C29" s="42" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3">
       <c r="C30" s="42" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3">
       <c r="C31" s="42" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3">
       <c r="C32" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:3">
       <c r="C33" s="42" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:3">
       <c r="C34" s="42" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:3">
       <c r="B35" s="42" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:3">
       <c r="C36" s="42" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:3">
       <c r="B37" s="42" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:3">
       <c r="C38" s="42" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:3">
       <c r="B39" s="42" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:3">
       <c r="C40" s="42" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:3">
       <c r="C41" s="42" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:3">
       <c r="C42" s="42" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:3">
       <c r="C43" s="42" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:3">
       <c r="B44" s="42" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:3">
       <c r="C45" s="42" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:3">
       <c r="C46" s="42" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:3">
       <c r="B47" s="42" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:3">
       <c r="C48" s="42" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:3">
       <c r="C49" s="42" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:3">
       <c r="B50" s="42" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:3">
       <c r="C51" s="42" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:3">
       <c r="C52" s="42" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:3">
       <c r="A54" s="42" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:3">
       <c r="B55" s="42" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:3">
       <c r="C56" s="42" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:3">
       <c r="C57" s="42" t="s">
         <v>97</v>
       </c>
@@ -6005,8 +6037,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F34"/>
@@ -6015,7 +6047,7 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
@@ -6026,7 +6058,7 @@
     <col min="7" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="19">
       <c r="A1" s="18" t="s">
         <v>28</v>
       </c>
@@ -6037,7 +6069,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
@@ -6045,7 +6077,7 @@
       <c r="C2" s="44"/>
       <c r="D2" s="44"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" s="45" t="s">
         <v>4</v>
       </c>
@@ -6062,7 +6094,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5" s="46" t="s">
         <v>6</v>
       </c>
@@ -6077,7 +6109,7 @@
       </c>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6" s="48" t="s">
         <v>7</v>
       </c>
@@ -6092,7 +6124,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="B7" s="50" t="s">
         <v>20</v>
       </c>
@@ -6104,7 +6136,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="B8" s="50" t="s">
         <v>21</v>
       </c>
@@ -6115,93 +6147,93 @@
         <v>163</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="B9" s="50" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="B10" s="50" t="s">
         <v>23</v>
       </c>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6">
       <c r="B11" s="50" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6">
       <c r="B12" s="50" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6">
       <c r="B13" s="50" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6">
       <c r="B14" s="50"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6">
       <c r="B15" s="50"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6">
       <c r="B16" s="50"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:2">
       <c r="B17" s="50"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:2">
       <c r="B18" s="50"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:2">
       <c r="B19" s="50"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:2">
       <c r="B20" s="50"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:2">
       <c r="B21" s="50"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:2">
       <c r="B22" s="50"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:2">
       <c r="B23" s="50"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:2">
       <c r="B24" s="50"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:2">
       <c r="B25" s="50"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:2">
       <c r="B26" s="50"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:2">
       <c r="B27" s="50"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:2">
       <c r="B28" s="50"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:2">
       <c r="B29" s="50"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:2">
       <c r="B30" s="50"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:2">
       <c r="B31" s="50"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:2">
       <c r="B32" s="50"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:2">
       <c r="B33" s="50"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:2">
       <c r="B34" s="51"/>
     </row>
   </sheetData>

--- a/meta/api/BlancoApiPostSample.xlsx
+++ b/meta/api/BlancoApiPostSample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10913"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGenerator/meta/api/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorKt/meta/api/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73CC59B-637D-794D-B98E-D0949F0C57C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C59FBA2-7B7A-5C48-BF75-478F0A3B362A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2560" yWindow="460" windowWidth="21420" windowHeight="14880" tabRatio="860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="180" yWindow="680" windowWidth="21420" windowHeight="17540" tabRatio="860" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="process" sheetId="19" r:id="rId1"/>
@@ -23,16 +23,19 @@
     <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
-    <definedName name="Submit有無">config!$C$5:$C$6</definedName>
+    <definedName name="isImport">config!$E$5:$E$6</definedName>
+    <definedName name="isNullable">config!$F$5:$F$6</definedName>
+    <definedName name="others">config!$G$5:$G$6</definedName>
+    <definedName name="Submit有無">config!$B$5:$B$6</definedName>
     <definedName name="Validate実装パターン">config!$A$5:$A$6</definedName>
-    <definedName name="チェック種別">config!$E$5:$E$49</definedName>
-    <definedName name="型">config!$B$5:$B$34</definedName>
+    <definedName name="チェック種別">config!$D$5:$D$49</definedName>
+    <definedName name="型">config!#REF!</definedName>
     <definedName name="形式タイプ">[1]telegramConfig!$D$6:$D$27</definedName>
     <definedName name="項目型" localSheetId="1">config!#REF!</definedName>
     <definedName name="項目型" localSheetId="2">config!#REF!</definedName>
     <definedName name="項目型">config!#REF!</definedName>
-    <definedName name="必須">config!$D$5:$D$6</definedName>
-    <definedName name="必須フラグ">config!$C$5:$C$7</definedName>
+    <definedName name="必須">config!$C$5:$C$6</definedName>
+    <definedName name="必須フラグ">config!$B$5:$B$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -55,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="232">
   <si>
     <t>項目名</t>
     <rPh sb="0" eb="3">
@@ -215,58 +218,6 @@
     </rPh>
     <rPh sb="1" eb="3">
       <t>ハンイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>階層定義</t>
-    <rPh sb="0" eb="2">
-      <t>カイソウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>テイギ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>文字列 (xsd:string)</t>
-    <rPh sb="0" eb="3">
-      <t>モジレツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>整数 (xsd:int)</t>
-    <rPh sb="0" eb="2">
-      <t>セイスウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>整数 (xsd:long)</t>
-    <rPh sb="0" eb="2">
-      <t>セイスウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>数値 (xsd:decimal)</t>
-    <rPh sb="0" eb="2">
-      <t>スウチ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>日時 (xsd:dateTime)</t>
-    <rPh sb="0" eb="2">
-      <t>ニチジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>真偽値 (xsd:boolean)</t>
-    <rPh sb="0" eb="3">
-      <t>シンギチ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1627,10 +1578,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>バイナリ (xsd:base64Binary)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <r>
       <t>・電文定義書の型のドロップダウンに バイナリ</t>
     </r>
@@ -1685,7 +1632,11 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>オブジェクト (xsd:object)</t>
+    <t>field_5</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>field_6</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1728,6 +1679,27 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>array</t>
+  </si>
+  <si>
+    <t>array</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>object</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>object_sample</t>
+  </si>
+  <si>
+    <t>object_sample</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>デフォルト</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1796,6 +1768,14 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>result_field_6</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>result_field_5</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>デフォルト</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1808,9 +1788,6 @@
   <si>
     <t>YES</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>電文の親クラス</t>
   </si>
   <si>
     <t>認証が不要なAPI</t>
@@ -1919,34 +1896,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>第1パラメータ</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>第2パラメータ</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>第3パラメータ</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>第4パラメータ</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>許可（所有者）</t>
     <rPh sb="0" eb="2">
       <t>キョカ</t>
@@ -1981,67 +1930,10 @@
     <t>POST</t>
   </si>
   <si>
-    <t>要求電文ID（GETメソッド）</t>
-    <rPh sb="0" eb="4">
-      <t>ヨウキュウデンブン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>応答電文ID（GETメソッド）</t>
-    <rPh sb="0" eb="4">
-      <t>オウトウデンブン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>要求電文ID（POSTメソッド）</t>
-    <rPh sb="0" eb="4">
-      <t>ヨウキュウデンブン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>応答電文ID（POSTメソッド）</t>
-    <rPh sb="0" eb="4">
-      <t>オウトウデンブン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>要求電文ID（PUTメソッド）</t>
-    <rPh sb="0" eb="4">
-      <t>ヨウキュウデンブン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>応答電文ID（PUTメソッド）</t>
-    <rPh sb="0" eb="4">
-      <t>オウトウデンブン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>要求電文ID（DELETEメソッド）</t>
-    <rPh sb="0" eb="4">
-      <t>ヨウキュウデンブン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>応答電文ID（DELETEメソッド）</t>
-    <rPh sb="0" eb="4">
-      <t>オウトウデンブン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ApiPostTelegram</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>総称型</t>
+  </si>
+  <si>
+    <t>BlancoApiSample</t>
   </si>
   <si>
     <t>blanco.sample</t>
@@ -2077,56 +1969,79 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>BlancoApiPostSample</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>BlancoApiPostSamplePostRequest</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>BlancoApiPostSampleGetRequest</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>BlancoApiPostSampleGetResponse</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>BlancoApiPostSamplePostResponse</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>BlancoApiPostSamplePutRequest</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>BlancoApiPostSamplePutResponse</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>BlancoApiPostSampleDeleteRequest</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>BlancoApiPostSampleDeleteResponse</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>電文処理定義・継承</t>
+    <t>ObjectSample</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ObjectSample</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>array&lt;ObjectSample&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ObjectSample</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ObjectSample</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>配置ディレクトリ</t>
     <rPh sb="0" eb="2">
-      <t>デンブn</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ショリ</t>
+      <t xml:space="preserve">ハイチ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/blanco/main/typescript</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>本番時にファイルを配置する歳のベースディレクトリ。主にTypeScriptのimport文生成時に使用する事を想定しています。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アノテーション</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>JsonAutoDetect</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>import文の自動生成</t>
+    <rPh sb="6" eb="7">
+      <t xml:space="preserve">ブｎ </t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t xml:space="preserve">ジドウセイセイ </t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>/* TypeScript 独自。blancoで一括生成されたクラスについて、import文を自動生成します。 */</t>
+    <rPh sb="14" eb="16">
+      <t xml:space="preserve">ドクジ </t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t xml:space="preserve">イッカツ </t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t xml:space="preserve">セイセイ </t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t xml:space="preserve">ブｎ </t>
+    </rPh>
+    <rPh sb="47" eb="51">
+      <t xml:space="preserve">ジドウセイセイ </t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>クラス名</t>
-  </si>
-  <si>
-    <t>パッケージ</t>
   </si>
   <si>
     <t>名前空間</t>
@@ -2136,42 +2051,356 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>インタフェース名</t>
+    <rPh sb="0" eb="8">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>インポートクラス名</t>
+    <rPh sb="8" eb="9">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>com.fasterxml.jackson.annotation.*</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ヘッダ記述文</t>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">キジュツ </t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t xml:space="preserve">ブｎ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>import</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>電文処理定義・継承</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">デンブンショリ </t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">テイギ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>電文処理定義・実装</t>
+    <rPh sb="0" eb="6">
+      <t xml:space="preserve">デンブンショリテイギ </t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">ジッソウ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>電文処理定義・インポート</t>
+    <rPh sb="0" eb="6">
+      <t xml:space="preserve">デンブンショリテイギ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>電文処理定義・ヘッダ情報</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">デンブンショリ </t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">テイギ </t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t xml:space="preserve">ジョウホウ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>電文定義・実装</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">デンブンショリテイギ </t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">ジッソウ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>電文定義・インポート</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">デンブンショリテイギ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>電文定義・ヘッダ情報</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">デンブンショリ </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">テイギ </t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t xml:space="preserve">ジョウホウ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Nullable</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>nullable</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BlancoApiPostSample</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※ 空欄の場合は@Controller("URI")は強制的に設定されます。</t>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">クウラｎ </t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">バアイハ </t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t xml:space="preserve">キョウセイテキニ </t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t xml:space="preserve">セッテイ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※ クラスのGenericを定義するために使用します。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>型(Kt)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>総称型(Kt)</t>
+    <rPh sb="0" eb="2">
+      <t>ソウショウガタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アノテーション(Kt)</t>
+    <rPh sb="0" eb="2">
+      <t>ソウショウガタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>デフォルト(Kt)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>@NotNull(message = "{E005}")</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>その他</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コンストラクタ引数</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>変更不可変数</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/src/main/kotlin</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>APIの実装クラス（Micronautの場合は委譲クラス）配置ディレクトリ</t>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">ジッソウ </t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t xml:space="preserve">バアイハ </t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t xml:space="preserve">ハイチ </t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t xml:space="preserve">イジョウ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>実装ディレクトリ(Kt)</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ハイチ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※ ここにカンマ区切りで記述された文字列が、配列情報として生成されます</t>
+    <rPh sb="12" eb="14">
+      <t xml:space="preserve">キジュツ </t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t xml:space="preserve">モジレツ </t>
+    </rPh>
+    <rPh sb="22" eb="26">
+      <t xml:space="preserve">ハイレツジョウホウ </t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t xml:space="preserve">セイセイ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メタIDリスト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>blanco.restgenerator.valueobject.BusinessApiRequestHeader</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>レスポンスヘッダ情報実装クラス(Kt)</t>
+    <rPh sb="8" eb="10">
+      <t xml:space="preserve">ジョウホウ </t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t xml:space="preserve">ジッソウ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リクエストヘッダ情報実装クラス(Kt)</t>
+    <rPh sb="8" eb="10">
+      <t xml:space="preserve">ジョウホウ </t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t xml:space="preserve">ジッソウ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>blanco.restgenerator.valueobject.*</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※ CommonResponse#info の実装クラスを指定します。infoフィールドが存在しない場合は無視されます。</t>
+    <rPh sb="23" eb="25">
+      <t xml:space="preserve">ジッソウクラス </t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t xml:space="preserve">シテイ </t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t xml:space="preserve">ソンザイ </t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t xml:space="preserve">バアイハ </t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t xml:space="preserve">ムシサレマス。 </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※ CommonRequest#info の実装クラスを指定します。infoフィールドが存在しない場合は無視されます。</t>
+    <rPh sb="22" eb="24">
+      <t xml:space="preserve">ジッソウクラス </t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t xml:space="preserve">シテイ </t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t xml:space="preserve">ソンザイ </t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t xml:space="preserve">バアイハ </t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t xml:space="preserve">ムシサレマス。 </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>ApiBase</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>電文定義・継承</t>
-    <rPh sb="0" eb="2">
-      <t>デンブn</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>blanco.rest.common</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>blanco\rest\common</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>blanco.rest.valueobject</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>blanco\rest\valueobject</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>field_5</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>オブジェクト</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>SimpleObject</t>
+    <t>blanco.sample.util</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※ serverTypeがmicronautの場合は無視します。</t>
+    <rPh sb="23" eb="25">
+      <t xml:space="preserve">バアイハ </t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t xml:space="preserve">ムシ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>@NotNull(message = "{E005}")
+@field:Valid</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>javax.validation.Valid</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>デコレーション</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※ Typescript専用</t>
+    <rPh sb="12" eb="14">
+      <t xml:space="preserve">センヨウ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アノテーション(Kt)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※ 「アノテーション」も有効ですが、kotlinではこちらが優先されます。</t>
+    <rPh sb="12" eb="14">
+      <t xml:space="preserve">ユウコウデスガ </t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t xml:space="preserve">ユウセｎ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>@Dummy</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>@field:Max(10)</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2179,7 +2408,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -2242,8 +2471,21 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2282,6 +2524,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="27"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFCCFFCC"/>
         <bgColor rgb="FFCCFFFF"/>
       </patternFill>
@@ -2294,18 +2548,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="27"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="9"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="66">
     <border>
       <left/>
       <right/>
@@ -2670,6 +2918,67 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right/>
@@ -2715,9 +3024,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
         <color indexed="8"/>
-      </left>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top style="thin">
         <color indexed="8"/>
@@ -2730,68 +3059,8 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="8"/>
+        <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color indexed="8"/>
       </top>
@@ -2812,15 +3081,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2828,23 +3123,258 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
       <right style="thin">
         <color indexed="8"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
       </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2856,7 +3386,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="207">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2890,7 +3420,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2909,7 +3438,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2938,14 +3466,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3040,46 +3563,93 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="60" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="61" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="60" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3088,6 +3658,138 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3108,16 +3810,40 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3664,456 +4390,924 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:O70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="27" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="58.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6.1640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.1640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.83203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.83203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.83203125" style="1"/>
-    <col min="14" max="14" width="9.1640625" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="4.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="58.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.1640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="6.1640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18.83203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.83203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.83203125" style="1"/>
+    <col min="15" max="15" width="9.1640625" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19">
+    <row r="1" spans="1:8" ht="19">
       <c r="A1" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="E1" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="4" t="s">
+    <row r="5" spans="1:8">
+      <c r="A5" s="185" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="185"/>
+      <c r="C5" s="185"/>
+      <c r="D5" s="185"/>
+      <c r="E5" s="185"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="95"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="182" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="183"/>
+      <c r="C6" s="184"/>
+      <c r="D6" s="181" t="s">
+        <v>197</v>
+      </c>
+      <c r="E6" s="181"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="95"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="185" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="185"/>
+      <c r="C7" s="185"/>
+      <c r="D7" s="181" t="s">
+        <v>166</v>
+      </c>
+      <c r="E7" s="181"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="95"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="185" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="185"/>
+      <c r="C8" s="185"/>
+      <c r="D8" s="181" t="s">
+        <v>162</v>
+      </c>
+      <c r="E8" s="181"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="185" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="185"/>
+      <c r="C9" s="185"/>
+      <c r="D9" s="181" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="181"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="95"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="185" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="185"/>
+      <c r="C10" s="185"/>
+      <c r="D10" s="181"/>
+      <c r="E10" s="181"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="95"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="185" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" s="185"/>
+      <c r="C11" s="185"/>
+      <c r="D11" s="181" t="s">
+        <v>163</v>
+      </c>
+      <c r="E11" s="181"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="95"/>
+      <c r="H11" s="95"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="144" t="s">
+        <v>174</v>
+      </c>
+      <c r="B12" s="144"/>
+      <c r="C12" s="144"/>
+      <c r="D12" s="165" t="s">
+        <v>175</v>
+      </c>
+      <c r="E12" s="165"/>
+      <c r="F12" s="95" t="s">
+        <v>176</v>
+      </c>
+      <c r="G12" s="54"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="144" t="s">
+        <v>212</v>
+      </c>
+      <c r="B13" s="144"/>
+      <c r="C13" s="144"/>
+      <c r="D13" s="165" t="s">
+        <v>210</v>
+      </c>
+      <c r="E13" s="165"/>
+      <c r="F13" s="95" t="s">
+        <v>211</v>
+      </c>
+      <c r="G13" s="54"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="144" t="s">
+        <v>177</v>
+      </c>
+      <c r="B14" s="144"/>
+      <c r="C14" s="144"/>
+      <c r="D14" s="164"/>
+      <c r="E14" s="165"/>
+      <c r="F14" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="G14" s="54"/>
+      <c r="H14" s="95"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="144" t="s">
+        <v>217</v>
+      </c>
+      <c r="B15" s="144"/>
+      <c r="C15" s="144"/>
+      <c r="D15" s="164" t="s">
+        <v>215</v>
+      </c>
+      <c r="E15" s="165"/>
+      <c r="F15" s="54" t="s">
+        <v>220</v>
+      </c>
+      <c r="G15" s="54"/>
+      <c r="H15" s="95"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="144" t="s">
+        <v>216</v>
+      </c>
+      <c r="B16" s="144"/>
+      <c r="C16" s="144"/>
+      <c r="D16" s="164"/>
+      <c r="E16" s="165"/>
+      <c r="F16" s="54" t="s">
+        <v>219</v>
+      </c>
+      <c r="G16" s="54"/>
+      <c r="H16" s="95"/>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="144" t="s">
+        <v>214</v>
+      </c>
+      <c r="B17" s="144"/>
+      <c r="C17" s="144"/>
+      <c r="D17" s="164"/>
+      <c r="E17" s="165"/>
+      <c r="F17" s="54" t="s">
+        <v>213</v>
+      </c>
+      <c r="G17" s="54"/>
+      <c r="H17" s="95"/>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="161" t="s">
+        <v>143</v>
+      </c>
+      <c r="B18" s="162"/>
+      <c r="C18" s="163"/>
+      <c r="D18" s="114"/>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="145" t="s">
+        <v>179</v>
+      </c>
+      <c r="B19" s="146"/>
+      <c r="C19" s="147"/>
+      <c r="D19" s="100"/>
+      <c r="E19" t="s">
+        <v>180</v>
+      </c>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="158" t="s">
+        <v>188</v>
+      </c>
+      <c r="B21" s="159"/>
+      <c r="C21" s="159"/>
+      <c r="D21" s="159"/>
+      <c r="E21" s="159"/>
+      <c r="F21" s="159"/>
+      <c r="G21" s="160"/>
+      <c r="H21" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="101" t="s">
         <v>181</v>
       </c>
-      <c r="C6" s="29"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>178</v>
-      </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="B8" s="58" t="s">
+      <c r="B22" s="110"/>
+      <c r="C22" s="102"/>
+      <c r="D22" s="103" t="s">
+        <v>221</v>
+      </c>
+      <c r="E22" s="103"/>
+      <c r="F22" s="103"/>
+      <c r="G22" s="104"/>
+      <c r="H22" s="105"/>
+      <c r="I22" s="105"/>
+      <c r="J22" s="105"/>
+      <c r="K22" s="105"/>
+      <c r="L22" s="105"/>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="98" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" s="113"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="96" t="s">
+        <v>222</v>
+      </c>
+      <c r="E23" s="97"/>
+      <c r="F23" s="97"/>
+      <c r="G23" s="106"/>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="98" t="s">
+        <v>182</v>
+      </c>
+      <c r="B24" s="113"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="107"/>
+      <c r="E24" s="108"/>
+      <c r="F24" s="108"/>
+      <c r="G24" s="109"/>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="C25"/>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="157" t="s">
+        <v>189</v>
+      </c>
+      <c r="B26" s="157"/>
+      <c r="C26" s="157"/>
+      <c r="D26" s="157"/>
+      <c r="E26" s="157"/>
+      <c r="F26" s="157"/>
+      <c r="G26" s="157"/>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="115" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="151" t="s">
         <v>183</v>
       </c>
-      <c r="C8" s="29"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="B9" s="58" t="s">
+      <c r="C27" s="152"/>
+      <c r="D27" s="152"/>
+      <c r="E27" s="152"/>
+      <c r="F27" s="152"/>
+      <c r="G27" s="153"/>
+      <c r="H27" s="105"/>
+      <c r="I27" s="105"/>
+      <c r="J27" s="105"/>
+      <c r="K27" s="105"/>
+      <c r="L27" s="105"/>
+      <c r="N27" s="111"/>
+      <c r="O27" s="111"/>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="116"/>
+      <c r="B28" s="168"/>
+      <c r="C28" s="168"/>
+      <c r="D28" s="168"/>
+      <c r="E28" s="168"/>
+      <c r="F28" s="168"/>
+      <c r="G28" s="168"/>
+      <c r="H28" s="112"/>
+      <c r="I28" s="112"/>
+      <c r="J28" s="112"/>
+      <c r="K28" s="112"/>
+      <c r="M28"/>
+      <c r="N28"/>
+      <c r="O28"/>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="117"/>
+      <c r="B29" s="169"/>
+      <c r="C29" s="169"/>
+      <c r="D29" s="169"/>
+      <c r="E29" s="169"/>
+      <c r="F29" s="169"/>
+      <c r="G29" s="169"/>
+      <c r="H29" s="112"/>
+      <c r="I29" s="112"/>
+      <c r="J29" s="112"/>
+      <c r="K29" s="112"/>
+      <c r="M29"/>
+      <c r="N29"/>
+      <c r="O29"/>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="118"/>
+      <c r="B30" s="170"/>
+      <c r="C30" s="170"/>
+      <c r="D30" s="170"/>
+      <c r="E30" s="170"/>
+      <c r="F30" s="170"/>
+      <c r="G30" s="170"/>
+      <c r="H30" s="112"/>
+      <c r="I30" s="112"/>
+      <c r="J30" s="112"/>
+      <c r="K30" s="112"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="C31"/>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="154" t="s">
+        <v>190</v>
+      </c>
+      <c r="B32" s="155"/>
+      <c r="C32" s="155"/>
+      <c r="D32" s="155"/>
+      <c r="E32" s="155"/>
+      <c r="F32" s="155"/>
+      <c r="G32" s="156"/>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="115" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="174" t="s">
         <v>184</v>
       </c>
-      <c r="C9" s="29"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="104" t="s">
-        <v>167</v>
-      </c>
-      <c r="B10" s="58" t="s">
-        <v>182</v>
-      </c>
-      <c r="C10" s="29"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="104" t="s">
-        <v>168</v>
-      </c>
-      <c r="B11" s="106" t="s">
-        <v>185</v>
-      </c>
-      <c r="C11" s="29"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="104" t="s">
-        <v>169</v>
-      </c>
-      <c r="B12" s="58" t="s">
+      <c r="C33" s="174"/>
+      <c r="D33" s="174"/>
+      <c r="E33" s="174"/>
+      <c r="F33" s="174"/>
+      <c r="G33" s="174"/>
+      <c r="H33" s="105"/>
+      <c r="I33" s="105"/>
+      <c r="J33" s="105"/>
+      <c r="K33" s="105"/>
+      <c r="L33" s="105"/>
+      <c r="N33" s="111"/>
+      <c r="O33" s="111"/>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="116">
+        <v>1</v>
+      </c>
+      <c r="B34" s="175" t="s">
+        <v>218</v>
+      </c>
+      <c r="C34" s="175"/>
+      <c r="D34" s="175"/>
+      <c r="E34" s="175"/>
+      <c r="F34" s="175"/>
+      <c r="G34" s="175"/>
+      <c r="H34" s="112"/>
+      <c r="I34" s="112"/>
+      <c r="J34" s="112"/>
+      <c r="K34" s="112"/>
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34"/>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="117"/>
+      <c r="B35" s="176"/>
+      <c r="C35" s="176"/>
+      <c r="D35" s="176"/>
+      <c r="E35" s="176"/>
+      <c r="F35" s="176"/>
+      <c r="G35" s="176"/>
+      <c r="H35" s="112"/>
+      <c r="I35" s="112"/>
+      <c r="J35" s="112"/>
+      <c r="K35" s="112"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35"/>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="118"/>
+      <c r="B36" s="177"/>
+      <c r="C36" s="177"/>
+      <c r="D36" s="177"/>
+      <c r="E36" s="177"/>
+      <c r="F36" s="177"/>
+      <c r="G36" s="177"/>
+      <c r="H36" s="112"/>
+      <c r="I36" s="112"/>
+      <c r="J36" s="112"/>
+      <c r="K36" s="112"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36"/>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37"/>
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="154" t="s">
+        <v>191</v>
+      </c>
+      <c r="B38" s="155"/>
+      <c r="C38" s="155"/>
+      <c r="D38" s="155"/>
+      <c r="E38" s="155"/>
+      <c r="F38" s="155"/>
+      <c r="G38" s="156"/>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="115" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" s="174" t="s">
         <v>186</v>
       </c>
-      <c r="C12" s="29"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="104" t="s">
-        <v>170</v>
-      </c>
-      <c r="B13" s="58" t="s">
-        <v>187</v>
-      </c>
-      <c r="C13" s="29"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="104" t="s">
-        <v>171</v>
-      </c>
-      <c r="B14" s="58" t="s">
-        <v>188</v>
-      </c>
-      <c r="C14" s="29"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="104" t="s">
-        <v>172</v>
-      </c>
-      <c r="B15" s="58" t="s">
-        <v>189</v>
-      </c>
-      <c r="C15" s="29"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="104" t="s">
-        <v>143</v>
-      </c>
-      <c r="B16" s="105"/>
-      <c r="C16" s="29"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="C17" s="29"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B19" s="30" t="s">
-        <v>175</v>
-      </c>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="61"/>
-      <c r="B21" s="61"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
-    </row>
-    <row r="22" spans="1:10" s="109" customFormat="1">
-      <c r="A22" s="107" t="s">
-        <v>190</v>
-      </c>
-      <c r="B22" s="108"/>
-      <c r="C22" s="108"/>
-      <c r="D22" s="108"/>
-      <c r="E22" s="108"/>
-      <c r="F22" s="119"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="1:10" s="109" customFormat="1">
-      <c r="A23" s="110" t="s">
-        <v>191</v>
-      </c>
-      <c r="B23" s="111"/>
-      <c r="C23" s="112" t="s">
-        <v>194</v>
-      </c>
-      <c r="D23" s="112"/>
-      <c r="E23" s="112"/>
-      <c r="F23" s="120"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="1:10" s="109" customFormat="1">
-      <c r="A24" s="113" t="s">
-        <v>192</v>
-      </c>
-      <c r="B24" s="114"/>
-      <c r="C24" s="115" t="s">
-        <v>196</v>
-      </c>
-      <c r="D24" s="116"/>
-      <c r="E24" s="117"/>
-      <c r="F24" s="118"/>
-    </row>
-    <row r="25" spans="1:10" s="109" customFormat="1">
-      <c r="A25" s="113" t="s">
-        <v>193</v>
-      </c>
-      <c r="B25" s="114"/>
-      <c r="C25" s="121" t="s">
-        <v>197</v>
-      </c>
-      <c r="D25" s="122"/>
-      <c r="E25" s="123"/>
-      <c r="F25" s="118"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="6"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="5"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="B28" s="129" t="s">
-        <v>73</v>
-      </c>
-      <c r="C28" s="130"/>
-      <c r="D28" s="131"/>
-      <c r="E28" s="31" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="52"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="52"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="52"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="52"/>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="52"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="52"/>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="52"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="52"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="52"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="52"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="52"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="52"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="52"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="52"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="52"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="52"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="52"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="52"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="52"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="52"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="52"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="54"/>
-      <c r="E39" s="52"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="52"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="54"/>
-      <c r="E40" s="52"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="52"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="52"/>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="52"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="54"/>
-      <c r="E42" s="52"/>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="52"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="54"/>
-      <c r="E43" s="52"/>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="52"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="54"/>
-      <c r="E44" s="52"/>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="52"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="54"/>
-      <c r="E45" s="52"/>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="52"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="54"/>
-      <c r="E46" s="52"/>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="52"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="54"/>
-      <c r="E47" s="52"/>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="52"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="54"/>
-      <c r="E48" s="52"/>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="52"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="54"/>
-      <c r="E49" s="52"/>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="52"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="54"/>
-      <c r="E50" s="52"/>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="52"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="54"/>
-      <c r="E51" s="52"/>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="52"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="29"/>
-      <c r="D52" s="54"/>
-      <c r="E52" s="52"/>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="53"/>
-      <c r="B53" s="38"/>
-      <c r="C53" s="55"/>
-      <c r="D53" s="56"/>
-      <c r="E53" s="53"/>
+      <c r="C39" s="174"/>
+      <c r="D39" s="174"/>
+      <c r="E39" s="174"/>
+      <c r="F39" s="174"/>
+      <c r="G39" s="174"/>
+      <c r="H39" s="105"/>
+      <c r="I39" s="105"/>
+      <c r="J39" s="105"/>
+      <c r="K39" s="105"/>
+      <c r="L39" s="105"/>
+      <c r="N39" s="111"/>
+      <c r="O39" s="111"/>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="116"/>
+      <c r="B40" s="168"/>
+      <c r="C40" s="168"/>
+      <c r="D40" s="168"/>
+      <c r="E40" s="168"/>
+      <c r="F40" s="168"/>
+      <c r="G40" s="178"/>
+      <c r="H40" s="112"/>
+      <c r="I40" s="112"/>
+      <c r="J40" s="112"/>
+      <c r="K40" s="112"/>
+      <c r="M40"/>
+      <c r="N40"/>
+      <c r="O40"/>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="117"/>
+      <c r="B41" s="169"/>
+      <c r="C41" s="169"/>
+      <c r="D41" s="169"/>
+      <c r="E41" s="169"/>
+      <c r="F41" s="169"/>
+      <c r="G41" s="179"/>
+      <c r="H41" s="112"/>
+      <c r="I41" s="112"/>
+      <c r="J41" s="112"/>
+      <c r="K41" s="112"/>
+      <c r="M41"/>
+      <c r="N41"/>
+      <c r="O41"/>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" s="118"/>
+      <c r="B42" s="170"/>
+      <c r="C42" s="170"/>
+      <c r="D42" s="170"/>
+      <c r="E42" s="170"/>
+      <c r="F42" s="170"/>
+      <c r="G42" s="180"/>
+      <c r="H42" s="112"/>
+      <c r="I42" s="112"/>
+      <c r="J42" s="112"/>
+      <c r="K42" s="112"/>
+      <c r="M42"/>
+      <c r="N42"/>
+      <c r="O42"/>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43"/>
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="5"/>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="141" t="s">
+        <v>65</v>
+      </c>
+      <c r="B45" s="148"/>
+      <c r="C45" s="141" t="s">
+        <v>66</v>
+      </c>
+      <c r="D45" s="142"/>
+      <c r="E45" s="143"/>
+      <c r="F45" s="29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="149"/>
+      <c r="B46" s="150"/>
+      <c r="C46" s="149"/>
+      <c r="D46" s="171"/>
+      <c r="E46" s="150"/>
+      <c r="F46" s="49"/>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" s="139"/>
+      <c r="B47" s="140"/>
+      <c r="C47" s="139"/>
+      <c r="D47" s="172"/>
+      <c r="E47" s="140"/>
+      <c r="F47" s="49"/>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" s="139"/>
+      <c r="B48" s="140"/>
+      <c r="C48" s="139"/>
+      <c r="D48" s="172"/>
+      <c r="E48" s="140"/>
+      <c r="F48" s="49"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="139"/>
+      <c r="B49" s="140"/>
+      <c r="C49" s="139"/>
+      <c r="D49" s="172"/>
+      <c r="E49" s="140"/>
+      <c r="F49" s="49"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="139"/>
+      <c r="B50" s="140"/>
+      <c r="C50" s="139"/>
+      <c r="D50" s="172"/>
+      <c r="E50" s="140"/>
+      <c r="F50" s="49"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="139"/>
+      <c r="B51" s="140"/>
+      <c r="C51" s="139"/>
+      <c r="D51" s="172"/>
+      <c r="E51" s="140"/>
+      <c r="F51" s="49"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="139"/>
+      <c r="B52" s="140"/>
+      <c r="C52" s="139"/>
+      <c r="D52" s="172"/>
+      <c r="E52" s="140"/>
+      <c r="F52" s="49"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="139"/>
+      <c r="B53" s="140"/>
+      <c r="C53" s="139"/>
+      <c r="D53" s="172"/>
+      <c r="E53" s="140"/>
+      <c r="F53" s="49"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="139"/>
+      <c r="B54" s="140"/>
+      <c r="C54" s="139"/>
+      <c r="D54" s="172"/>
+      <c r="E54" s="140"/>
+      <c r="F54" s="49"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="139"/>
+      <c r="B55" s="140"/>
+      <c r="C55" s="139"/>
+      <c r="D55" s="172"/>
+      <c r="E55" s="140"/>
+      <c r="F55" s="49"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="139"/>
+      <c r="B56" s="140"/>
+      <c r="C56" s="139"/>
+      <c r="D56" s="172"/>
+      <c r="E56" s="140"/>
+      <c r="F56" s="49"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="139"/>
+      <c r="B57" s="140"/>
+      <c r="C57" s="139"/>
+      <c r="D57" s="172"/>
+      <c r="E57" s="140"/>
+      <c r="F57" s="49"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="139"/>
+      <c r="B58" s="140"/>
+      <c r="C58" s="139"/>
+      <c r="D58" s="172"/>
+      <c r="E58" s="140"/>
+      <c r="F58" s="49"/>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="139"/>
+      <c r="B59" s="140"/>
+      <c r="C59" s="139"/>
+      <c r="D59" s="172"/>
+      <c r="E59" s="140"/>
+      <c r="F59" s="49"/>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="139"/>
+      <c r="B60" s="140"/>
+      <c r="C60" s="139"/>
+      <c r="D60" s="172"/>
+      <c r="E60" s="140"/>
+      <c r="F60" s="49"/>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="139"/>
+      <c r="B61" s="140"/>
+      <c r="C61" s="139"/>
+      <c r="D61" s="172"/>
+      <c r="E61" s="140"/>
+      <c r="F61" s="49"/>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="139"/>
+      <c r="B62" s="140"/>
+      <c r="C62" s="139"/>
+      <c r="D62" s="172"/>
+      <c r="E62" s="140"/>
+      <c r="F62" s="49"/>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="139"/>
+      <c r="B63" s="140"/>
+      <c r="C63" s="139"/>
+      <c r="D63" s="172"/>
+      <c r="E63" s="140"/>
+      <c r="F63" s="49"/>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="139"/>
+      <c r="B64" s="140"/>
+      <c r="C64" s="139"/>
+      <c r="D64" s="172"/>
+      <c r="E64" s="140"/>
+      <c r="F64" s="49"/>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="139"/>
+      <c r="B65" s="140"/>
+      <c r="C65" s="139"/>
+      <c r="D65" s="172"/>
+      <c r="E65" s="140"/>
+      <c r="F65" s="49"/>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="139"/>
+      <c r="B66" s="140"/>
+      <c r="C66" s="139"/>
+      <c r="D66" s="172"/>
+      <c r="E66" s="140"/>
+      <c r="F66" s="49"/>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="139"/>
+      <c r="B67" s="140"/>
+      <c r="C67" s="139"/>
+      <c r="D67" s="172"/>
+      <c r="E67" s="140"/>
+      <c r="F67" s="49"/>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="139"/>
+      <c r="B68" s="140"/>
+      <c r="C68" s="139"/>
+      <c r="D68" s="172"/>
+      <c r="E68" s="140"/>
+      <c r="F68" s="49"/>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="139"/>
+      <c r="B69" s="140"/>
+      <c r="C69" s="139"/>
+      <c r="D69" s="172"/>
+      <c r="E69" s="140"/>
+      <c r="F69" s="49"/>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="166"/>
+      <c r="B70" s="167"/>
+      <c r="C70" s="166"/>
+      <c r="D70" s="173"/>
+      <c r="E70" s="167"/>
+      <c r="F70" s="50"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B28:D28"/>
+  <mergeCells count="95">
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="C69:E69"/>
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A38:G38"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D19" xr:uid="{AA005DBF-E840-AD43-AC91-CD6CE016CB50}">
+      <formula1>isImport</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.11811023622047245"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape"/>
   <headerFooter>
@@ -4124,9 +5318,9 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
-            <xm:f>config!$C$5:$C$6</xm:f>
+            <xm:f>config!$B$5:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>B16</xm:sqref>
+          <xm:sqref>D18</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4135,14 +5329,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R52"/>
+  <dimension ref="A1:Z66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -4150,796 +5344,1549 @@
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.1640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="26.6640625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="20.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.1640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="6.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.83203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9" style="1" customWidth="1"/>
-    <col min="13" max="13" width="16.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="6.83203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="18.6640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="43.5" style="1" customWidth="1"/>
-    <col min="17" max="17" width="11.33203125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="6.1640625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="16.1640625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="6.1640625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="18.83203125" style="1" customWidth="1"/>
-    <col min="22" max="22" width="10.33203125" style="1" customWidth="1"/>
-    <col min="23" max="23" width="9.83203125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="8.83203125" style="1"/>
-    <col min="25" max="25" width="9.1640625" style="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.83203125" style="1"/>
+    <col min="4" max="6" width="20.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.6640625" style="1" customWidth="1"/>
+    <col min="9" max="10" width="20.1640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="32" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.1640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.83203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10" style="1" customWidth="1"/>
+    <col min="16" max="16" width="7.1640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="6.33203125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="6.6640625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="6.83203125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="9" style="1" customWidth="1"/>
+    <col min="21" max="21" width="16.6640625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="6.83203125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="18.6640625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="43.5" style="1" customWidth="1"/>
+    <col min="25" max="25" width="11.33203125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="6.1640625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="16.1640625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="6.1640625" style="1" customWidth="1"/>
+    <col min="29" max="29" width="18.83203125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="10.33203125" style="1" customWidth="1"/>
+    <col min="31" max="31" width="9.83203125" style="1" customWidth="1"/>
+    <col min="32" max="32" width="8.83203125" style="1"/>
+    <col min="33" max="33" width="9.1640625" style="1" customWidth="1"/>
+    <col min="34" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19">
+    <row r="1" spans="1:19" ht="19">
       <c r="A1" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:19">
       <c r="B2" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="B3" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="59" t="s">
-        <v>182</v>
-      </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="C6" s="129" t="str">
+        <f>process!D6&amp;PROPER(C9)&amp;IF(C8="要求電文(C→S)", "Request", "Response")</f>
+        <v>BlancoApiPostSamplePostRequest</v>
+      </c>
+      <c r="D6" s="130"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="4" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="59" t="s">
-        <v>179</v>
-      </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7"/>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="C7" s="52" t="s">
+        <v>167</v>
+      </c>
+      <c r="D7" s="127"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="54"/>
+      <c r="R7" s="54"/>
+      <c r="S7"/>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="5"/>
-      <c r="C8" s="90" t="s">
+      <c r="C8" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="124"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="D8" s="125"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="4" t="s">
         <v>155</v>
       </c>
       <c r="B9" s="5"/>
-      <c r="C9" s="125" t="s">
+      <c r="C9" s="121" t="s">
+        <v>160</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="121"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="H10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="56" t="s">
+        <v>157</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="121"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="H11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="56" t="s">
+        <v>158</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="126"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="H12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="128"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="52" t="s">
         <v>164</v>
       </c>
-      <c r="D9" s="55"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="63" t="s">
-        <v>156</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="61"/>
-      <c r="G10" s="29"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="63" t="s">
-        <v>157</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="61"/>
-      <c r="G11" s="29"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="63" t="s">
-        <v>158</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="61"/>
-      <c r="G12" s="29"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="63" t="s">
-        <v>159</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="61"/>
-      <c r="G13" s="29"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="63" t="s">
-        <v>160</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="125"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="61"/>
-      <c r="G14" s="29"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="63" t="s">
+      <c r="D14" s="35"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="122" t="s">
+        <v>174</v>
+      </c>
+      <c r="B15" s="122"/>
+      <c r="C15" s="165" t="s">
+        <v>175</v>
+      </c>
+      <c r="D15" s="165"/>
+      <c r="E15" s="95" t="s">
+        <v>176</v>
+      </c>
+      <c r="G15" s="54"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="122" t="s">
+        <v>226</v>
+      </c>
+      <c r="B16" s="122"/>
+      <c r="C16" s="164" t="s">
+        <v>230</v>
+      </c>
+      <c r="D16" s="165"/>
+      <c r="E16" s="55" t="s">
+        <v>227</v>
+      </c>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="95"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16" s="95"/>
+      <c r="N16" s="95"/>
+      <c r="O16" s="95"/>
+    </row>
+    <row r="17" spans="1:22">
+      <c r="A17" s="122" t="s">
+        <v>177</v>
+      </c>
+      <c r="B17" s="122"/>
+      <c r="C17" s="165" t="s">
+        <v>178</v>
+      </c>
+      <c r="D17" s="165"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="P17" s="95"/>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="A18" s="122" t="s">
+        <v>228</v>
+      </c>
+      <c r="B18" s="122"/>
+      <c r="C18" s="164"/>
+      <c r="D18" s="165"/>
+      <c r="E18" s="55" t="s">
+        <v>229</v>
+      </c>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="95"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18" s="95"/>
+      <c r="N18" s="95"/>
+      <c r="O18" s="95"/>
+    </row>
+    <row r="19" spans="1:22">
+      <c r="A19" s="123" t="s">
+        <v>179</v>
+      </c>
+      <c r="B19" s="124"/>
+      <c r="C19" s="100" t="s">
+        <v>141</v>
+      </c>
+      <c r="D19" t="s">
+        <v>180</v>
+      </c>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19"/>
+      <c r="R19"/>
+      <c r="S19"/>
+    </row>
+    <row r="20" spans="1:22">
+      <c r="A20" s="6"/>
+      <c r="C20" s="28"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="A21" s="157" t="s">
+        <v>192</v>
+      </c>
+      <c r="B21" s="157"/>
+      <c r="C21" s="157"/>
+      <c r="D21" s="157"/>
+      <c r="E21" s="157"/>
+      <c r="F21" s="157"/>
+      <c r="G21" s="157"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="A22" s="115" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="151" t="s">
+        <v>183</v>
+      </c>
+      <c r="C22" s="152"/>
+      <c r="D22" s="152"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="152"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="105"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22" s="105"/>
+      <c r="N22" s="105"/>
+      <c r="O22" s="105"/>
+      <c r="P22" s="105"/>
+      <c r="Q22" s="105"/>
+      <c r="R22" s="105"/>
+      <c r="S22" s="105"/>
+      <c r="U22" s="111"/>
+      <c r="V22" s="111"/>
+    </row>
+    <row r="23" spans="1:22">
+      <c r="A23" s="116"/>
+      <c r="B23" s="168"/>
+      <c r="C23" s="168"/>
+      <c r="D23" s="168"/>
+      <c r="E23" s="168"/>
+      <c r="F23" s="168"/>
+      <c r="G23" s="168"/>
+      <c r="H23" s="112"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23" s="112"/>
+      <c r="N23" s="112"/>
+      <c r="O23" s="112"/>
+      <c r="P23" s="112"/>
+      <c r="Q23" s="112"/>
+      <c r="R23" s="112"/>
+      <c r="T23"/>
+      <c r="U23"/>
+      <c r="V23"/>
+    </row>
+    <row r="24" spans="1:22">
+      <c r="A24" s="117"/>
+      <c r="B24" s="169"/>
+      <c r="C24" s="169"/>
+      <c r="D24" s="169"/>
+      <c r="E24" s="169"/>
+      <c r="F24" s="169"/>
+      <c r="G24" s="169"/>
+      <c r="H24" s="112"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24" s="112"/>
+      <c r="N24" s="112"/>
+      <c r="O24" s="112"/>
+      <c r="P24" s="112"/>
+      <c r="Q24" s="112"/>
+      <c r="R24" s="112"/>
+      <c r="T24"/>
+      <c r="U24"/>
+      <c r="V24"/>
+    </row>
+    <row r="25" spans="1:22">
+      <c r="A25" s="118"/>
+      <c r="B25" s="170"/>
+      <c r="C25" s="170"/>
+      <c r="D25" s="170"/>
+      <c r="E25" s="170"/>
+      <c r="F25" s="170"/>
+      <c r="G25" s="170"/>
+      <c r="H25" s="112"/>
+      <c r="M25" s="112"/>
+      <c r="N25" s="112"/>
+      <c r="O25" s="112"/>
+      <c r="P25" s="112"/>
+      <c r="Q25" s="112"/>
+      <c r="R25" s="112"/>
+      <c r="T25"/>
+      <c r="U25"/>
+      <c r="V25"/>
+    </row>
+    <row r="26" spans="1:22">
+      <c r="C26"/>
+      <c r="I26" s="105"/>
+      <c r="J26" s="105"/>
+      <c r="K26" s="105"/>
+      <c r="L26" s="105"/>
+    </row>
+    <row r="27" spans="1:22">
+      <c r="A27" s="154" t="s">
+        <v>193</v>
+      </c>
+      <c r="B27" s="155"/>
+      <c r="C27" s="155"/>
+      <c r="D27" s="155"/>
+      <c r="E27" s="155"/>
+      <c r="F27" s="155"/>
+      <c r="G27" s="156"/>
+      <c r="I27" s="105"/>
+      <c r="J27" s="105"/>
+      <c r="K27" s="105"/>
+      <c r="L27" s="105"/>
+    </row>
+    <row r="28" spans="1:22">
+      <c r="A28" s="115" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="174" t="s">
+        <v>184</v>
+      </c>
+      <c r="C28" s="174"/>
+      <c r="D28" s="174"/>
+      <c r="E28" s="174"/>
+      <c r="F28" s="174"/>
+      <c r="G28" s="174"/>
+      <c r="H28" s="105"/>
+      <c r="I28" s="105"/>
+      <c r="J28" s="105"/>
+      <c r="K28" s="105"/>
+      <c r="L28" s="105"/>
+      <c r="M28" s="105"/>
+      <c r="N28" s="105"/>
+      <c r="O28" s="105"/>
+      <c r="P28" s="105"/>
+      <c r="Q28" s="105"/>
+      <c r="R28" s="105"/>
+      <c r="S28" s="105"/>
+      <c r="U28" s="111"/>
+      <c r="V28" s="111"/>
+    </row>
+    <row r="29" spans="1:22">
+      <c r="A29" s="116">
+        <v>1</v>
+      </c>
+      <c r="B29" s="175" t="s">
+        <v>225</v>
+      </c>
+      <c r="C29" s="175"/>
+      <c r="D29" s="175"/>
+      <c r="E29" s="175"/>
+      <c r="F29" s="175"/>
+      <c r="G29" s="175"/>
+      <c r="H29" s="112"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29" s="112"/>
+      <c r="N29" s="112"/>
+      <c r="O29" s="112"/>
+      <c r="P29" s="112"/>
+      <c r="Q29" s="112"/>
+      <c r="R29" s="112"/>
+      <c r="T29"/>
+      <c r="U29"/>
+      <c r="V29"/>
+    </row>
+    <row r="30" spans="1:22">
+      <c r="A30" s="117"/>
+      <c r="B30" s="176"/>
+      <c r="C30" s="176"/>
+      <c r="D30" s="176"/>
+      <c r="E30" s="176"/>
+      <c r="F30" s="176"/>
+      <c r="G30" s="176"/>
+      <c r="H30" s="112"/>
+      <c r="M30" s="112"/>
+      <c r="N30" s="112"/>
+      <c r="O30" s="112"/>
+      <c r="P30" s="112"/>
+      <c r="Q30" s="112"/>
+      <c r="R30" s="112"/>
+      <c r="T30"/>
+      <c r="U30"/>
+      <c r="V30"/>
+    </row>
+    <row r="31" spans="1:22">
+      <c r="A31" s="118"/>
+      <c r="B31" s="177"/>
+      <c r="C31" s="177"/>
+      <c r="D31" s="177"/>
+      <c r="E31" s="177"/>
+      <c r="F31" s="177"/>
+      <c r="G31" s="177"/>
+      <c r="H31" s="112"/>
+      <c r="I31" s="105"/>
+      <c r="J31" s="105"/>
+      <c r="K31" s="105"/>
+      <c r="L31" s="105"/>
+      <c r="M31" s="112"/>
+      <c r="N31" s="112"/>
+      <c r="O31" s="112"/>
+      <c r="P31" s="112"/>
+      <c r="Q31" s="112"/>
+      <c r="R31" s="112"/>
+      <c r="T31"/>
+      <c r="U31"/>
+      <c r="V31"/>
+    </row>
+    <row r="32" spans="1:22">
+      <c r="A32"/>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32" s="112"/>
+      <c r="J32" s="112"/>
+      <c r="K32" s="112"/>
+      <c r="L32" s="112"/>
+      <c r="M32"/>
+      <c r="N32"/>
+      <c r="O32"/>
+      <c r="P32"/>
+      <c r="Q32"/>
+      <c r="R32"/>
+      <c r="S32"/>
+      <c r="T32"/>
+    </row>
+    <row r="33" spans="1:26">
+      <c r="A33" s="154" t="s">
+        <v>194</v>
+      </c>
+      <c r="B33" s="155"/>
+      <c r="C33" s="155"/>
+      <c r="D33" s="155"/>
+      <c r="E33" s="155"/>
+      <c r="F33" s="155"/>
+      <c r="G33" s="156"/>
+      <c r="I33" s="112"/>
+      <c r="J33" s="112"/>
+      <c r="K33" s="112"/>
+      <c r="L33" s="112"/>
+    </row>
+    <row r="34" spans="1:26">
+      <c r="A34" s="115" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="174" t="s">
+        <v>186</v>
+      </c>
+      <c r="C34" s="174"/>
+      <c r="D34" s="174"/>
+      <c r="E34" s="174"/>
+      <c r="F34" s="174"/>
+      <c r="G34" s="174"/>
+      <c r="H34" s="105"/>
+      <c r="I34" s="112"/>
+      <c r="J34" s="112"/>
+      <c r="K34" s="112"/>
+      <c r="L34" s="112"/>
+      <c r="M34" s="105"/>
+      <c r="N34" s="105"/>
+      <c r="O34" s="105"/>
+      <c r="P34" s="105"/>
+      <c r="Q34" s="105"/>
+      <c r="R34" s="105"/>
+      <c r="S34" s="105"/>
+      <c r="U34" s="111"/>
+      <c r="V34" s="111"/>
+    </row>
+    <row r="35" spans="1:26">
+      <c r="A35" s="116"/>
+      <c r="B35" s="168"/>
+      <c r="C35" s="168"/>
+      <c r="D35" s="168"/>
+      <c r="E35" s="168"/>
+      <c r="F35" s="168"/>
+      <c r="G35" s="178"/>
+      <c r="H35" s="112"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35" s="112"/>
+      <c r="N35" s="112"/>
+      <c r="O35" s="112"/>
+      <c r="P35" s="112"/>
+      <c r="Q35" s="112"/>
+      <c r="R35" s="112"/>
+      <c r="T35"/>
+      <c r="U35"/>
+      <c r="V35"/>
+    </row>
+    <row r="36" spans="1:26">
+      <c r="A36" s="117"/>
+      <c r="B36" s="169"/>
+      <c r="C36" s="169"/>
+      <c r="D36" s="169"/>
+      <c r="E36" s="169"/>
+      <c r="F36" s="169"/>
+      <c r="G36" s="179"/>
+      <c r="H36" s="112"/>
+      <c r="M36" s="112"/>
+      <c r="N36" s="112"/>
+      <c r="O36" s="112"/>
+      <c r="P36" s="112"/>
+      <c r="Q36" s="112"/>
+      <c r="R36" s="112"/>
+      <c r="T36"/>
+      <c r="U36"/>
+      <c r="V36"/>
+    </row>
+    <row r="37" spans="1:26">
+      <c r="A37" s="118"/>
+      <c r="B37" s="170"/>
+      <c r="C37" s="170"/>
+      <c r="D37" s="170"/>
+      <c r="E37" s="170"/>
+      <c r="F37" s="170"/>
+      <c r="G37" s="180"/>
+      <c r="H37" s="112"/>
+      <c r="M37" s="112"/>
+      <c r="N37" s="112"/>
+      <c r="O37" s="112"/>
+      <c r="P37" s="112"/>
+      <c r="Q37" s="112"/>
+      <c r="R37" s="112"/>
+      <c r="T37"/>
+      <c r="U37"/>
+      <c r="V37"/>
+    </row>
+    <row r="38" spans="1:26">
+      <c r="A38"/>
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="P38"/>
+      <c r="Q38"/>
+      <c r="R38"/>
+      <c r="S38"/>
+      <c r="T38"/>
+    </row>
+    <row r="39" spans="1:26">
+      <c r="A39" s="6"/>
+    </row>
+    <row r="40" spans="1:26">
+      <c r="A40" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="37"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="119"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="132"/>
+      <c r="J40" s="132"/>
+      <c r="K40" s="132"/>
+      <c r="L40" s="132"/>
+      <c r="M40" s="37"/>
+      <c r="N40" s="37"/>
+      <c r="O40" s="37"/>
+      <c r="P40" s="37"/>
+      <c r="Q40" s="37"/>
+      <c r="R40" s="37"/>
+      <c r="S40" s="37"/>
+      <c r="T40" s="37"/>
+      <c r="U40" s="38"/>
+      <c r="V40" s="55"/>
+      <c r="W40" s="55"/>
+      <c r="X40" s="55"/>
+      <c r="Y40" s="39"/>
+      <c r="Z40" s="39"/>
+    </row>
+    <row r="41" spans="1:26">
+      <c r="A41" s="190" t="s">
+        <v>69</v>
+      </c>
+      <c r="B41" s="190" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="192" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" s="190" t="s">
+        <v>2</v>
+      </c>
+      <c r="E41" s="193" t="s">
         <v>161</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="125"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="61"/>
-      <c r="G15" s="29"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="63" t="s">
-        <v>162</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="125"/>
-      <c r="D16" s="103"/>
-      <c r="E16" s="61"/>
-      <c r="G16" s="29"/>
-    </row>
-    <row r="17" spans="1:18">
-      <c r="A17" s="63" t="s">
-        <v>142</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="59" t="s">
-        <v>173</v>
-      </c>
-      <c r="D17" s="37"/>
-      <c r="E17" s="61"/>
-      <c r="G17" s="29"/>
-    </row>
-    <row r="18" spans="1:18">
-      <c r="A18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-    </row>
-    <row r="19" spans="1:18">
-      <c r="A19" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="59" t="s">
-        <v>176</v>
-      </c>
-      <c r="D19" s="37"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-    </row>
-    <row r="20" spans="1:18">
-      <c r="A20" s="6"/>
-      <c r="C20" s="29"/>
-    </row>
-    <row r="21" spans="1:18" s="109" customFormat="1">
-      <c r="A21" s="107" t="s">
+      <c r="F41" s="193" t="s">
+        <v>177</v>
+      </c>
+      <c r="G41" s="190" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" s="190" t="s">
+        <v>116</v>
+      </c>
+      <c r="I41" s="197" t="s">
+        <v>200</v>
+      </c>
+      <c r="J41" s="197" t="s">
+        <v>201</v>
+      </c>
+      <c r="K41" s="197" t="s">
+        <v>202</v>
+      </c>
+      <c r="L41" s="186" t="s">
+        <v>203</v>
+      </c>
+      <c r="M41" s="190" t="s">
         <v>195</v>
       </c>
-      <c r="B21" s="108"/>
-      <c r="C21" s="108"/>
-      <c r="D21" s="108"/>
-      <c r="E21" s="108"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="1:18" s="109" customFormat="1">
-      <c r="A22" s="110" t="s">
-        <v>191</v>
-      </c>
-      <c r="B22" s="111"/>
-      <c r="C22" s="112" t="s">
-        <v>173</v>
-      </c>
-      <c r="D22" s="112"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="120"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="1:18" s="109" customFormat="1">
-      <c r="A23" s="113" t="s">
-        <v>192</v>
-      </c>
-      <c r="B23" s="114"/>
-      <c r="C23" s="115" t="s">
-        <v>198</v>
-      </c>
-      <c r="D23" s="116"/>
-      <c r="E23" s="117"/>
-      <c r="F23" s="118"/>
-    </row>
-    <row r="24" spans="1:18" s="109" customFormat="1">
-      <c r="A24" s="113" t="s">
-        <v>193</v>
-      </c>
-      <c r="B24" s="114"/>
-      <c r="C24" s="126" t="s">
-        <v>199</v>
-      </c>
-      <c r="D24" s="127"/>
-      <c r="E24" s="128"/>
-      <c r="F24" s="118"/>
-    </row>
-    <row r="25" spans="1:18">
-      <c r="A25" s="6"/>
-    </row>
-    <row r="26" spans="1:18">
-      <c r="A26" s="20" t="s">
+      <c r="N41" s="190" t="s">
+        <v>209</v>
+      </c>
+      <c r="O41" s="192" t="s">
+        <v>208</v>
+      </c>
+      <c r="P41" s="188" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q41" s="189"/>
+      <c r="R41" s="188" t="s">
+        <v>17</v>
+      </c>
+      <c r="S41" s="189"/>
+      <c r="T41" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="U41" s="190" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26">
+      <c r="A42" s="191"/>
+      <c r="B42" s="191"/>
+      <c r="C42" s="191"/>
+      <c r="D42" s="191"/>
+      <c r="E42" s="194"/>
+      <c r="F42" s="195"/>
+      <c r="G42" s="191"/>
+      <c r="H42" s="191"/>
+      <c r="I42" s="197"/>
+      <c r="J42" s="197"/>
+      <c r="K42" s="197"/>
+      <c r="L42" s="187"/>
+      <c r="M42" s="196"/>
+      <c r="N42" s="196"/>
+      <c r="O42" s="196"/>
+      <c r="P42" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q42" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="R42" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="S42" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="T42" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="U42" s="191"/>
+    </row>
+    <row r="43" spans="1:26" ht="30">
+      <c r="A43" s="7">
+        <v>1</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D43" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="E43" s="24"/>
+      <c r="F43" s="120"/>
+      <c r="G43" s="84" t="s">
+        <v>141</v>
+      </c>
+      <c r="H43" s="24"/>
+      <c r="I43" s="133" t="s">
+        <v>204</v>
+      </c>
+      <c r="J43" s="133"/>
+      <c r="K43" s="138" t="s">
+        <v>224</v>
+      </c>
+      <c r="L43" s="133"/>
+      <c r="M43" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="N43" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="O43" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="P43" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="30">
         <v>10</v>
       </c>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="40"/>
-      <c r="N26" s="62"/>
-      <c r="O26" s="62"/>
-      <c r="P26" s="62"/>
-      <c r="Q26" s="41"/>
-      <c r="R26" s="41"/>
-    </row>
-    <row r="27" spans="1:18">
-      <c r="A27" s="134" t="s">
-        <v>76</v>
-      </c>
-      <c r="B27" s="134" t="s">
+      <c r="R43" s="24"/>
+      <c r="S43" s="30"/>
+      <c r="T43" s="30"/>
+      <c r="U43" s="9"/>
+    </row>
+    <row r="44" spans="1:26">
+      <c r="A44" s="10">
+        <f t="shared" ref="A44:A49" si="0">A43+1</f>
+        <v>2</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D44" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="85" t="s">
+        <v>141</v>
+      </c>
+      <c r="H44" s="25"/>
+      <c r="I44" s="135" t="s">
+        <v>205</v>
+      </c>
+      <c r="J44" s="135"/>
+      <c r="K44" s="136" t="s">
+        <v>206</v>
+      </c>
+      <c r="L44" s="135"/>
+      <c r="M44" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="N44" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="O44" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="P44" s="21"/>
+      <c r="Q44" s="31"/>
+      <c r="R44" s="21">
         <v>0</v>
       </c>
-      <c r="C27" s="136" t="s">
-        <v>1</v>
-      </c>
-      <c r="D27" s="134" t="s">
-        <v>2</v>
-      </c>
-      <c r="E27" s="137" t="s">
-        <v>174</v>
-      </c>
-      <c r="F27" s="134" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="134" t="s">
-        <v>117</v>
-      </c>
-      <c r="H27" s="132" t="s">
-        <v>78</v>
-      </c>
-      <c r="I27" s="133"/>
-      <c r="J27" s="132" t="s">
-        <v>17</v>
-      </c>
-      <c r="K27" s="133"/>
-      <c r="L27" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="M27" s="134" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18">
-      <c r="A28" s="135"/>
-      <c r="B28" s="135"/>
-      <c r="C28" s="135"/>
-      <c r="D28" s="135"/>
-      <c r="E28" s="138"/>
-      <c r="F28" s="135"/>
-      <c r="G28" s="135"/>
-      <c r="H28" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="I28" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="J28" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="K28" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="L28" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="M28" s="135"/>
-    </row>
-    <row r="29" spans="1:18">
-      <c r="A29" s="7">
-        <v>1</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="C29" s="8" t="s">
+      <c r="S44" s="31">
         <v>100</v>
       </c>
-      <c r="D29" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="E29" s="25"/>
-      <c r="F29" s="91" t="s">
-        <v>140</v>
-      </c>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25">
-        <v>0</v>
-      </c>
-      <c r="I29" s="32">
-        <v>10</v>
-      </c>
-      <c r="J29" s="25"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="32"/>
-      <c r="M29" s="9"/>
-    </row>
-    <row r="30" spans="1:18">
-      <c r="A30" s="10">
-        <f t="shared" ref="A30:A32" si="0">A29+1</f>
-        <v>2</v>
-      </c>
-      <c r="B30" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="D30" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="E30" s="26"/>
-      <c r="F30" s="92"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="22">
-        <v>0</v>
-      </c>
-      <c r="K30" s="33">
-        <v>100</v>
-      </c>
-      <c r="L30" s="33"/>
-      <c r="M30" s="12"/>
-    </row>
-    <row r="31" spans="1:18">
-      <c r="A31" s="10">
+      <c r="T44" s="31"/>
+      <c r="U44" s="12"/>
+    </row>
+    <row r="45" spans="1:26">
+      <c r="A45" s="10">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B31" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="E31" s="27"/>
-      <c r="F31" s="93"/>
-      <c r="G31" s="27" t="b">
+      <c r="B45" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" s="13"/>
+      <c r="D45" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="86" t="s">
+        <v>141</v>
+      </c>
+      <c r="H45" s="26" t="b">
         <v>1</v>
       </c>
-      <c r="H31" s="22"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="33"/>
-      <c r="M31" s="14"/>
-    </row>
-    <row r="32" spans="1:18">
-      <c r="A32" s="10">
+      <c r="I45" s="135"/>
+      <c r="J45" s="135"/>
+      <c r="K45" s="135"/>
+      <c r="L45" s="135"/>
+      <c r="M45" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="N45" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="O45" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="P45" s="21"/>
+      <c r="Q45" s="31"/>
+      <c r="R45" s="21"/>
+      <c r="S45" s="31"/>
+      <c r="T45" s="31"/>
+      <c r="U45" s="14"/>
+    </row>
+    <row r="46" spans="1:26">
+      <c r="A46" s="10">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B32" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="E32" s="89"/>
-      <c r="F32" s="94"/>
-      <c r="G32" s="89"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="33"/>
-      <c r="L32" s="33"/>
-      <c r="M32" s="14"/>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="10">
+      <c r="B46" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" s="13"/>
+      <c r="D46" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="E46" s="82"/>
+      <c r="F46" s="82"/>
+      <c r="G46" s="87"/>
+      <c r="H46" s="82"/>
+      <c r="I46" s="135"/>
+      <c r="J46" s="135"/>
+      <c r="K46" s="135"/>
+      <c r="L46" s="135"/>
+      <c r="M46" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="N46" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="O46" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="P46" s="21"/>
+      <c r="Q46" s="31"/>
+      <c r="R46" s="21"/>
+      <c r="S46" s="31"/>
+      <c r="T46" s="31"/>
+      <c r="U46" s="14"/>
+    </row>
+    <row r="47" spans="1:26">
+      <c r="A47" s="10">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B33" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="D33" s="27" t="s">
-        <v>202</v>
-      </c>
-      <c r="E33" s="27"/>
-      <c r="F33" s="93"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="34"/>
-      <c r="M33" s="14"/>
-    </row>
-    <row r="34" spans="1:13">
-      <c r="A34" s="10"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="93"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="33"/>
-      <c r="L34" s="33"/>
-      <c r="M34" s="14"/>
-    </row>
-    <row r="35" spans="1:13">
-      <c r="A35" s="10"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="93"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="33"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="33"/>
-      <c r="L35" s="33"/>
-      <c r="M35" s="14"/>
-    </row>
-    <row r="36" spans="1:13">
-      <c r="A36" s="10"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="93"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="33"/>
-      <c r="L36" s="33"/>
-      <c r="M36" s="14"/>
-    </row>
-    <row r="37" spans="1:13">
-      <c r="A37" s="10"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="93"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="26"/>
-      <c r="K37" s="34"/>
-      <c r="L37" s="34"/>
-      <c r="M37" s="14"/>
-    </row>
-    <row r="38" spans="1:13">
-      <c r="A38" s="10"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="93"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="33"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="33"/>
-      <c r="L38" s="33"/>
-      <c r="M38" s="14"/>
-    </row>
-    <row r="39" spans="1:13">
-      <c r="A39" s="10"/>
-      <c r="B39" s="23"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="93"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="33"/>
-      <c r="L39" s="33"/>
-      <c r="M39" s="14"/>
-    </row>
-    <row r="40" spans="1:13">
-      <c r="A40" s="10"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="93"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="33"/>
-      <c r="J40" s="22"/>
-      <c r="K40" s="33"/>
-      <c r="L40" s="33"/>
-      <c r="M40" s="14"/>
-    </row>
-    <row r="41" spans="1:13">
-      <c r="A41" s="10"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="93"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="33"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="33"/>
-      <c r="L41" s="33"/>
-      <c r="M41" s="14"/>
-    </row>
-    <row r="42" spans="1:13">
-      <c r="A42" s="10"/>
-      <c r="B42" s="23"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="93"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="33"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="33"/>
-      <c r="L42" s="33"/>
-      <c r="M42" s="14"/>
-    </row>
-    <row r="43" spans="1:13">
-      <c r="A43" s="10"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="93"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="34"/>
-      <c r="J43" s="26"/>
-      <c r="K43" s="34"/>
-      <c r="L43" s="34"/>
-      <c r="M43" s="14"/>
-    </row>
-    <row r="44" spans="1:13">
-      <c r="A44" s="10"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="93"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="33"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="33"/>
-      <c r="L44" s="33"/>
-      <c r="M44" s="14"/>
-    </row>
-    <row r="45" spans="1:13">
-      <c r="A45" s="10"/>
-      <c r="B45" s="23"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="93"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="33"/>
-      <c r="J45" s="22"/>
-      <c r="K45" s="33"/>
-      <c r="L45" s="33"/>
-      <c r="M45" s="14"/>
-    </row>
-    <row r="46" spans="1:13">
-      <c r="A46" s="10"/>
-      <c r="B46" s="23"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="93"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="33"/>
-      <c r="J46" s="22"/>
-      <c r="K46" s="33"/>
-      <c r="L46" s="33"/>
-      <c r="M46" s="14"/>
-    </row>
-    <row r="47" spans="1:13">
-      <c r="A47" s="10"/>
-      <c r="B47" s="23"/>
+      <c r="B47" s="22" t="s">
+        <v>97</v>
+      </c>
       <c r="C47" s="13"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="93"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="33"/>
-      <c r="J47" s="22"/>
-      <c r="K47" s="33"/>
-      <c r="L47" s="33"/>
-      <c r="M47" s="14"/>
-    </row>
-    <row r="48" spans="1:13">
-      <c r="A48" s="10"/>
-      <c r="B48" s="23"/>
+      <c r="D47" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="E47" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="F47" s="26"/>
+      <c r="G47" s="86"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="136"/>
+      <c r="J47" s="136"/>
+      <c r="K47" s="136"/>
+      <c r="L47" s="136"/>
+      <c r="M47" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="N47" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="O47" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="P47" s="25"/>
+      <c r="Q47" s="32"/>
+      <c r="R47" s="25"/>
+      <c r="S47" s="32"/>
+      <c r="T47" s="32"/>
+      <c r="U47" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26">
+      <c r="A48" s="10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>98</v>
+      </c>
       <c r="C48" s="13"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="93"/>
-      <c r="G48" s="27"/>
+      <c r="D48" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="86"/>
       <c r="H48" s="26"/>
-      <c r="I48" s="34"/>
-      <c r="J48" s="26"/>
-      <c r="K48" s="34"/>
-      <c r="L48" s="34"/>
-      <c r="M48" s="14"/>
-    </row>
-    <row r="49" spans="1:13">
-      <c r="A49" s="10"/>
-      <c r="B49" s="23"/>
+      <c r="I48" s="135"/>
+      <c r="J48" s="135"/>
+      <c r="K48" s="135"/>
+      <c r="L48" s="135"/>
+      <c r="M48" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="N48" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="O48" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="P48" s="21"/>
+      <c r="Q48" s="31"/>
+      <c r="R48" s="21"/>
+      <c r="S48" s="31"/>
+      <c r="T48" s="31"/>
+      <c r="U48" s="14"/>
+    </row>
+    <row r="49" spans="1:21">
+      <c r="A49" s="10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B49" s="22" t="s">
+        <v>115</v>
+      </c>
       <c r="C49" s="13"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="93"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="22"/>
-      <c r="I49" s="33"/>
-      <c r="J49" s="22"/>
-      <c r="K49" s="33"/>
-      <c r="L49" s="33"/>
-      <c r="M49" s="14"/>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="D49" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="86"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="136"/>
+      <c r="J49" s="136"/>
+      <c r="K49" s="136"/>
+      <c r="L49" s="136"/>
+      <c r="M49" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="N49" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="O49" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="P49" s="21"/>
+      <c r="Q49" s="31"/>
+      <c r="R49" s="21"/>
+      <c r="S49" s="31"/>
+      <c r="T49" s="31"/>
+      <c r="U49" s="14"/>
+    </row>
+    <row r="50" spans="1:21">
       <c r="A50" s="10"/>
-      <c r="B50" s="23"/>
+      <c r="B50" s="22"/>
       <c r="C50" s="13"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="93"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="22"/>
-      <c r="I50" s="33"/>
-      <c r="J50" s="22"/>
-      <c r="K50" s="33"/>
-      <c r="L50" s="33"/>
-      <c r="M50" s="14"/>
-    </row>
-    <row r="51" spans="1:13">
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="86"/>
+      <c r="H50" s="26"/>
+      <c r="I50" s="135"/>
+      <c r="J50" s="135"/>
+      <c r="K50" s="135"/>
+      <c r="L50" s="135"/>
+      <c r="M50" s="25"/>
+      <c r="N50" s="25"/>
+      <c r="O50" s="25"/>
+      <c r="P50" s="21"/>
+      <c r="Q50" s="31"/>
+      <c r="R50" s="21"/>
+      <c r="S50" s="31"/>
+      <c r="T50" s="31"/>
+      <c r="U50" s="14"/>
+    </row>
+    <row r="51" spans="1:21">
       <c r="A51" s="10"/>
-      <c r="B51" s="23"/>
+      <c r="B51" s="22"/>
       <c r="C51" s="13"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="93"/>
-      <c r="G51" s="27"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="86"/>
       <c r="H51" s="26"/>
-      <c r="I51" s="34"/>
-      <c r="J51" s="26"/>
-      <c r="K51" s="34"/>
-      <c r="L51" s="34"/>
-      <c r="M51" s="14"/>
-    </row>
-    <row r="52" spans="1:13">
-      <c r="A52" s="15"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="95"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="24"/>
-      <c r="I52" s="35"/>
-      <c r="J52" s="24"/>
-      <c r="K52" s="35"/>
-      <c r="L52" s="35"/>
-      <c r="M52" s="17"/>
+      <c r="I51" s="136"/>
+      <c r="J51" s="136"/>
+      <c r="K51" s="136"/>
+      <c r="L51" s="136"/>
+      <c r="M51" s="25"/>
+      <c r="N51" s="25"/>
+      <c r="O51" s="25"/>
+      <c r="P51" s="25"/>
+      <c r="Q51" s="32"/>
+      <c r="R51" s="25"/>
+      <c r="S51" s="32"/>
+      <c r="T51" s="32"/>
+      <c r="U51" s="14"/>
+    </row>
+    <row r="52" spans="1:21">
+      <c r="A52" s="10"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="86"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="135"/>
+      <c r="J52" s="135"/>
+      <c r="K52" s="135"/>
+      <c r="L52" s="135"/>
+      <c r="M52" s="25"/>
+      <c r="N52" s="25"/>
+      <c r="O52" s="25"/>
+      <c r="P52" s="21"/>
+      <c r="Q52" s="31"/>
+      <c r="R52" s="21"/>
+      <c r="S52" s="31"/>
+      <c r="T52" s="31"/>
+      <c r="U52" s="14"/>
+    </row>
+    <row r="53" spans="1:21">
+      <c r="A53" s="10"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="86"/>
+      <c r="H53" s="26"/>
+      <c r="I53" s="135"/>
+      <c r="J53" s="135"/>
+      <c r="K53" s="135"/>
+      <c r="L53" s="135"/>
+      <c r="M53" s="25"/>
+      <c r="N53" s="25"/>
+      <c r="O53" s="25"/>
+      <c r="P53" s="21"/>
+      <c r="Q53" s="31"/>
+      <c r="R53" s="21"/>
+      <c r="S53" s="31"/>
+      <c r="T53" s="31"/>
+      <c r="U53" s="14"/>
+    </row>
+    <row r="54" spans="1:21">
+      <c r="A54" s="10"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="86"/>
+      <c r="H54" s="26"/>
+      <c r="I54" s="135"/>
+      <c r="J54" s="135"/>
+      <c r="K54" s="135"/>
+      <c r="L54" s="135"/>
+      <c r="M54" s="25"/>
+      <c r="N54" s="25"/>
+      <c r="O54" s="25"/>
+      <c r="P54" s="21"/>
+      <c r="Q54" s="31"/>
+      <c r="R54" s="21"/>
+      <c r="S54" s="31"/>
+      <c r="T54" s="31"/>
+      <c r="U54" s="14"/>
+    </row>
+    <row r="55" spans="1:21">
+      <c r="A55" s="10"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="86"/>
+      <c r="H55" s="26"/>
+      <c r="I55" s="135"/>
+      <c r="J55" s="135"/>
+      <c r="K55" s="135"/>
+      <c r="L55" s="135"/>
+      <c r="M55" s="25"/>
+      <c r="N55" s="25"/>
+      <c r="O55" s="25"/>
+      <c r="P55" s="21"/>
+      <c r="Q55" s="31"/>
+      <c r="R55" s="21"/>
+      <c r="S55" s="31"/>
+      <c r="T55" s="31"/>
+      <c r="U55" s="14"/>
+    </row>
+    <row r="56" spans="1:21">
+      <c r="A56" s="10"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="86"/>
+      <c r="H56" s="26"/>
+      <c r="I56" s="135"/>
+      <c r="J56" s="135"/>
+      <c r="K56" s="135"/>
+      <c r="L56" s="135"/>
+      <c r="M56" s="25"/>
+      <c r="N56" s="25"/>
+      <c r="O56" s="25"/>
+      <c r="P56" s="21"/>
+      <c r="Q56" s="31"/>
+      <c r="R56" s="21"/>
+      <c r="S56" s="31"/>
+      <c r="T56" s="31"/>
+      <c r="U56" s="14"/>
+    </row>
+    <row r="57" spans="1:21">
+      <c r="A57" s="10"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="86"/>
+      <c r="H57" s="26"/>
+      <c r="I57" s="26"/>
+      <c r="J57" s="26"/>
+      <c r="K57" s="26"/>
+      <c r="L57" s="26"/>
+      <c r="M57" s="25"/>
+      <c r="N57" s="25"/>
+      <c r="O57" s="25"/>
+      <c r="P57" s="25"/>
+      <c r="Q57" s="32"/>
+      <c r="R57" s="25"/>
+      <c r="S57" s="32"/>
+      <c r="T57" s="32"/>
+      <c r="U57" s="14"/>
+    </row>
+    <row r="58" spans="1:21">
+      <c r="A58" s="10"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="86"/>
+      <c r="H58" s="26"/>
+      <c r="I58" s="26"/>
+      <c r="J58" s="26"/>
+      <c r="K58" s="26"/>
+      <c r="L58" s="26"/>
+      <c r="M58" s="25"/>
+      <c r="N58" s="25"/>
+      <c r="O58" s="25"/>
+      <c r="P58" s="21"/>
+      <c r="Q58" s="31"/>
+      <c r="R58" s="21"/>
+      <c r="S58" s="31"/>
+      <c r="T58" s="31"/>
+      <c r="U58" s="14"/>
+    </row>
+    <row r="59" spans="1:21">
+      <c r="A59" s="10"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="86"/>
+      <c r="H59" s="26"/>
+      <c r="I59" s="26"/>
+      <c r="J59" s="26"/>
+      <c r="K59" s="26"/>
+      <c r="L59" s="26"/>
+      <c r="M59" s="25"/>
+      <c r="N59" s="25"/>
+      <c r="O59" s="25"/>
+      <c r="P59" s="21"/>
+      <c r="Q59" s="31"/>
+      <c r="R59" s="21"/>
+      <c r="S59" s="31"/>
+      <c r="T59" s="31"/>
+      <c r="U59" s="14"/>
+    </row>
+    <row r="60" spans="1:21">
+      <c r="A60" s="10"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="86"/>
+      <c r="H60" s="26"/>
+      <c r="I60" s="26"/>
+      <c r="J60" s="26"/>
+      <c r="K60" s="26"/>
+      <c r="L60" s="26"/>
+      <c r="M60" s="25"/>
+      <c r="N60" s="25"/>
+      <c r="O60" s="25"/>
+      <c r="P60" s="21"/>
+      <c r="Q60" s="31"/>
+      <c r="R60" s="21"/>
+      <c r="S60" s="31"/>
+      <c r="T60" s="31"/>
+      <c r="U60" s="14"/>
+    </row>
+    <row r="61" spans="1:21">
+      <c r="A61" s="10"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="86"/>
+      <c r="H61" s="26"/>
+      <c r="I61" s="26"/>
+      <c r="J61" s="26"/>
+      <c r="K61" s="26"/>
+      <c r="L61" s="26"/>
+      <c r="M61" s="25"/>
+      <c r="N61" s="25"/>
+      <c r="O61" s="25"/>
+      <c r="P61" s="21"/>
+      <c r="Q61" s="31"/>
+      <c r="R61" s="21"/>
+      <c r="S61" s="31"/>
+      <c r="T61" s="31"/>
+      <c r="U61" s="14"/>
+    </row>
+    <row r="62" spans="1:21">
+      <c r="A62" s="10"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="86"/>
+      <c r="H62" s="26"/>
+      <c r="I62" s="26"/>
+      <c r="J62" s="26"/>
+      <c r="K62" s="26"/>
+      <c r="L62" s="26"/>
+      <c r="M62" s="25"/>
+      <c r="N62" s="25"/>
+      <c r="O62" s="25"/>
+      <c r="P62" s="25"/>
+      <c r="Q62" s="32"/>
+      <c r="R62" s="25"/>
+      <c r="S62" s="32"/>
+      <c r="T62" s="32"/>
+      <c r="U62" s="14"/>
+    </row>
+    <row r="63" spans="1:21">
+      <c r="A63" s="10"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="26"/>
+      <c r="G63" s="86"/>
+      <c r="H63" s="26"/>
+      <c r="I63" s="26"/>
+      <c r="J63" s="26"/>
+      <c r="K63" s="26"/>
+      <c r="L63" s="26"/>
+      <c r="M63" s="25"/>
+      <c r="N63" s="25"/>
+      <c r="O63" s="25"/>
+      <c r="P63" s="21"/>
+      <c r="Q63" s="31"/>
+      <c r="R63" s="21"/>
+      <c r="S63" s="31"/>
+      <c r="T63" s="31"/>
+      <c r="U63" s="14"/>
+    </row>
+    <row r="64" spans="1:21">
+      <c r="A64" s="10"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="86"/>
+      <c r="H64" s="26"/>
+      <c r="I64" s="26"/>
+      <c r="J64" s="26"/>
+      <c r="K64" s="26"/>
+      <c r="L64" s="26"/>
+      <c r="M64" s="25"/>
+      <c r="N64" s="25"/>
+      <c r="O64" s="25"/>
+      <c r="P64" s="21"/>
+      <c r="Q64" s="31"/>
+      <c r="R64" s="21"/>
+      <c r="S64" s="31"/>
+      <c r="T64" s="31"/>
+      <c r="U64" s="14"/>
+    </row>
+    <row r="65" spans="1:21">
+      <c r="A65" s="10"/>
+      <c r="B65" s="22"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="26"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="26"/>
+      <c r="G65" s="86"/>
+      <c r="H65" s="26"/>
+      <c r="I65" s="26"/>
+      <c r="J65" s="26"/>
+      <c r="K65" s="26"/>
+      <c r="L65" s="26"/>
+      <c r="M65" s="25"/>
+      <c r="N65" s="25"/>
+      <c r="O65" s="25"/>
+      <c r="P65" s="25"/>
+      <c r="Q65" s="32"/>
+      <c r="R65" s="25"/>
+      <c r="S65" s="32"/>
+      <c r="T65" s="32"/>
+      <c r="U65" s="14"/>
+    </row>
+    <row r="66" spans="1:21">
+      <c r="A66" s="15"/>
+      <c r="B66" s="23"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="27"/>
+      <c r="E66" s="27"/>
+      <c r="F66" s="27"/>
+      <c r="G66" s="88"/>
+      <c r="H66" s="27"/>
+      <c r="I66" s="27"/>
+      <c r="J66" s="27"/>
+      <c r="K66" s="27"/>
+      <c r="L66" s="27"/>
+      <c r="M66" s="27"/>
+      <c r="N66" s="27"/>
+      <c r="O66" s="27"/>
+      <c r="P66" s="23"/>
+      <c r="Q66" s="33"/>
+      <c r="R66" s="23"/>
+      <c r="S66" s="33"/>
+      <c r="T66" s="33"/>
+      <c r="U66" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="E27:E28"/>
+  <mergeCells count="37">
+    <mergeCell ref="U41:U42"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="O41:O42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="R41:S41"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="L41:L42"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{00000000-0002-0000-0100-000000000000}">
+  <dataValidations count="3">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>Validate実装パターン</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C19" xr:uid="{C2D0C7F4-19B0-DB40-AFFD-E6928EE4E5C2}">
+      <formula1>isImport</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M43:O66" xr:uid="{1FBC7B49-ABAE-AE4A-8A55-EF1A4EFC4446}">
+      <formula1>isNullable</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C19" r:id="rId1" display="http://tempuri.org/sample" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C14" r:id="rId1" display="http://tempuri.org/sample" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.11811023622047245"/>
   <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="landscape"/>
@@ -4950,23 +6897,23 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
-          <x14:formula1>
-            <xm:f>config!$E$5:$E$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C14:C16</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000001000000}">
           <x14:formula1>
             <xm:f>config!$D$5:$D$8</xm:f>
           </x14:formula1>
+          <xm:sqref>C10:C12</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000002000000}">
+          <x14:formula1>
+            <xm:f>config!$C$5:$C$8</xm:f>
+          </x14:formula1>
           <xm:sqref>C9</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000003000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000003000000}">
           <x14:formula1>
-            <xm:f>config!$C$5:$C$6</xm:f>
+            <xm:f>config!$B$5:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>F29:F52</xm:sqref>
+          <xm:sqref>G43:G66</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4975,14 +6922,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M45"/>
+  <dimension ref="A1:V63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="D9" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -4990,689 +6937,1482 @@
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.1640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="26.6640625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="20.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="25.83203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.83203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.83203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="19.83203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="6.83203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="18.6640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="43.5" style="1" customWidth="1"/>
-    <col min="17" max="17" width="11.33203125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="6.1640625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="16.1640625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="6.1640625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="18.83203125" style="1" customWidth="1"/>
-    <col min="22" max="22" width="10.33203125" style="1" customWidth="1"/>
-    <col min="23" max="23" width="9.83203125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="8.83203125" style="1"/>
-    <col min="25" max="25" width="9.1640625" style="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.83203125" style="1"/>
+    <col min="4" max="6" width="20.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="25.83203125" style="1" customWidth="1"/>
+    <col min="9" max="10" width="20.1640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="32" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.1640625" style="1" customWidth="1"/>
+    <col min="13" max="14" width="9.83203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5" style="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5" style="1" customWidth="1"/>
+    <col min="17" max="17" width="7.83203125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="7" style="1" customWidth="1"/>
+    <col min="19" max="19" width="6.83203125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="11.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="19.83203125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="6.83203125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="18.6640625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="43.5" style="1" customWidth="1"/>
+    <col min="25" max="25" width="11.33203125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="6.1640625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="16.1640625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="6.1640625" style="1" customWidth="1"/>
+    <col min="29" max="29" width="18.83203125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="10.33203125" style="1" customWidth="1"/>
+    <col min="31" max="31" width="9.83203125" style="1" customWidth="1"/>
+    <col min="32" max="32" width="8.83203125" style="1"/>
+    <col min="33" max="33" width="9.1640625" style="1" customWidth="1"/>
+    <col min="34" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19">
+    <row r="1" spans="1:20" ht="19">
       <c r="A1" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:20">
       <c r="B2" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="B3" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="61"/>
-      <c r="G5" s="29"/>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="H5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="61"/>
-      <c r="G6" s="29"/>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="C6" s="131" t="str">
+        <f>process!D6&amp;PROPER(C9)&amp;IF(C8="要求電文(C→S)", "Request", "Response")</f>
+        <v>BlancoApiPostSamplePostResponse</v>
+      </c>
+      <c r="D6" s="130"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="H6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="4" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="59" t="s">
-        <v>180</v>
-      </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7"/>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="C7" s="52" t="s">
+        <v>168</v>
+      </c>
+      <c r="D7" s="35"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="54"/>
+      <c r="R7" s="54"/>
+      <c r="S7"/>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="5"/>
-      <c r="C8" s="60" t="s">
-        <v>98</v>
-      </c>
-      <c r="D8" s="38"/>
-      <c r="E8" s="61"/>
-      <c r="G8" s="29"/>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="C8" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="36"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="4" t="s">
         <v>155</v>
       </c>
       <c r="B9" s="5"/>
-      <c r="C9" s="90" t="s">
-        <v>164</v>
-      </c>
-      <c r="D9" s="103"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="63" t="s">
-        <v>142</v>
-      </c>
-      <c r="B10" s="65"/>
-      <c r="C10" s="101" t="s">
+      <c r="C9" s="83" t="s">
+        <v>160</v>
+      </c>
+      <c r="D9" s="94"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="52" t="s">
+        <v>165</v>
+      </c>
+      <c r="D11" s="35"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="122" t="s">
+        <v>174</v>
+      </c>
+      <c r="B12" s="122"/>
+      <c r="C12" s="165" t="s">
+        <v>175</v>
+      </c>
+      <c r="D12" s="165"/>
+      <c r="E12" s="95" t="s">
+        <v>176</v>
+      </c>
+      <c r="F12" s="95"/>
+      <c r="H12" s="54"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="122" t="s">
+        <v>226</v>
+      </c>
+      <c r="B13" s="122"/>
+      <c r="C13" s="164" t="s">
+        <v>230</v>
+      </c>
+      <c r="D13" s="165"/>
+      <c r="E13" s="55" t="s">
+        <v>227</v>
+      </c>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="95"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13" s="95"/>
+      <c r="N13" s="95"/>
+      <c r="O13" s="95"/>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="122" t="s">
+        <v>177</v>
+      </c>
+      <c r="B14" s="122"/>
+      <c r="C14" s="165" t="s">
+        <v>178</v>
+      </c>
+      <c r="D14" s="165"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="P14" s="95"/>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="122" t="s">
+        <v>228</v>
+      </c>
+      <c r="B15" s="122"/>
+      <c r="C15" s="164"/>
+      <c r="D15" s="165"/>
+      <c r="E15" s="55" t="s">
+        <v>229</v>
+      </c>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="95"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15" s="95"/>
+      <c r="N15" s="95"/>
+      <c r="O15" s="95"/>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" s="123" t="s">
+        <v>179</v>
+      </c>
+      <c r="B16" s="124"/>
+      <c r="C16" s="100" t="s">
+        <v>141</v>
+      </c>
+      <c r="D16" t="s">
+        <v>180</v>
+      </c>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="P16"/>
+      <c r="Q16"/>
+      <c r="R16"/>
+      <c r="S16"/>
+      <c r="T16"/>
+    </row>
+    <row r="17" spans="1:22">
+      <c r="A17" s="6"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="95"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="A18" s="157" t="s">
+        <v>192</v>
+      </c>
+      <c r="B18" s="157"/>
+      <c r="C18" s="157"/>
+      <c r="D18" s="157"/>
+      <c r="E18" s="157"/>
+      <c r="F18" s="157"/>
+      <c r="G18" s="157"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="O18" s="95"/>
+    </row>
+    <row r="19" spans="1:22">
+      <c r="A19" s="115" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="151" t="s">
+        <v>183</v>
+      </c>
+      <c r="C19" s="152"/>
+      <c r="D19" s="152"/>
+      <c r="E19" s="152"/>
+      <c r="F19" s="152"/>
+      <c r="G19" s="153"/>
+      <c r="H19" s="105"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="O19"/>
+      <c r="P19" s="105"/>
+      <c r="Q19" s="105"/>
+      <c r="R19" s="105"/>
+      <c r="S19" s="105"/>
+      <c r="U19" s="111"/>
+      <c r="V19" s="111"/>
+    </row>
+    <row r="20" spans="1:22">
+      <c r="A20" s="116"/>
+      <c r="B20" s="168"/>
+      <c r="C20" s="168"/>
+      <c r="D20" s="168"/>
+      <c r="E20" s="168"/>
+      <c r="F20" s="168"/>
+      <c r="G20" s="168"/>
+      <c r="H20" s="112"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="P20" s="112"/>
+      <c r="Q20" s="112"/>
+      <c r="R20" s="112"/>
+      <c r="T20"/>
+      <c r="U20"/>
+      <c r="V20"/>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="A21" s="117"/>
+      <c r="B21" s="169"/>
+      <c r="C21" s="169"/>
+      <c r="D21" s="169"/>
+      <c r="E21" s="169"/>
+      <c r="F21" s="169"/>
+      <c r="G21" s="169"/>
+      <c r="H21" s="112"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="P21" s="112"/>
+      <c r="Q21" s="112"/>
+      <c r="R21" s="112"/>
+      <c r="T21"/>
+      <c r="U21"/>
+      <c r="V21"/>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="A22" s="118"/>
+      <c r="B22" s="170"/>
+      <c r="C22" s="170"/>
+      <c r="D22" s="170"/>
+      <c r="E22" s="170"/>
+      <c r="F22" s="170"/>
+      <c r="G22" s="170"/>
+      <c r="H22" s="112"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22" s="105"/>
+      <c r="N22" s="105"/>
+      <c r="O22" s="105"/>
+      <c r="P22" s="112"/>
+      <c r="Q22" s="112"/>
+      <c r="R22" s="112"/>
+      <c r="T22"/>
+      <c r="U22"/>
+      <c r="V22"/>
+    </row>
+    <row r="23" spans="1:22">
+      <c r="C23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23" s="112"/>
+      <c r="N23" s="112"/>
+      <c r="O23" s="112"/>
+    </row>
+    <row r="24" spans="1:22">
+      <c r="A24" s="154" t="s">
+        <v>193</v>
+      </c>
+      <c r="B24" s="155"/>
+      <c r="C24" s="155"/>
+      <c r="D24" s="155"/>
+      <c r="E24" s="155"/>
+      <c r="F24" s="155"/>
+      <c r="G24" s="156"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24" s="112"/>
+      <c r="N24" s="112"/>
+      <c r="O24" s="112"/>
+    </row>
+    <row r="25" spans="1:22">
+      <c r="A25" s="115" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="174" t="s">
+        <v>184</v>
+      </c>
+      <c r="C25" s="174"/>
+      <c r="D25" s="174"/>
+      <c r="E25" s="174"/>
+      <c r="F25" s="174"/>
+      <c r="G25" s="174"/>
+      <c r="H25" s="105"/>
+      <c r="M25" s="112"/>
+      <c r="N25" s="112"/>
+      <c r="O25" s="112"/>
+      <c r="P25" s="105"/>
+      <c r="Q25" s="105"/>
+      <c r="R25" s="105"/>
+      <c r="S25" s="105"/>
+      <c r="U25" s="111"/>
+      <c r="V25" s="111"/>
+    </row>
+    <row r="26" spans="1:22">
+      <c r="A26" s="116">
+        <v>1</v>
+      </c>
+      <c r="B26" s="175" t="s">
+        <v>185</v>
+      </c>
+      <c r="C26" s="175"/>
+      <c r="D26" s="175"/>
+      <c r="E26" s="175"/>
+      <c r="F26" s="175"/>
+      <c r="G26" s="175"/>
+      <c r="H26" s="112"/>
+      <c r="I26" s="105"/>
+      <c r="J26" s="105"/>
+      <c r="K26" s="105"/>
+      <c r="L26" s="105"/>
+      <c r="P26" s="112"/>
+      <c r="Q26" s="112"/>
+      <c r="R26" s="112"/>
+      <c r="T26"/>
+      <c r="U26"/>
+      <c r="V26"/>
+    </row>
+    <row r="27" spans="1:22">
+      <c r="A27" s="117"/>
+      <c r="B27" s="176"/>
+      <c r="C27" s="176"/>
+      <c r="D27" s="176"/>
+      <c r="E27" s="176"/>
+      <c r="F27" s="176"/>
+      <c r="G27" s="176"/>
+      <c r="H27" s="112"/>
+      <c r="I27" s="105"/>
+      <c r="J27" s="105"/>
+      <c r="K27" s="105"/>
+      <c r="L27" s="105"/>
+      <c r="P27" s="112"/>
+      <c r="Q27" s="112"/>
+      <c r="R27" s="112"/>
+      <c r="T27"/>
+      <c r="U27"/>
+      <c r="V27"/>
+    </row>
+    <row r="28" spans="1:22">
+      <c r="A28" s="118"/>
+      <c r="B28" s="177"/>
+      <c r="C28" s="177"/>
+      <c r="D28" s="177"/>
+      <c r="E28" s="177"/>
+      <c r="F28" s="177"/>
+      <c r="G28" s="177"/>
+      <c r="H28" s="112"/>
+      <c r="I28" s="105"/>
+      <c r="J28" s="105"/>
+      <c r="K28" s="105"/>
+      <c r="L28" s="105"/>
+      <c r="M28" s="105"/>
+      <c r="N28" s="105"/>
+      <c r="O28" s="105"/>
+      <c r="P28" s="112"/>
+      <c r="Q28" s="112"/>
+      <c r="R28" s="112"/>
+      <c r="T28"/>
+      <c r="U28"/>
+      <c r="V28"/>
+    </row>
+    <row r="29" spans="1:22">
+      <c r="A29"/>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29" s="112"/>
+      <c r="N29" s="112"/>
+      <c r="O29" s="112"/>
+      <c r="P29"/>
+      <c r="Q29"/>
+      <c r="R29"/>
+      <c r="S29"/>
+      <c r="T29"/>
+    </row>
+    <row r="30" spans="1:22">
+      <c r="A30" s="154" t="s">
+        <v>194</v>
+      </c>
+      <c r="B30" s="155"/>
+      <c r="C30" s="155"/>
+      <c r="D30" s="155"/>
+      <c r="E30" s="155"/>
+      <c r="F30" s="155"/>
+      <c r="G30" s="156"/>
+      <c r="M30" s="112"/>
+      <c r="N30" s="112"/>
+      <c r="O30" s="112"/>
+    </row>
+    <row r="31" spans="1:22">
+      <c r="A31" s="115" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" s="174" t="s">
+        <v>186</v>
+      </c>
+      <c r="C31" s="174"/>
+      <c r="D31" s="174"/>
+      <c r="E31" s="174"/>
+      <c r="F31" s="174"/>
+      <c r="G31" s="174"/>
+      <c r="H31" s="105"/>
+      <c r="I31" s="105"/>
+      <c r="J31" s="105"/>
+      <c r="K31" s="105"/>
+      <c r="L31" s="105"/>
+      <c r="M31" s="112"/>
+      <c r="N31" s="112"/>
+      <c r="O31" s="112"/>
+      <c r="P31" s="105"/>
+      <c r="Q31" s="105"/>
+      <c r="R31" s="105"/>
+      <c r="S31" s="105"/>
+      <c r="U31" s="111"/>
+      <c r="V31" s="111"/>
+    </row>
+    <row r="32" spans="1:22">
+      <c r="A32" s="116"/>
+      <c r="B32" s="168"/>
+      <c r="C32" s="168"/>
+      <c r="D32" s="168"/>
+      <c r="E32" s="168"/>
+      <c r="F32" s="168"/>
+      <c r="G32" s="178"/>
+      <c r="H32" s="112"/>
+      <c r="I32" s="112"/>
+      <c r="J32" s="112"/>
+      <c r="K32" s="112"/>
+      <c r="L32" s="112"/>
+      <c r="M32"/>
+      <c r="N32"/>
+      <c r="O32"/>
+      <c r="P32" s="112"/>
+      <c r="Q32" s="112"/>
+      <c r="R32" s="112"/>
+      <c r="T32"/>
+      <c r="U32"/>
+      <c r="V32"/>
+    </row>
+    <row r="33" spans="1:22">
+      <c r="A33" s="117"/>
+      <c r="B33" s="169"/>
+      <c r="C33" s="169"/>
+      <c r="D33" s="169"/>
+      <c r="E33" s="169"/>
+      <c r="F33" s="169"/>
+      <c r="G33" s="179"/>
+      <c r="H33" s="112"/>
+      <c r="I33" s="112"/>
+      <c r="J33" s="112"/>
+      <c r="K33" s="112"/>
+      <c r="L33" s="112"/>
+      <c r="P33" s="112"/>
+      <c r="Q33" s="112"/>
+      <c r="R33" s="112"/>
+      <c r="T33"/>
+      <c r="U33"/>
+      <c r="V33"/>
+    </row>
+    <row r="34" spans="1:22">
+      <c r="A34" s="118"/>
+      <c r="B34" s="170"/>
+      <c r="C34" s="170"/>
+      <c r="D34" s="170"/>
+      <c r="E34" s="170"/>
+      <c r="F34" s="170"/>
+      <c r="G34" s="180"/>
+      <c r="H34" s="112"/>
+      <c r="I34" s="112"/>
+      <c r="J34" s="112"/>
+      <c r="K34" s="112"/>
+      <c r="L34" s="112"/>
+      <c r="M34" s="105"/>
+      <c r="N34" s="105"/>
+      <c r="O34" s="105"/>
+      <c r="P34" s="112"/>
+      <c r="Q34" s="112"/>
+      <c r="R34" s="112"/>
+      <c r="T34"/>
+      <c r="U34"/>
+      <c r="V34"/>
+    </row>
+    <row r="35" spans="1:22">
+      <c r="A35"/>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35" s="112"/>
+      <c r="N35" s="112"/>
+      <c r="O35" s="112"/>
+      <c r="P35"/>
+      <c r="Q35"/>
+      <c r="R35"/>
+      <c r="S35"/>
+      <c r="T35"/>
+    </row>
+    <row r="36" spans="1:22">
+      <c r="A36" s="6"/>
+      <c r="M36" s="112"/>
+      <c r="N36" s="112"/>
+      <c r="O36" s="112"/>
+    </row>
+    <row r="37" spans="1:22">
+      <c r="A37" s="56" t="s">
+        <v>117</v>
+      </c>
+      <c r="B37" s="57"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="57"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="132"/>
+      <c r="J37" s="132"/>
+      <c r="K37" s="132"/>
+      <c r="L37" s="132"/>
+      <c r="M37" s="37"/>
+      <c r="N37" s="37"/>
+      <c r="O37" s="37"/>
+      <c r="P37" s="57"/>
+      <c r="Q37" s="57"/>
+      <c r="R37" s="57"/>
+      <c r="S37" s="57"/>
+      <c r="T37" s="57"/>
+      <c r="U37" s="58"/>
+    </row>
+    <row r="38" spans="1:22" ht="30" customHeight="1">
+      <c r="A38" s="193" t="s">
+        <v>118</v>
+      </c>
+      <c r="B38" s="193" t="s">
+        <v>119</v>
+      </c>
+      <c r="C38" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="D38" s="193" t="s">
+        <v>101</v>
+      </c>
+      <c r="E38" s="193" t="s">
+        <v>161</v>
+      </c>
+      <c r="F38" s="193" t="s">
+        <v>177</v>
+      </c>
+      <c r="G38" s="193" t="s">
+        <v>140</v>
+      </c>
+      <c r="H38" s="193" t="s">
+        <v>139</v>
+      </c>
+      <c r="I38" s="201" t="s">
+        <v>200</v>
+      </c>
+      <c r="J38" s="203" t="s">
+        <v>201</v>
+      </c>
+      <c r="K38" s="203" t="s">
+        <v>202</v>
+      </c>
+      <c r="L38" s="186" t="s">
+        <v>203</v>
+      </c>
+      <c r="M38" s="190" t="s">
+        <v>195</v>
+      </c>
+      <c r="N38" s="190" t="s">
+        <v>209</v>
+      </c>
+      <c r="O38" s="192" t="s">
+        <v>208</v>
+      </c>
+      <c r="P38" s="199" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q38" s="200"/>
+      <c r="R38" s="206" t="s">
+        <v>123</v>
+      </c>
+      <c r="S38" s="200"/>
+      <c r="T38" s="59" t="s">
+        <v>124</v>
+      </c>
+      <c r="U38" s="193" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" ht="15">
+      <c r="A39" s="198"/>
+      <c r="B39" s="198"/>
+      <c r="C39" s="61" t="s">
+        <v>121</v>
+      </c>
+      <c r="D39" s="198"/>
+      <c r="E39" s="195"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="198"/>
+      <c r="H39" s="198"/>
+      <c r="I39" s="202"/>
+      <c r="J39" s="204"/>
+      <c r="K39" s="204"/>
+      <c r="L39" s="187"/>
+      <c r="M39" s="196"/>
+      <c r="N39" s="196"/>
+      <c r="O39" s="205"/>
+      <c r="P39" s="62" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q39" s="62" t="s">
+        <v>127</v>
+      </c>
+      <c r="R39" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="S39" s="62" t="s">
+        <v>129</v>
+      </c>
+      <c r="T39" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="U39" s="198"/>
+    </row>
+    <row r="40" spans="1:22">
+      <c r="A40" s="64">
+        <v>1</v>
+      </c>
+      <c r="B40" s="65" t="s">
+        <v>133</v>
+      </c>
+      <c r="C40" s="66" t="s">
+        <v>131</v>
+      </c>
+      <c r="D40" s="67" t="s">
+        <v>102</v>
+      </c>
+      <c r="E40" s="67"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="89" t="s">
+        <v>141</v>
+      </c>
+      <c r="H40" s="67"/>
+      <c r="I40" s="133" t="s">
+        <v>204</v>
+      </c>
+      <c r="J40" s="133"/>
+      <c r="K40" s="134" t="s">
+        <v>206</v>
+      </c>
+      <c r="L40" s="133"/>
+      <c r="M40" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="N40" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="O40" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="P40" s="67"/>
+      <c r="Q40" s="67"/>
+      <c r="R40" s="67"/>
+      <c r="S40" s="67"/>
+      <c r="T40" s="67"/>
+      <c r="U40" s="68"/>
+    </row>
+    <row r="41" spans="1:22" ht="14" customHeight="1">
+      <c r="A41" s="64">
+        <v>2</v>
+      </c>
+      <c r="B41" s="65" t="s">
+        <v>134</v>
+      </c>
+      <c r="C41" s="66" t="s">
+        <v>132</v>
+      </c>
+      <c r="D41" s="67" t="s">
+        <v>104</v>
+      </c>
+      <c r="E41" s="67"/>
+      <c r="F41" s="67"/>
+      <c r="G41" s="89" t="s">
+        <v>141</v>
+      </c>
+      <c r="H41" s="67"/>
+      <c r="I41" s="135" t="s">
+        <v>205</v>
+      </c>
+      <c r="J41" s="135"/>
+      <c r="K41" s="136" t="s">
+        <v>231</v>
+      </c>
+      <c r="L41" s="135"/>
+      <c r="M41" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="N41" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="O41" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="P41" s="65"/>
+      <c r="Q41" s="65"/>
+      <c r="R41" s="65"/>
+      <c r="S41" s="65"/>
+      <c r="T41" s="65"/>
+      <c r="U41" s="68"/>
+    </row>
+    <row r="42" spans="1:22">
+      <c r="A42" s="64">
+        <v>3</v>
+      </c>
+      <c r="B42" s="69" t="s">
+        <v>135</v>
+      </c>
+      <c r="C42" s="51"/>
+      <c r="D42" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="E42" s="70"/>
+      <c r="F42" s="70"/>
+      <c r="G42" s="90" t="s">
+        <v>141</v>
+      </c>
+      <c r="H42" s="70"/>
+      <c r="I42" s="135"/>
+      <c r="J42" s="135"/>
+      <c r="K42" s="135"/>
+      <c r="L42" s="135"/>
+      <c r="M42" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="N42" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="O42" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="P42" s="65"/>
+      <c r="Q42" s="65"/>
+      <c r="R42" s="65"/>
+      <c r="S42" s="65"/>
+      <c r="T42" s="65"/>
+      <c r="U42" s="71"/>
+    </row>
+    <row r="43" spans="1:22">
+      <c r="A43" s="64">
+        <v>4</v>
+      </c>
+      <c r="B43" s="72" t="s">
+        <v>136</v>
+      </c>
+      <c r="C43" s="73"/>
+      <c r="D43" s="74" t="s">
+        <v>108</v>
+      </c>
+      <c r="E43" s="74"/>
+      <c r="F43" s="74"/>
+      <c r="G43" s="93"/>
+      <c r="H43" s="74"/>
+      <c r="I43" s="135"/>
+      <c r="J43" s="135"/>
+      <c r="K43" s="135"/>
+      <c r="L43" s="135"/>
+      <c r="M43" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="N43" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="O43" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="P43" s="65"/>
+      <c r="Q43" s="65"/>
+      <c r="R43" s="65"/>
+      <c r="S43" s="65"/>
+      <c r="T43" s="65"/>
+      <c r="U43" s="75"/>
+    </row>
+    <row r="44" spans="1:22">
+      <c r="A44" s="64">
+        <v>5</v>
+      </c>
+      <c r="B44" s="72" t="s">
+        <v>138</v>
+      </c>
+      <c r="C44" s="73"/>
+      <c r="D44" s="74" t="s">
+        <v>110</v>
+      </c>
+      <c r="E44" s="74" t="s">
         <v>173</v>
       </c>
-      <c r="D10" s="102"/>
-      <c r="E10" s="61"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="61"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="59" t="s">
-        <v>177</v>
-      </c>
-      <c r="D12" s="37"/>
-      <c r="E12" s="61"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="6"/>
-    </row>
-    <row r="14" spans="1:11" s="109" customFormat="1">
-      <c r="A14" s="107" t="s">
-        <v>195</v>
-      </c>
-      <c r="B14" s="108"/>
-      <c r="C14" s="108"/>
-      <c r="D14" s="108"/>
-      <c r="E14" s="108"/>
-      <c r="F14" s="119"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" s="109" customFormat="1">
-      <c r="A15" s="110" t="s">
-        <v>191</v>
-      </c>
-      <c r="B15" s="111"/>
-      <c r="C15" s="112" t="s">
-        <v>173</v>
-      </c>
-      <c r="D15" s="112"/>
-      <c r="E15" s="112"/>
-      <c r="F15" s="120"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" s="109" customFormat="1">
-      <c r="A16" s="113" t="s">
-        <v>192</v>
-      </c>
-      <c r="B16" s="114"/>
-      <c r="C16" s="115" t="s">
-        <v>198</v>
-      </c>
-      <c r="D16" s="116"/>
-      <c r="E16" s="117"/>
-      <c r="F16" s="118"/>
-    </row>
-    <row r="17" spans="1:13" s="109" customFormat="1">
-      <c r="A17" s="113" t="s">
-        <v>193</v>
-      </c>
-      <c r="B17" s="114"/>
-      <c r="C17" s="126" t="s">
-        <v>199</v>
-      </c>
-      <c r="D17" s="127"/>
-      <c r="E17" s="128"/>
-      <c r="F17" s="118"/>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="6"/>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="63" t="s">
-        <v>118</v>
-      </c>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="64"/>
-      <c r="L19" s="64"/>
-      <c r="M19" s="65"/>
-    </row>
-    <row r="20" spans="1:13" ht="15">
-      <c r="A20" s="137" t="s">
-        <v>119</v>
-      </c>
-      <c r="B20" s="137" t="s">
-        <v>120</v>
-      </c>
-      <c r="C20" s="67" t="s">
-        <v>121</v>
-      </c>
-      <c r="D20" s="137" t="s">
-        <v>108</v>
-      </c>
-      <c r="E20" s="137" t="s">
-        <v>174</v>
-      </c>
-      <c r="F20" s="137" t="s">
-        <v>139</v>
-      </c>
-      <c r="G20" s="137" t="s">
-        <v>138</v>
-      </c>
-      <c r="H20" s="142" t="s">
-        <v>123</v>
-      </c>
-      <c r="I20" s="140"/>
-      <c r="J20" s="139" t="s">
-        <v>124</v>
-      </c>
-      <c r="K20" s="140"/>
-      <c r="L20" s="66" t="s">
-        <v>125</v>
-      </c>
-      <c r="M20" s="137" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="15">
-      <c r="A21" s="141"/>
-      <c r="B21" s="141"/>
-      <c r="C21" s="68" t="s">
-        <v>122</v>
-      </c>
-      <c r="D21" s="141"/>
-      <c r="E21" s="138"/>
-      <c r="F21" s="141"/>
-      <c r="G21" s="141"/>
-      <c r="H21" s="69" t="s">
-        <v>127</v>
-      </c>
-      <c r="I21" s="69" t="s">
-        <v>128</v>
-      </c>
-      <c r="J21" s="69" t="s">
-        <v>129</v>
-      </c>
-      <c r="K21" s="69" t="s">
-        <v>130</v>
-      </c>
-      <c r="L21" s="70" t="s">
-        <v>131</v>
-      </c>
-      <c r="M21" s="141"/>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="71">
-        <v>1</v>
-      </c>
-      <c r="B22" s="72" t="s">
-        <v>134</v>
-      </c>
-      <c r="C22" s="73" t="s">
-        <v>132</v>
-      </c>
-      <c r="D22" s="74" t="s">
-        <v>109</v>
-      </c>
-      <c r="E22" s="74"/>
-      <c r="F22" s="96" t="s">
-        <v>140</v>
-      </c>
-      <c r="G22" s="74"/>
-      <c r="H22" s="74"/>
-      <c r="I22" s="74"/>
-      <c r="J22" s="74"/>
-      <c r="K22" s="74"/>
-      <c r="L22" s="74"/>
-      <c r="M22" s="75"/>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="71">
-        <v>2</v>
-      </c>
-      <c r="B23" s="72" t="s">
-        <v>135</v>
-      </c>
-      <c r="C23" s="73" t="s">
-        <v>133</v>
-      </c>
-      <c r="D23" s="74" t="s">
-        <v>111</v>
-      </c>
-      <c r="E23" s="74"/>
-      <c r="F23" s="96"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="72"/>
-      <c r="J23" s="72"/>
-      <c r="K23" s="72"/>
-      <c r="L23" s="72"/>
-      <c r="M23" s="75"/>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="71">
-        <v>3</v>
-      </c>
-      <c r="B24" s="76" t="s">
-        <v>136</v>
-      </c>
-      <c r="C24" s="54"/>
-      <c r="D24" s="77" t="s">
-        <v>113</v>
-      </c>
-      <c r="E24" s="77"/>
-      <c r="F24" s="97"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="72"/>
-      <c r="J24" s="72"/>
-      <c r="K24" s="72"/>
-      <c r="L24" s="72"/>
-      <c r="M24" s="78"/>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="71">
-        <v>4</v>
-      </c>
-      <c r="B25" s="79" t="s">
+      <c r="F44" s="74"/>
+      <c r="G44" s="91"/>
+      <c r="H44" s="74"/>
+      <c r="I44" s="136"/>
+      <c r="J44" s="136"/>
+      <c r="K44" s="136"/>
+      <c r="L44" s="136"/>
+      <c r="M44" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="N44" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="O44" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="P44" s="67"/>
+      <c r="Q44" s="67"/>
+      <c r="R44" s="67"/>
+      <c r="S44" s="67"/>
+      <c r="T44" s="67"/>
+      <c r="U44" s="75"/>
+    </row>
+    <row r="45" spans="1:22">
+      <c r="A45" s="64">
+        <v>6</v>
+      </c>
+      <c r="B45" s="72" t="s">
         <v>137</v>
       </c>
-      <c r="C25" s="80"/>
-      <c r="D25" s="81" t="s">
-        <v>115</v>
-      </c>
-      <c r="E25" s="81"/>
-      <c r="F25" s="100"/>
-      <c r="G25" s="81"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="72"/>
-      <c r="J25" s="72"/>
-      <c r="K25" s="72"/>
-      <c r="L25" s="72"/>
-      <c r="M25" s="82"/>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="71"/>
-      <c r="B26" s="79"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="81"/>
-      <c r="E26" s="81"/>
-      <c r="F26" s="98"/>
-      <c r="G26" s="81"/>
-      <c r="H26" s="74"/>
-      <c r="I26" s="74"/>
-      <c r="J26" s="74"/>
-      <c r="K26" s="74"/>
-      <c r="L26" s="74"/>
-      <c r="M26" s="82"/>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="71"/>
-      <c r="B27" s="79"/>
-      <c r="C27" s="80"/>
-      <c r="D27" s="81"/>
-      <c r="E27" s="81"/>
-      <c r="F27" s="98"/>
-      <c r="G27" s="81"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="72"/>
-      <c r="J27" s="72"/>
-      <c r="K27" s="72"/>
-      <c r="L27" s="72"/>
-      <c r="M27" s="82"/>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="71"/>
-      <c r="B28" s="79"/>
-      <c r="C28" s="80"/>
-      <c r="D28" s="81"/>
-      <c r="E28" s="81"/>
-      <c r="F28" s="98"/>
-      <c r="G28" s="81"/>
-      <c r="H28" s="72"/>
-      <c r="I28" s="72"/>
-      <c r="J28" s="72"/>
-      <c r="K28" s="72"/>
-      <c r="L28" s="72"/>
-      <c r="M28" s="82"/>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="71"/>
-      <c r="B29" s="79"/>
-      <c r="C29" s="80"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="98"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="72"/>
-      <c r="I29" s="72"/>
-      <c r="J29" s="72"/>
-      <c r="K29" s="72"/>
-      <c r="L29" s="72"/>
-      <c r="M29" s="82"/>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="71"/>
-      <c r="B30" s="79"/>
-      <c r="C30" s="80"/>
-      <c r="D30" s="81"/>
-      <c r="E30" s="81"/>
-      <c r="F30" s="98"/>
-      <c r="G30" s="81"/>
-      <c r="H30" s="74"/>
-      <c r="I30" s="74"/>
-      <c r="J30" s="74"/>
-      <c r="K30" s="74"/>
-      <c r="L30" s="74"/>
-      <c r="M30" s="82"/>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="71"/>
-      <c r="B31" s="79"/>
-      <c r="C31" s="80"/>
-      <c r="D31" s="81"/>
-      <c r="E31" s="81"/>
-      <c r="F31" s="98"/>
-      <c r="G31" s="81"/>
-      <c r="H31" s="72"/>
-      <c r="I31" s="72"/>
-      <c r="J31" s="72"/>
-      <c r="K31" s="72"/>
-      <c r="L31" s="72"/>
-      <c r="M31" s="82"/>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="71"/>
-      <c r="B32" s="79"/>
-      <c r="C32" s="80"/>
-      <c r="D32" s="81"/>
-      <c r="E32" s="81"/>
-      <c r="F32" s="98"/>
-      <c r="G32" s="81"/>
-      <c r="H32" s="72"/>
-      <c r="I32" s="72"/>
-      <c r="J32" s="72"/>
-      <c r="K32" s="72"/>
-      <c r="L32" s="72"/>
-      <c r="M32" s="82"/>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="71"/>
-      <c r="B33" s="79"/>
-      <c r="C33" s="80"/>
-      <c r="D33" s="81"/>
-      <c r="E33" s="81"/>
-      <c r="F33" s="98"/>
-      <c r="G33" s="81"/>
-      <c r="H33" s="72"/>
-      <c r="I33" s="72"/>
-      <c r="J33" s="72"/>
-      <c r="K33" s="72"/>
-      <c r="L33" s="72"/>
-      <c r="M33" s="82"/>
-    </row>
-    <row r="34" spans="1:13">
-      <c r="A34" s="71"/>
-      <c r="B34" s="79"/>
-      <c r="C34" s="80"/>
-      <c r="D34" s="81"/>
-      <c r="E34" s="81"/>
-      <c r="F34" s="98"/>
-      <c r="G34" s="81"/>
-      <c r="H34" s="72"/>
-      <c r="I34" s="72"/>
-      <c r="J34" s="72"/>
-      <c r="K34" s="72"/>
-      <c r="L34" s="72"/>
-      <c r="M34" s="82"/>
-    </row>
-    <row r="35" spans="1:13">
-      <c r="A35" s="71"/>
-      <c r="B35" s="79"/>
-      <c r="C35" s="80"/>
-      <c r="D35" s="81"/>
-      <c r="E35" s="81"/>
-      <c r="F35" s="98"/>
-      <c r="G35" s="81"/>
-      <c r="H35" s="72"/>
-      <c r="I35" s="72"/>
-      <c r="J35" s="72"/>
-      <c r="K35" s="72"/>
-      <c r="L35" s="72"/>
-      <c r="M35" s="82"/>
-    </row>
-    <row r="36" spans="1:13">
-      <c r="A36" s="71"/>
-      <c r="B36" s="79"/>
-      <c r="C36" s="80"/>
-      <c r="D36" s="81"/>
-      <c r="E36" s="81"/>
-      <c r="F36" s="98"/>
-      <c r="G36" s="81"/>
-      <c r="H36" s="74"/>
-      <c r="I36" s="74"/>
-      <c r="J36" s="74"/>
-      <c r="K36" s="74"/>
-      <c r="L36" s="74"/>
-      <c r="M36" s="82"/>
-    </row>
-    <row r="37" spans="1:13">
-      <c r="A37" s="71"/>
-      <c r="B37" s="79"/>
-      <c r="C37" s="80"/>
-      <c r="D37" s="81"/>
-      <c r="E37" s="81"/>
-      <c r="F37" s="98"/>
-      <c r="G37" s="81"/>
-      <c r="H37" s="72"/>
-      <c r="I37" s="72"/>
-      <c r="J37" s="72"/>
-      <c r="K37" s="72"/>
-      <c r="L37" s="72"/>
-      <c r="M37" s="82"/>
-    </row>
-    <row r="38" spans="1:13">
-      <c r="A38" s="71"/>
-      <c r="B38" s="79"/>
-      <c r="C38" s="80"/>
-      <c r="D38" s="81"/>
-      <c r="E38" s="81"/>
-      <c r="F38" s="98"/>
-      <c r="G38" s="81"/>
-      <c r="H38" s="72"/>
-      <c r="I38" s="72"/>
-      <c r="J38" s="72"/>
-      <c r="K38" s="72"/>
-      <c r="L38" s="72"/>
-      <c r="M38" s="82"/>
-    </row>
-    <row r="39" spans="1:13">
-      <c r="A39" s="71"/>
-      <c r="B39" s="79"/>
-      <c r="C39" s="80"/>
-      <c r="D39" s="81"/>
-      <c r="E39" s="81"/>
-      <c r="F39" s="98"/>
-      <c r="G39" s="81"/>
-      <c r="H39" s="72"/>
-      <c r="I39" s="72"/>
-      <c r="J39" s="72"/>
-      <c r="K39" s="72"/>
-      <c r="L39" s="72"/>
-      <c r="M39" s="82"/>
-    </row>
-    <row r="40" spans="1:13">
-      <c r="A40" s="71"/>
-      <c r="B40" s="79"/>
-      <c r="C40" s="80"/>
-      <c r="D40" s="81"/>
-      <c r="E40" s="81"/>
-      <c r="F40" s="98"/>
-      <c r="G40" s="81"/>
-      <c r="H40" s="72"/>
-      <c r="I40" s="72"/>
-      <c r="J40" s="72"/>
-      <c r="K40" s="72"/>
-      <c r="L40" s="72"/>
-      <c r="M40" s="82"/>
-    </row>
-    <row r="41" spans="1:13">
-      <c r="A41" s="71"/>
-      <c r="B41" s="79"/>
-      <c r="C41" s="80"/>
-      <c r="D41" s="81"/>
-      <c r="E41" s="81"/>
-      <c r="F41" s="98"/>
-      <c r="G41" s="81"/>
-      <c r="H41" s="74"/>
-      <c r="I41" s="74"/>
-      <c r="J41" s="74"/>
-      <c r="K41" s="74"/>
-      <c r="L41" s="74"/>
-      <c r="M41" s="82"/>
-    </row>
-    <row r="42" spans="1:13">
-      <c r="A42" s="71"/>
-      <c r="B42" s="79"/>
-      <c r="C42" s="80"/>
-      <c r="D42" s="81"/>
-      <c r="E42" s="81"/>
-      <c r="F42" s="98"/>
-      <c r="G42" s="81"/>
-      <c r="H42" s="72"/>
-      <c r="I42" s="72"/>
-      <c r="J42" s="72"/>
-      <c r="K42" s="72"/>
-      <c r="L42" s="72"/>
-      <c r="M42" s="82"/>
-    </row>
-    <row r="43" spans="1:13">
-      <c r="A43" s="71"/>
-      <c r="B43" s="79"/>
-      <c r="C43" s="80"/>
-      <c r="D43" s="81"/>
-      <c r="E43" s="81"/>
-      <c r="F43" s="98"/>
-      <c r="G43" s="81"/>
-      <c r="H43" s="72"/>
-      <c r="I43" s="72"/>
-      <c r="J43" s="72"/>
-      <c r="K43" s="72"/>
-      <c r="L43" s="72"/>
-      <c r="M43" s="82"/>
-    </row>
-    <row r="44" spans="1:13">
-      <c r="A44" s="71"/>
-      <c r="B44" s="79"/>
-      <c r="C44" s="80"/>
-      <c r="D44" s="81"/>
-      <c r="E44" s="81"/>
-      <c r="F44" s="98"/>
-      <c r="G44" s="81"/>
-      <c r="H44" s="74"/>
-      <c r="I44" s="74"/>
-      <c r="J44" s="74"/>
-      <c r="K44" s="74"/>
-      <c r="L44" s="74"/>
-      <c r="M44" s="82"/>
-    </row>
-    <row r="45" spans="1:13">
-      <c r="A45" s="83"/>
-      <c r="B45" s="84"/>
-      <c r="C45" s="85"/>
-      <c r="D45" s="86"/>
-      <c r="E45" s="86"/>
-      <c r="F45" s="99"/>
-      <c r="G45" s="86"/>
-      <c r="H45" s="87"/>
-      <c r="I45" s="87"/>
-      <c r="J45" s="87"/>
-      <c r="K45" s="87"/>
-      <c r="L45" s="87"/>
-      <c r="M45" s="88"/>
+      <c r="C45" s="73"/>
+      <c r="D45" s="74" t="s">
+        <v>112</v>
+      </c>
+      <c r="E45" s="74"/>
+      <c r="F45" s="74"/>
+      <c r="G45" s="91"/>
+      <c r="H45" s="74"/>
+      <c r="I45" s="135"/>
+      <c r="J45" s="135"/>
+      <c r="K45" s="135"/>
+      <c r="L45" s="135"/>
+      <c r="M45" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="N45" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="O45" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="P45" s="65"/>
+      <c r="Q45" s="65"/>
+      <c r="R45" s="65"/>
+      <c r="S45" s="65"/>
+      <c r="T45" s="65"/>
+      <c r="U45" s="75"/>
+    </row>
+    <row r="46" spans="1:22">
+      <c r="A46" s="64">
+        <v>7</v>
+      </c>
+      <c r="B46" s="72" t="s">
+        <v>114</v>
+      </c>
+      <c r="C46" s="73"/>
+      <c r="D46" s="74" t="s">
+        <v>172</v>
+      </c>
+      <c r="E46" s="74"/>
+      <c r="F46" s="74"/>
+      <c r="G46" s="91"/>
+      <c r="H46" s="74"/>
+      <c r="I46" s="136"/>
+      <c r="J46" s="136"/>
+      <c r="K46" s="136"/>
+      <c r="L46" s="136"/>
+      <c r="M46" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="N46" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="O46" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="P46" s="65"/>
+      <c r="Q46" s="65"/>
+      <c r="R46" s="65"/>
+      <c r="S46" s="65"/>
+      <c r="T46" s="65"/>
+      <c r="U46" s="75"/>
+    </row>
+    <row r="47" spans="1:22">
+      <c r="A47" s="64"/>
+      <c r="B47" s="72"/>
+      <c r="C47" s="73"/>
+      <c r="D47" s="74"/>
+      <c r="E47" s="74"/>
+      <c r="F47" s="74"/>
+      <c r="G47" s="91"/>
+      <c r="H47" s="74"/>
+      <c r="I47" s="135"/>
+      <c r="J47" s="135"/>
+      <c r="K47" s="135"/>
+      <c r="L47" s="135"/>
+      <c r="M47" s="25"/>
+      <c r="N47" s="25"/>
+      <c r="O47" s="25"/>
+      <c r="P47" s="65"/>
+      <c r="Q47" s="65"/>
+      <c r="R47" s="65"/>
+      <c r="S47" s="65"/>
+      <c r="T47" s="65"/>
+      <c r="U47" s="75"/>
+    </row>
+    <row r="48" spans="1:22">
+      <c r="A48" s="64"/>
+      <c r="B48" s="72"/>
+      <c r="C48" s="73"/>
+      <c r="D48" s="74"/>
+      <c r="E48" s="74"/>
+      <c r="F48" s="74"/>
+      <c r="G48" s="91"/>
+      <c r="H48" s="74"/>
+      <c r="I48" s="136"/>
+      <c r="J48" s="136"/>
+      <c r="K48" s="136"/>
+      <c r="L48" s="136"/>
+      <c r="M48" s="25"/>
+      <c r="N48" s="25"/>
+      <c r="O48" s="25"/>
+      <c r="P48" s="67"/>
+      <c r="Q48" s="67"/>
+      <c r="R48" s="67"/>
+      <c r="S48" s="67"/>
+      <c r="T48" s="67"/>
+      <c r="U48" s="75"/>
+    </row>
+    <row r="49" spans="1:21">
+      <c r="A49" s="64"/>
+      <c r="B49" s="72"/>
+      <c r="C49" s="73"/>
+      <c r="D49" s="74"/>
+      <c r="E49" s="74"/>
+      <c r="F49" s="74"/>
+      <c r="G49" s="91"/>
+      <c r="H49" s="74"/>
+      <c r="I49" s="135"/>
+      <c r="J49" s="135"/>
+      <c r="K49" s="135"/>
+      <c r="L49" s="135"/>
+      <c r="M49" s="25"/>
+      <c r="N49" s="25"/>
+      <c r="O49" s="25"/>
+      <c r="P49" s="65"/>
+      <c r="Q49" s="65"/>
+      <c r="R49" s="65"/>
+      <c r="S49" s="65"/>
+      <c r="T49" s="65"/>
+      <c r="U49" s="75"/>
+    </row>
+    <row r="50" spans="1:21">
+      <c r="A50" s="64"/>
+      <c r="B50" s="72"/>
+      <c r="C50" s="73"/>
+      <c r="D50" s="74"/>
+      <c r="E50" s="74"/>
+      <c r="F50" s="74"/>
+      <c r="G50" s="91"/>
+      <c r="H50" s="74"/>
+      <c r="I50" s="135"/>
+      <c r="J50" s="135"/>
+      <c r="K50" s="135"/>
+      <c r="L50" s="135"/>
+      <c r="M50" s="25"/>
+      <c r="N50" s="25"/>
+      <c r="O50" s="25"/>
+      <c r="P50" s="65"/>
+      <c r="Q50" s="65"/>
+      <c r="R50" s="65"/>
+      <c r="S50" s="65"/>
+      <c r="T50" s="65"/>
+      <c r="U50" s="75"/>
+    </row>
+    <row r="51" spans="1:21">
+      <c r="A51" s="64"/>
+      <c r="B51" s="72"/>
+      <c r="C51" s="73"/>
+      <c r="D51" s="74"/>
+      <c r="E51" s="74"/>
+      <c r="F51" s="74"/>
+      <c r="G51" s="91"/>
+      <c r="H51" s="74"/>
+      <c r="I51" s="135"/>
+      <c r="J51" s="135"/>
+      <c r="K51" s="135"/>
+      <c r="L51" s="135"/>
+      <c r="M51" s="25"/>
+      <c r="N51" s="25"/>
+      <c r="O51" s="25"/>
+      <c r="P51" s="65"/>
+      <c r="Q51" s="65"/>
+      <c r="R51" s="65"/>
+      <c r="S51" s="65"/>
+      <c r="T51" s="65"/>
+      <c r="U51" s="75"/>
+    </row>
+    <row r="52" spans="1:21">
+      <c r="A52" s="64"/>
+      <c r="B52" s="72"/>
+      <c r="C52" s="73"/>
+      <c r="D52" s="74"/>
+      <c r="E52" s="74"/>
+      <c r="F52" s="74"/>
+      <c r="G52" s="91"/>
+      <c r="H52" s="74"/>
+      <c r="I52" s="135"/>
+      <c r="J52" s="135"/>
+      <c r="K52" s="135"/>
+      <c r="L52" s="135"/>
+      <c r="M52" s="25"/>
+      <c r="N52" s="25"/>
+      <c r="O52" s="25"/>
+      <c r="P52" s="65"/>
+      <c r="Q52" s="65"/>
+      <c r="R52" s="65"/>
+      <c r="S52" s="65"/>
+      <c r="T52" s="65"/>
+      <c r="U52" s="75"/>
+    </row>
+    <row r="53" spans="1:21">
+      <c r="A53" s="64"/>
+      <c r="B53" s="72"/>
+      <c r="C53" s="73"/>
+      <c r="D53" s="74"/>
+      <c r="E53" s="74"/>
+      <c r="F53" s="74"/>
+      <c r="G53" s="91"/>
+      <c r="H53" s="74"/>
+      <c r="I53" s="135"/>
+      <c r="J53" s="135"/>
+      <c r="K53" s="135"/>
+      <c r="L53" s="135"/>
+      <c r="M53" s="25"/>
+      <c r="N53" s="25"/>
+      <c r="O53" s="25"/>
+      <c r="P53" s="65"/>
+      <c r="Q53" s="65"/>
+      <c r="R53" s="65"/>
+      <c r="S53" s="65"/>
+      <c r="T53" s="65"/>
+      <c r="U53" s="75"/>
+    </row>
+    <row r="54" spans="1:21">
+      <c r="A54" s="64"/>
+      <c r="B54" s="72"/>
+      <c r="C54" s="73"/>
+      <c r="D54" s="74"/>
+      <c r="E54" s="74"/>
+      <c r="F54" s="74"/>
+      <c r="G54" s="91"/>
+      <c r="H54" s="74"/>
+      <c r="I54" s="26"/>
+      <c r="J54" s="26"/>
+      <c r="K54" s="26"/>
+      <c r="L54" s="26"/>
+      <c r="M54" s="25"/>
+      <c r="N54" s="25"/>
+      <c r="O54" s="25"/>
+      <c r="P54" s="67"/>
+      <c r="Q54" s="67"/>
+      <c r="R54" s="67"/>
+      <c r="S54" s="67"/>
+      <c r="T54" s="67"/>
+      <c r="U54" s="75"/>
+    </row>
+    <row r="55" spans="1:21">
+      <c r="A55" s="64"/>
+      <c r="B55" s="72"/>
+      <c r="C55" s="73"/>
+      <c r="D55" s="74"/>
+      <c r="E55" s="74"/>
+      <c r="F55" s="74"/>
+      <c r="G55" s="91"/>
+      <c r="H55" s="74"/>
+      <c r="I55" s="26"/>
+      <c r="J55" s="26"/>
+      <c r="K55" s="26"/>
+      <c r="L55" s="26"/>
+      <c r="M55" s="25"/>
+      <c r="N55" s="25"/>
+      <c r="O55" s="25"/>
+      <c r="P55" s="65"/>
+      <c r="Q55" s="65"/>
+      <c r="R55" s="65"/>
+      <c r="S55" s="65"/>
+      <c r="T55" s="65"/>
+      <c r="U55" s="75"/>
+    </row>
+    <row r="56" spans="1:21">
+      <c r="A56" s="64"/>
+      <c r="B56" s="72"/>
+      <c r="C56" s="73"/>
+      <c r="D56" s="74"/>
+      <c r="E56" s="74"/>
+      <c r="F56" s="74"/>
+      <c r="G56" s="91"/>
+      <c r="H56" s="74"/>
+      <c r="I56" s="26"/>
+      <c r="J56" s="26"/>
+      <c r="K56" s="26"/>
+      <c r="L56" s="26"/>
+      <c r="M56" s="25"/>
+      <c r="N56" s="25"/>
+      <c r="O56" s="25"/>
+      <c r="P56" s="65"/>
+      <c r="Q56" s="65"/>
+      <c r="R56" s="65"/>
+      <c r="S56" s="65"/>
+      <c r="T56" s="65"/>
+      <c r="U56" s="75"/>
+    </row>
+    <row r="57" spans="1:21">
+      <c r="A57" s="64"/>
+      <c r="B57" s="72"/>
+      <c r="C57" s="73"/>
+      <c r="D57" s="74"/>
+      <c r="E57" s="74"/>
+      <c r="F57" s="74"/>
+      <c r="G57" s="91"/>
+      <c r="H57" s="74"/>
+      <c r="I57" s="26"/>
+      <c r="J57" s="26"/>
+      <c r="K57" s="26"/>
+      <c r="L57" s="26"/>
+      <c r="M57" s="25"/>
+      <c r="N57" s="25"/>
+      <c r="O57" s="25"/>
+      <c r="P57" s="65"/>
+      <c r="Q57" s="65"/>
+      <c r="R57" s="65"/>
+      <c r="S57" s="65"/>
+      <c r="T57" s="65"/>
+      <c r="U57" s="75"/>
+    </row>
+    <row r="58" spans="1:21">
+      <c r="A58" s="64"/>
+      <c r="B58" s="72"/>
+      <c r="C58" s="73"/>
+      <c r="D58" s="74"/>
+      <c r="E58" s="74"/>
+      <c r="F58" s="74"/>
+      <c r="G58" s="91"/>
+      <c r="H58" s="74"/>
+      <c r="I58" s="26"/>
+      <c r="J58" s="26"/>
+      <c r="K58" s="26"/>
+      <c r="L58" s="26"/>
+      <c r="M58" s="25"/>
+      <c r="N58" s="25"/>
+      <c r="O58" s="25"/>
+      <c r="P58" s="65"/>
+      <c r="Q58" s="65"/>
+      <c r="R58" s="65"/>
+      <c r="S58" s="65"/>
+      <c r="T58" s="65"/>
+      <c r="U58" s="75"/>
+    </row>
+    <row r="59" spans="1:21">
+      <c r="A59" s="64"/>
+      <c r="B59" s="72"/>
+      <c r="C59" s="73"/>
+      <c r="D59" s="74"/>
+      <c r="E59" s="74"/>
+      <c r="F59" s="74"/>
+      <c r="G59" s="91"/>
+      <c r="H59" s="74"/>
+      <c r="I59" s="26"/>
+      <c r="J59" s="26"/>
+      <c r="K59" s="26"/>
+      <c r="L59" s="26"/>
+      <c r="M59" s="25"/>
+      <c r="N59" s="25"/>
+      <c r="O59" s="25"/>
+      <c r="P59" s="67"/>
+      <c r="Q59" s="67"/>
+      <c r="R59" s="67"/>
+      <c r="S59" s="67"/>
+      <c r="T59" s="67"/>
+      <c r="U59" s="75"/>
+    </row>
+    <row r="60" spans="1:21">
+      <c r="A60" s="64"/>
+      <c r="B60" s="72"/>
+      <c r="C60" s="73"/>
+      <c r="D60" s="74"/>
+      <c r="E60" s="74"/>
+      <c r="F60" s="74"/>
+      <c r="G60" s="91"/>
+      <c r="H60" s="74"/>
+      <c r="I60" s="26"/>
+      <c r="J60" s="26"/>
+      <c r="K60" s="26"/>
+      <c r="L60" s="26"/>
+      <c r="M60" s="25"/>
+      <c r="N60" s="25"/>
+      <c r="O60" s="25"/>
+      <c r="P60" s="65"/>
+      <c r="Q60" s="65"/>
+      <c r="R60" s="65"/>
+      <c r="S60" s="65"/>
+      <c r="T60" s="65"/>
+      <c r="U60" s="75"/>
+    </row>
+    <row r="61" spans="1:21">
+      <c r="A61" s="64"/>
+      <c r="B61" s="72"/>
+      <c r="C61" s="73"/>
+      <c r="D61" s="74"/>
+      <c r="E61" s="74"/>
+      <c r="F61" s="74"/>
+      <c r="G61" s="91"/>
+      <c r="H61" s="74"/>
+      <c r="I61" s="26"/>
+      <c r="J61" s="26"/>
+      <c r="K61" s="26"/>
+      <c r="L61" s="26"/>
+      <c r="M61" s="25"/>
+      <c r="N61" s="25"/>
+      <c r="O61" s="25"/>
+      <c r="P61" s="65"/>
+      <c r="Q61" s="65"/>
+      <c r="R61" s="65"/>
+      <c r="S61" s="65"/>
+      <c r="T61" s="65"/>
+      <c r="U61" s="75"/>
+    </row>
+    <row r="62" spans="1:21">
+      <c r="A62" s="64"/>
+      <c r="B62" s="72"/>
+      <c r="C62" s="73"/>
+      <c r="D62" s="74"/>
+      <c r="E62" s="74"/>
+      <c r="F62" s="74"/>
+      <c r="G62" s="91"/>
+      <c r="H62" s="74"/>
+      <c r="I62" s="26"/>
+      <c r="J62" s="26"/>
+      <c r="K62" s="26"/>
+      <c r="L62" s="26"/>
+      <c r="M62" s="25"/>
+      <c r="N62" s="25"/>
+      <c r="O62" s="25"/>
+      <c r="P62" s="67"/>
+      <c r="Q62" s="67"/>
+      <c r="R62" s="67"/>
+      <c r="S62" s="67"/>
+      <c r="T62" s="67"/>
+      <c r="U62" s="75"/>
+    </row>
+    <row r="63" spans="1:21">
+      <c r="A63" s="76"/>
+      <c r="B63" s="77"/>
+      <c r="C63" s="78"/>
+      <c r="D63" s="79"/>
+      <c r="E63" s="79"/>
+      <c r="F63" s="79"/>
+      <c r="G63" s="92"/>
+      <c r="H63" s="79"/>
+      <c r="I63" s="27"/>
+      <c r="J63" s="27"/>
+      <c r="K63" s="27"/>
+      <c r="L63" s="27"/>
+      <c r="M63" s="27"/>
+      <c r="N63" s="27"/>
+      <c r="O63" s="27"/>
+      <c r="P63" s="80"/>
+      <c r="Q63" s="80"/>
+      <c r="R63" s="80"/>
+      <c r="S63" s="80"/>
+      <c r="T63" s="80"/>
+      <c r="U63" s="81"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="E20:E21"/>
+  <mergeCells count="36">
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="O38:O39"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="U38:U39"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="N38:N39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="K38:K39"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{00000000-0002-0000-0200-000000000000}">
+  <dataValidations count="3">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>Validate実装パターン</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16" xr:uid="{D2F1DDFB-4C14-CF4E-91F9-FC070B8AB604}">
+      <formula1>isImport</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M40:O63" xr:uid="{F4F6C18F-0D3A-4244-9E9D-92EEB33B399D}">
+      <formula1>isNullable</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.11811023622047245"/>
@@ -5684,17 +8424,17 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000001000000}">
           <x14:formula1>
-            <xm:f>config!$D$5:$D$8</xm:f>
+            <xm:f>config!$C$5:$C$8</xm:f>
           </x14:formula1>
           <xm:sqref>C9</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000002000000}">
           <x14:formula1>
-            <xm:f>config!$C$5:$C$6</xm:f>
+            <xm:f>config!$B$5:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>F22:F45</xm:sqref>
+          <xm:sqref>G40:G63</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5703,7 +8443,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5715,14 +8455,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="42" customWidth="1"/>
-    <col min="2" max="2" width="4.5" style="42" customWidth="1"/>
-    <col min="3" max="16384" width="8.83203125" style="42"/>
+    <col min="1" max="1" width="3.6640625" style="40" customWidth="1"/>
+    <col min="2" max="2" width="4.5" style="40" customWidth="1"/>
+    <col min="3" max="16384" width="8.83203125" style="40"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19">
       <c r="A1" s="18" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>144</v>
@@ -5730,25 +8470,25 @@
     </row>
     <row r="2" spans="1:9">
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -5757,7 +8497,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -5766,7 +8506,7 @@
     <row r="8" spans="1:9">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -5775,34 +8515,34 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C13" s="1"/>
     </row>
@@ -5810,223 +8550,223 @@
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1"/>
-      <c r="C16" s="42" t="s">
-        <v>43</v>
+      <c r="C16" s="40" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="B17" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="C18" s="42" t="s">
-        <v>44</v>
+      <c r="C18" s="40" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="B19" s="1"/>
-      <c r="C19" s="42" t="s">
-        <v>45</v>
+      <c r="C19" s="40" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="B20" s="1"/>
-      <c r="C20" s="42" t="s">
-        <v>75</v>
+      <c r="C20" s="40" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1"/>
-      <c r="B23" s="42" t="s">
-        <v>47</v>
+      <c r="B23" s="40" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1"/>
-      <c r="B26" s="42" t="s">
-        <v>50</v>
+      <c r="B26" s="40" t="s">
+        <v>43</v>
       </c>
       <c r="C26" s="1"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1"/>
-      <c r="B28" s="42" t="s">
-        <v>52</v>
+      <c r="B28" s="40" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="C29" s="42" t="s">
-        <v>53</v>
+      <c r="C29" s="40" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="C30" s="42" t="s">
-        <v>54</v>
+      <c r="C30" s="40" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="C31" s="42" t="s">
-        <v>55</v>
+      <c r="C31" s="40" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="C32" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="2:3">
-      <c r="C33" s="42" t="s">
+      <c r="C33" s="40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="C34" s="40" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" s="40" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="C36" s="40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37" s="40" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="C38" s="40" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="B39" s="40" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="C40" s="40" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3">
+      <c r="C41" s="40" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3">
+      <c r="C42" s="40" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3">
+      <c r="C43" s="40" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3">
+      <c r="B44" s="40" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3">
+      <c r="C45" s="40" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3">
+      <c r="C46" s="40" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3">
+      <c r="B47" s="40" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3">
+      <c r="C48" s="40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="C49" s="40" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="B50" s="40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="C51" s="40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="C52" s="40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="40" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="2:3">
-      <c r="C34" s="42" t="s">
+    <row r="55" spans="1:3">
+      <c r="B55" s="40" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="2:3">
-      <c r="B35" s="42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3">
-      <c r="C36" s="42" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3">
-      <c r="B37" s="42" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3">
-      <c r="C38" s="42" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3">
-      <c r="B39" s="42" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3">
-      <c r="C40" s="42" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3">
-      <c r="C41" s="42" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3">
-      <c r="C42" s="42" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3">
-      <c r="C43" s="42" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3">
-      <c r="B44" s="42" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3">
-      <c r="C45" s="42" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3">
-      <c r="C46" s="42" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3">
-      <c r="B47" s="42" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3">
-      <c r="C48" s="42" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="C49" s="42" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="B50" s="42" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="C51" s="42" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="C52" s="42" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="42" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="B55" s="42" t="s">
-        <v>94</v>
-      </c>
-    </row>
     <row r="56" spans="1:3">
-      <c r="C56" s="42" t="s">
-        <v>95</v>
+      <c r="C56" s="40" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="C57" s="42" t="s">
-        <v>97</v>
+      <c r="C57" s="40" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -6037,204 +8777,123 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="1"/>
+    <col min="7" max="7" width="8.33203125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19">
+    <row r="1" spans="1:7" ht="19">
       <c r="A1" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="E1" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="45" t="s">
+      <c r="B4" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="45" t="s">
+      <c r="C4" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="D4" s="43" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="46" t="s">
+      <c r="E4" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="F4" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="G4" s="43" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D5" s="47" t="s">
+      <c r="B5" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" s="45" t="s">
         <v>148</v>
       </c>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="48" t="s">
+      <c r="D5" s="8"/>
+      <c r="E5" s="137" t="s">
+        <v>142</v>
+      </c>
+      <c r="F5" s="137" t="s">
+        <v>142</v>
+      </c>
+      <c r="G5" s="137" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="49" t="s">
+      <c r="B6" s="10"/>
+      <c r="C6" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="E6" s="73" t="s">
+      <c r="D6" s="66" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="B7" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="50" t="s">
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="B7" s="15"/>
+      <c r="C7" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="E7" s="49" t="s">
+      <c r="D7" s="47" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="B8" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="50" t="s">
+    <row r="8" spans="1:7">
+      <c r="C8" s="48" t="s">
         <v>151</v>
       </c>
-      <c r="E8" s="50" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="B9" s="50" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="B10" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="B11" s="50" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="B12" s="50" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="B13" s="50" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="B14" s="50"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="B15" s="50"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="B16" s="50"/>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="50"/>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="50"/>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="50"/>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="50"/>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="50"/>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="50"/>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="50"/>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="50"/>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="50"/>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" s="50"/>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" s="50"/>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="50"/>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="50"/>
-    </row>
-    <row r="30" spans="2:2">
-      <c r="B30" s="50"/>
-    </row>
-    <row r="31" spans="2:2">
-      <c r="B31" s="50"/>
-    </row>
-    <row r="32" spans="2:2">
-      <c r="B32" s="50"/>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="50"/>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" s="51"/>
+      <c r="D8" s="48" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="D10" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/meta/api/BlancoApiPostSample.xlsx
+++ b/meta/api/BlancoApiPostSample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10111"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorKt/meta/api/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGenerator/meta/api/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C59FBA2-7B7A-5C48-BF75-478F0A3B362A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3FC2B0A-0F68-0149-8B59-0CCFA1F64DF0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="680" windowWidth="21420" windowHeight="17540" tabRatio="860" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="180" yWindow="680" windowWidth="21420" windowHeight="17540" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="process" sheetId="19" r:id="rId1"/>
@@ -1933,9 +1933,6 @@
     <t>総称型</t>
   </si>
   <si>
-    <t>BlancoApiSample</t>
-  </si>
-  <si>
     <t>blanco.sample</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -2401,6 +2398,10 @@
   </si>
   <si>
     <t>@field:Max(10)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>blancoApiSample</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -3644,12 +3645,87 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="60" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3659,9 +3735,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3674,12 +3747,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3718,84 +3785,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3819,15 +3808,33 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3838,12 +3845,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4392,8 +4393,8 @@
   </sheetPr>
   <dimension ref="A1:O70"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -4436,204 +4437,204 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="185" t="s">
+      <c r="A5" s="139" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="185"/>
-      <c r="C5" s="185"/>
-      <c r="D5" s="185"/>
-      <c r="E5" s="185"/>
+      <c r="B5" s="139"/>
+      <c r="C5" s="139"/>
+      <c r="D5" s="139"/>
+      <c r="E5" s="139"/>
       <c r="F5" s="55"/>
       <c r="G5" s="55"/>
       <c r="H5" s="95"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="182" t="s">
+      <c r="A6" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="183"/>
-      <c r="C6" s="184"/>
-      <c r="D6" s="181" t="s">
-        <v>197</v>
-      </c>
-      <c r="E6" s="181"/>
+      <c r="B6" s="144"/>
+      <c r="C6" s="145"/>
+      <c r="D6" s="140" t="s">
+        <v>196</v>
+      </c>
+      <c r="E6" s="140"/>
       <c r="F6" s="55"/>
       <c r="G6" s="55"/>
       <c r="H6" s="95"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="185" t="s">
+      <c r="A7" s="139" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="185"/>
-      <c r="C7" s="185"/>
-      <c r="D7" s="181" t="s">
-        <v>166</v>
-      </c>
-      <c r="E7" s="181"/>
+      <c r="B7" s="139"/>
+      <c r="C7" s="139"/>
+      <c r="D7" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="E7" s="140"/>
       <c r="F7" s="55"/>
       <c r="G7" s="55"/>
       <c r="H7" s="95"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="185" t="s">
+      <c r="A8" s="139" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="185"/>
-      <c r="C8" s="185"/>
-      <c r="D8" s="181" t="s">
-        <v>162</v>
-      </c>
-      <c r="E8" s="181"/>
+      <c r="B8" s="139"/>
+      <c r="C8" s="139"/>
+      <c r="D8" s="140" t="s">
+        <v>231</v>
+      </c>
+      <c r="E8" s="140"/>
       <c r="F8" s="95"/>
       <c r="G8" s="95"/>
       <c r="H8" s="95"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="185" t="s">
+      <c r="A9" s="139" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="185"/>
-      <c r="C9" s="185"/>
-      <c r="D9" s="181" t="s">
+      <c r="B9" s="139"/>
+      <c r="C9" s="139"/>
+      <c r="D9" s="140" t="s">
         <v>100</v>
       </c>
-      <c r="E9" s="181"/>
+      <c r="E9" s="140"/>
       <c r="F9" s="95"/>
       <c r="G9" s="95"/>
       <c r="H9" s="95"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="185" t="s">
+      <c r="A10" s="139" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="185"/>
-      <c r="C10" s="185"/>
-      <c r="D10" s="181"/>
-      <c r="E10" s="181"/>
+      <c r="B10" s="139"/>
+      <c r="C10" s="139"/>
+      <c r="D10" s="140"/>
+      <c r="E10" s="140"/>
       <c r="F10" s="95"/>
       <c r="G10" s="95"/>
       <c r="H10" s="95"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="185" t="s">
+      <c r="A11" s="139" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="185"/>
-      <c r="C11" s="185"/>
-      <c r="D11" s="181" t="s">
-        <v>163</v>
-      </c>
-      <c r="E11" s="181"/>
+      <c r="B11" s="139"/>
+      <c r="C11" s="139"/>
+      <c r="D11" s="140" t="s">
+        <v>162</v>
+      </c>
+      <c r="E11" s="140"/>
       <c r="F11" s="95"/>
       <c r="G11" s="95"/>
       <c r="H11" s="95"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="144" t="s">
+      <c r="A12" s="146" t="s">
+        <v>173</v>
+      </c>
+      <c r="B12" s="146"/>
+      <c r="C12" s="146"/>
+      <c r="D12" s="141" t="s">
         <v>174</v>
       </c>
-      <c r="B12" s="144"/>
-      <c r="C12" s="144"/>
-      <c r="D12" s="165" t="s">
+      <c r="E12" s="141"/>
+      <c r="F12" s="95" t="s">
         <v>175</v>
       </c>
-      <c r="E12" s="165"/>
-      <c r="F12" s="95" t="s">
+      <c r="G12" s="54"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="146" t="s">
+        <v>211</v>
+      </c>
+      <c r="B13" s="146"/>
+      <c r="C13" s="146"/>
+      <c r="D13" s="141" t="s">
+        <v>209</v>
+      </c>
+      <c r="E13" s="141"/>
+      <c r="F13" s="95" t="s">
+        <v>210</v>
+      </c>
+      <c r="G13" s="54"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="146" t="s">
         <v>176</v>
       </c>
-      <c r="G12" s="54"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="144" t="s">
-        <v>212</v>
-      </c>
-      <c r="B13" s="144"/>
-      <c r="C13" s="144"/>
-      <c r="D13" s="165" t="s">
-        <v>210</v>
-      </c>
-      <c r="E13" s="165"/>
-      <c r="F13" s="95" t="s">
-        <v>211</v>
-      </c>
-      <c r="G13" s="54"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="144" t="s">
-        <v>177</v>
-      </c>
-      <c r="B14" s="144"/>
-      <c r="C14" s="144"/>
-      <c r="D14" s="164"/>
-      <c r="E14" s="165"/>
+      <c r="B14" s="146"/>
+      <c r="C14" s="146"/>
+      <c r="D14" s="142"/>
+      <c r="E14" s="141"/>
       <c r="F14" s="54" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G14" s="54"/>
       <c r="H14" s="95"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="144" t="s">
-        <v>217</v>
-      </c>
-      <c r="B15" s="144"/>
-      <c r="C15" s="144"/>
-      <c r="D15" s="164" t="s">
-        <v>215</v>
-      </c>
-      <c r="E15" s="165"/>
+      <c r="A15" s="146" t="s">
+        <v>216</v>
+      </c>
+      <c r="B15" s="146"/>
+      <c r="C15" s="146"/>
+      <c r="D15" s="142" t="s">
+        <v>214</v>
+      </c>
+      <c r="E15" s="141"/>
       <c r="F15" s="54" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G15" s="54"/>
       <c r="H15" s="95"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="144" t="s">
-        <v>216</v>
-      </c>
-      <c r="B16" s="144"/>
-      <c r="C16" s="144"/>
-      <c r="D16" s="164"/>
-      <c r="E16" s="165"/>
+      <c r="A16" s="146" t="s">
+        <v>215</v>
+      </c>
+      <c r="B16" s="146"/>
+      <c r="C16" s="146"/>
+      <c r="D16" s="142"/>
+      <c r="E16" s="141"/>
       <c r="F16" s="54" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G16" s="54"/>
       <c r="H16" s="95"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="144" t="s">
-        <v>214</v>
-      </c>
-      <c r="B17" s="144"/>
-      <c r="C17" s="144"/>
-      <c r="D17" s="164"/>
-      <c r="E17" s="165"/>
+      <c r="A17" s="146" t="s">
+        <v>213</v>
+      </c>
+      <c r="B17" s="146"/>
+      <c r="C17" s="146"/>
+      <c r="D17" s="142"/>
+      <c r="E17" s="141"/>
       <c r="F17" s="54" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G17" s="54"/>
       <c r="H17" s="95"/>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="161" t="s">
+      <c r="A18" s="183" t="s">
         <v>143</v>
       </c>
-      <c r="B18" s="162"/>
-      <c r="C18" s="163"/>
+      <c r="B18" s="184"/>
+      <c r="C18" s="185"/>
       <c r="D18" s="114"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="145" t="s">
-        <v>179</v>
-      </c>
-      <c r="B19" s="146"/>
-      <c r="C19" s="147"/>
+      <c r="A19" s="169" t="s">
+        <v>178</v>
+      </c>
+      <c r="B19" s="170"/>
+      <c r="C19" s="171"/>
       <c r="D19" s="100"/>
       <c r="E19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F19"/>
       <c r="G19"/>
@@ -4648,27 +4649,27 @@
       <c r="B20" s="6"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="158" t="s">
-        <v>188</v>
-      </c>
-      <c r="B21" s="159"/>
-      <c r="C21" s="159"/>
-      <c r="D21" s="159"/>
-      <c r="E21" s="159"/>
-      <c r="F21" s="159"/>
-      <c r="G21" s="160"/>
+      <c r="A21" s="180" t="s">
+        <v>187</v>
+      </c>
+      <c r="B21" s="181"/>
+      <c r="C21" s="181"/>
+      <c r="D21" s="181"/>
+      <c r="E21" s="181"/>
+      <c r="F21" s="181"/>
+      <c r="G21" s="182"/>
       <c r="H21" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="101" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B22" s="110"/>
       <c r="C22" s="102"/>
       <c r="D22" s="103" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E22" s="103"/>
       <c r="F22" s="103"/>
@@ -4686,7 +4687,7 @@
       <c r="B23" s="113"/>
       <c r="C23" s="99"/>
       <c r="D23" s="96" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E23" s="97"/>
       <c r="F23" s="97"/>
@@ -4694,7 +4695,7 @@
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="98" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B24" s="113"/>
       <c r="C24" s="99"/>
@@ -4707,28 +4708,28 @@
       <c r="C25"/>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="157" t="s">
-        <v>189</v>
-      </c>
-      <c r="B26" s="157"/>
-      <c r="C26" s="157"/>
-      <c r="D26" s="157"/>
-      <c r="E26" s="157"/>
-      <c r="F26" s="157"/>
-      <c r="G26" s="157"/>
+      <c r="A26" s="179" t="s">
+        <v>188</v>
+      </c>
+      <c r="B26" s="179"/>
+      <c r="C26" s="179"/>
+      <c r="D26" s="179"/>
+      <c r="E26" s="179"/>
+      <c r="F26" s="179"/>
+      <c r="G26" s="179"/>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="115" t="s">
         <v>69</v>
       </c>
-      <c r="B27" s="151" t="s">
-        <v>183</v>
-      </c>
-      <c r="C27" s="152"/>
-      <c r="D27" s="152"/>
-      <c r="E27" s="152"/>
-      <c r="F27" s="152"/>
-      <c r="G27" s="153"/>
+      <c r="B27" s="173" t="s">
+        <v>182</v>
+      </c>
+      <c r="C27" s="174"/>
+      <c r="D27" s="174"/>
+      <c r="E27" s="174"/>
+      <c r="F27" s="174"/>
+      <c r="G27" s="175"/>
       <c r="H27" s="105"/>
       <c r="I27" s="105"/>
       <c r="J27" s="105"/>
@@ -4739,12 +4740,12 @@
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="116"/>
-      <c r="B28" s="168"/>
-      <c r="C28" s="168"/>
-      <c r="D28" s="168"/>
-      <c r="E28" s="168"/>
-      <c r="F28" s="168"/>
-      <c r="G28" s="168"/>
+      <c r="B28" s="157"/>
+      <c r="C28" s="157"/>
+      <c r="D28" s="157"/>
+      <c r="E28" s="157"/>
+      <c r="F28" s="157"/>
+      <c r="G28" s="157"/>
       <c r="H28" s="112"/>
       <c r="I28" s="112"/>
       <c r="J28" s="112"/>
@@ -4755,12 +4756,12 @@
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="117"/>
-      <c r="B29" s="169"/>
-      <c r="C29" s="169"/>
-      <c r="D29" s="169"/>
-      <c r="E29" s="169"/>
-      <c r="F29" s="169"/>
-      <c r="G29" s="169"/>
+      <c r="B29" s="159"/>
+      <c r="C29" s="159"/>
+      <c r="D29" s="159"/>
+      <c r="E29" s="159"/>
+      <c r="F29" s="159"/>
+      <c r="G29" s="159"/>
       <c r="H29" s="112"/>
       <c r="I29" s="112"/>
       <c r="J29" s="112"/>
@@ -4771,12 +4772,12 @@
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="118"/>
-      <c r="B30" s="170"/>
-      <c r="C30" s="170"/>
-      <c r="D30" s="170"/>
-      <c r="E30" s="170"/>
-      <c r="F30" s="170"/>
-      <c r="G30" s="170"/>
+      <c r="B30" s="161"/>
+      <c r="C30" s="161"/>
+      <c r="D30" s="161"/>
+      <c r="E30" s="161"/>
+      <c r="F30" s="161"/>
+      <c r="G30" s="161"/>
       <c r="H30" s="112"/>
       <c r="I30" s="112"/>
       <c r="J30" s="112"/>
@@ -4789,28 +4790,28 @@
       <c r="C31"/>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="154" t="s">
-        <v>190</v>
-      </c>
-      <c r="B32" s="155"/>
-      <c r="C32" s="155"/>
-      <c r="D32" s="155"/>
-      <c r="E32" s="155"/>
-      <c r="F32" s="155"/>
-      <c r="G32" s="156"/>
+      <c r="A32" s="176" t="s">
+        <v>189</v>
+      </c>
+      <c r="B32" s="177"/>
+      <c r="C32" s="177"/>
+      <c r="D32" s="177"/>
+      <c r="E32" s="177"/>
+      <c r="F32" s="177"/>
+      <c r="G32" s="178"/>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="115" t="s">
         <v>69</v>
       </c>
-      <c r="B33" s="174" t="s">
-        <v>184</v>
-      </c>
-      <c r="C33" s="174"/>
-      <c r="D33" s="174"/>
-      <c r="E33" s="174"/>
-      <c r="F33" s="174"/>
-      <c r="G33" s="174"/>
+      <c r="B33" s="153" t="s">
+        <v>183</v>
+      </c>
+      <c r="C33" s="153"/>
+      <c r="D33" s="153"/>
+      <c r="E33" s="153"/>
+      <c r="F33" s="153"/>
+      <c r="G33" s="153"/>
       <c r="H33" s="105"/>
       <c r="I33" s="105"/>
       <c r="J33" s="105"/>
@@ -4823,14 +4824,14 @@
       <c r="A34" s="116">
         <v>1</v>
       </c>
-      <c r="B34" s="175" t="s">
-        <v>218</v>
-      </c>
-      <c r="C34" s="175"/>
-      <c r="D34" s="175"/>
-      <c r="E34" s="175"/>
-      <c r="F34" s="175"/>
-      <c r="G34" s="175"/>
+      <c r="B34" s="154" t="s">
+        <v>217</v>
+      </c>
+      <c r="C34" s="154"/>
+      <c r="D34" s="154"/>
+      <c r="E34" s="154"/>
+      <c r="F34" s="154"/>
+      <c r="G34" s="154"/>
       <c r="H34" s="112"/>
       <c r="I34" s="112"/>
       <c r="J34" s="112"/>
@@ -4841,12 +4842,12 @@
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="117"/>
-      <c r="B35" s="176"/>
-      <c r="C35" s="176"/>
-      <c r="D35" s="176"/>
-      <c r="E35" s="176"/>
-      <c r="F35" s="176"/>
-      <c r="G35" s="176"/>
+      <c r="B35" s="155"/>
+      <c r="C35" s="155"/>
+      <c r="D35" s="155"/>
+      <c r="E35" s="155"/>
+      <c r="F35" s="155"/>
+      <c r="G35" s="155"/>
       <c r="H35" s="112"/>
       <c r="I35" s="112"/>
       <c r="J35" s="112"/>
@@ -4857,12 +4858,12 @@
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="118"/>
-      <c r="B36" s="177"/>
-      <c r="C36" s="177"/>
-      <c r="D36" s="177"/>
-      <c r="E36" s="177"/>
-      <c r="F36" s="177"/>
-      <c r="G36" s="177"/>
+      <c r="B36" s="156"/>
+      <c r="C36" s="156"/>
+      <c r="D36" s="156"/>
+      <c r="E36" s="156"/>
+      <c r="F36" s="156"/>
+      <c r="G36" s="156"/>
       <c r="H36" s="112"/>
       <c r="I36" s="112"/>
       <c r="J36" s="112"/>
@@ -4887,28 +4888,28 @@
       <c r="M37"/>
     </row>
     <row r="38" spans="1:15">
-      <c r="A38" s="154" t="s">
-        <v>191</v>
-      </c>
-      <c r="B38" s="155"/>
-      <c r="C38" s="155"/>
-      <c r="D38" s="155"/>
-      <c r="E38" s="155"/>
-      <c r="F38" s="155"/>
-      <c r="G38" s="156"/>
+      <c r="A38" s="176" t="s">
+        <v>190</v>
+      </c>
+      <c r="B38" s="177"/>
+      <c r="C38" s="177"/>
+      <c r="D38" s="177"/>
+      <c r="E38" s="177"/>
+      <c r="F38" s="177"/>
+      <c r="G38" s="178"/>
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="115" t="s">
         <v>69</v>
       </c>
-      <c r="B39" s="174" t="s">
-        <v>186</v>
-      </c>
-      <c r="C39" s="174"/>
-      <c r="D39" s="174"/>
-      <c r="E39" s="174"/>
-      <c r="F39" s="174"/>
-      <c r="G39" s="174"/>
+      <c r="B39" s="153" t="s">
+        <v>185</v>
+      </c>
+      <c r="C39" s="153"/>
+      <c r="D39" s="153"/>
+      <c r="E39" s="153"/>
+      <c r="F39" s="153"/>
+      <c r="G39" s="153"/>
       <c r="H39" s="105"/>
       <c r="I39" s="105"/>
       <c r="J39" s="105"/>
@@ -4919,12 +4920,12 @@
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="116"/>
-      <c r="B40" s="168"/>
-      <c r="C40" s="168"/>
-      <c r="D40" s="168"/>
-      <c r="E40" s="168"/>
-      <c r="F40" s="168"/>
-      <c r="G40" s="178"/>
+      <c r="B40" s="157"/>
+      <c r="C40" s="157"/>
+      <c r="D40" s="157"/>
+      <c r="E40" s="157"/>
+      <c r="F40" s="157"/>
+      <c r="G40" s="158"/>
       <c r="H40" s="112"/>
       <c r="I40" s="112"/>
       <c r="J40" s="112"/>
@@ -4935,12 +4936,12 @@
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="117"/>
-      <c r="B41" s="169"/>
-      <c r="C41" s="169"/>
-      <c r="D41" s="169"/>
-      <c r="E41" s="169"/>
-      <c r="F41" s="169"/>
-      <c r="G41" s="179"/>
+      <c r="B41" s="159"/>
+      <c r="C41" s="159"/>
+      <c r="D41" s="159"/>
+      <c r="E41" s="159"/>
+      <c r="F41" s="159"/>
+      <c r="G41" s="160"/>
       <c r="H41" s="112"/>
       <c r="I41" s="112"/>
       <c r="J41" s="112"/>
@@ -4951,12 +4952,12 @@
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="118"/>
-      <c r="B42" s="170"/>
-      <c r="C42" s="170"/>
-      <c r="D42" s="170"/>
-      <c r="E42" s="170"/>
-      <c r="F42" s="170"/>
-      <c r="G42" s="180"/>
+      <c r="B42" s="161"/>
+      <c r="C42" s="161"/>
+      <c r="D42" s="161"/>
+      <c r="E42" s="161"/>
+      <c r="F42" s="161"/>
+      <c r="G42" s="162"/>
       <c r="H42" s="112"/>
       <c r="I42" s="112"/>
       <c r="J42" s="112"/>
@@ -4991,226 +4992,295 @@
       <c r="F44" s="5"/>
     </row>
     <row r="45" spans="1:15">
-      <c r="A45" s="141" t="s">
+      <c r="A45" s="166" t="s">
         <v>65</v>
       </c>
-      <c r="B45" s="148"/>
-      <c r="C45" s="141" t="s">
+      <c r="B45" s="172"/>
+      <c r="C45" s="166" t="s">
         <v>66</v>
       </c>
-      <c r="D45" s="142"/>
-      <c r="E45" s="143"/>
+      <c r="D45" s="167"/>
+      <c r="E45" s="168"/>
       <c r="F45" s="29" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:15">
-      <c r="A46" s="149"/>
-      <c r="B46" s="150"/>
-      <c r="C46" s="149"/>
-      <c r="D46" s="171"/>
-      <c r="E46" s="150"/>
+      <c r="A46" s="163"/>
+      <c r="B46" s="165"/>
+      <c r="C46" s="163"/>
+      <c r="D46" s="164"/>
+      <c r="E46" s="165"/>
       <c r="F46" s="49"/>
     </row>
     <row r="47" spans="1:15">
-      <c r="A47" s="139"/>
-      <c r="B47" s="140"/>
-      <c r="C47" s="139"/>
-      <c r="D47" s="172"/>
-      <c r="E47" s="140"/>
+      <c r="A47" s="147"/>
+      <c r="B47" s="149"/>
+      <c r="C47" s="147"/>
+      <c r="D47" s="148"/>
+      <c r="E47" s="149"/>
       <c r="F47" s="49"/>
     </row>
     <row r="48" spans="1:15">
-      <c r="A48" s="139"/>
-      <c r="B48" s="140"/>
-      <c r="C48" s="139"/>
-      <c r="D48" s="172"/>
-      <c r="E48" s="140"/>
+      <c r="A48" s="147"/>
+      <c r="B48" s="149"/>
+      <c r="C48" s="147"/>
+      <c r="D48" s="148"/>
+      <c r="E48" s="149"/>
       <c r="F48" s="49"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="139"/>
-      <c r="B49" s="140"/>
-      <c r="C49" s="139"/>
-      <c r="D49" s="172"/>
-      <c r="E49" s="140"/>
+      <c r="A49" s="147"/>
+      <c r="B49" s="149"/>
+      <c r="C49" s="147"/>
+      <c r="D49" s="148"/>
+      <c r="E49" s="149"/>
       <c r="F49" s="49"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="139"/>
-      <c r="B50" s="140"/>
-      <c r="C50" s="139"/>
-      <c r="D50" s="172"/>
-      <c r="E50" s="140"/>
+      <c r="A50" s="147"/>
+      <c r="B50" s="149"/>
+      <c r="C50" s="147"/>
+      <c r="D50" s="148"/>
+      <c r="E50" s="149"/>
       <c r="F50" s="49"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="139"/>
-      <c r="B51" s="140"/>
-      <c r="C51" s="139"/>
-      <c r="D51" s="172"/>
-      <c r="E51" s="140"/>
+      <c r="A51" s="147"/>
+      <c r="B51" s="149"/>
+      <c r="C51" s="147"/>
+      <c r="D51" s="148"/>
+      <c r="E51" s="149"/>
       <c r="F51" s="49"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="139"/>
-      <c r="B52" s="140"/>
-      <c r="C52" s="139"/>
-      <c r="D52" s="172"/>
-      <c r="E52" s="140"/>
+      <c r="A52" s="147"/>
+      <c r="B52" s="149"/>
+      <c r="C52" s="147"/>
+      <c r="D52" s="148"/>
+      <c r="E52" s="149"/>
       <c r="F52" s="49"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="139"/>
-      <c r="B53" s="140"/>
-      <c r="C53" s="139"/>
-      <c r="D53" s="172"/>
-      <c r="E53" s="140"/>
+      <c r="A53" s="147"/>
+      <c r="B53" s="149"/>
+      <c r="C53" s="147"/>
+      <c r="D53" s="148"/>
+      <c r="E53" s="149"/>
       <c r="F53" s="49"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="139"/>
-      <c r="B54" s="140"/>
-      <c r="C54" s="139"/>
-      <c r="D54" s="172"/>
-      <c r="E54" s="140"/>
+      <c r="A54" s="147"/>
+      <c r="B54" s="149"/>
+      <c r="C54" s="147"/>
+      <c r="D54" s="148"/>
+      <c r="E54" s="149"/>
       <c r="F54" s="49"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="139"/>
-      <c r="B55" s="140"/>
-      <c r="C55" s="139"/>
-      <c r="D55" s="172"/>
-      <c r="E55" s="140"/>
+      <c r="A55" s="147"/>
+      <c r="B55" s="149"/>
+      <c r="C55" s="147"/>
+      <c r="D55" s="148"/>
+      <c r="E55" s="149"/>
       <c r="F55" s="49"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="139"/>
-      <c r="B56" s="140"/>
-      <c r="C56" s="139"/>
-      <c r="D56" s="172"/>
-      <c r="E56" s="140"/>
+      <c r="A56" s="147"/>
+      <c r="B56" s="149"/>
+      <c r="C56" s="147"/>
+      <c r="D56" s="148"/>
+      <c r="E56" s="149"/>
       <c r="F56" s="49"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="139"/>
-      <c r="B57" s="140"/>
-      <c r="C57" s="139"/>
-      <c r="D57" s="172"/>
-      <c r="E57" s="140"/>
+      <c r="A57" s="147"/>
+      <c r="B57" s="149"/>
+      <c r="C57" s="147"/>
+      <c r="D57" s="148"/>
+      <c r="E57" s="149"/>
       <c r="F57" s="49"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="139"/>
-      <c r="B58" s="140"/>
-      <c r="C58" s="139"/>
-      <c r="D58" s="172"/>
-      <c r="E58" s="140"/>
+      <c r="A58" s="147"/>
+      <c r="B58" s="149"/>
+      <c r="C58" s="147"/>
+      <c r="D58" s="148"/>
+      <c r="E58" s="149"/>
       <c r="F58" s="49"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="139"/>
-      <c r="B59" s="140"/>
-      <c r="C59" s="139"/>
-      <c r="D59" s="172"/>
-      <c r="E59" s="140"/>
+      <c r="A59" s="147"/>
+      <c r="B59" s="149"/>
+      <c r="C59" s="147"/>
+      <c r="D59" s="148"/>
+      <c r="E59" s="149"/>
       <c r="F59" s="49"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="139"/>
-      <c r="B60" s="140"/>
-      <c r="C60" s="139"/>
-      <c r="D60" s="172"/>
-      <c r="E60" s="140"/>
+      <c r="A60" s="147"/>
+      <c r="B60" s="149"/>
+      <c r="C60" s="147"/>
+      <c r="D60" s="148"/>
+      <c r="E60" s="149"/>
       <c r="F60" s="49"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="139"/>
-      <c r="B61" s="140"/>
-      <c r="C61" s="139"/>
-      <c r="D61" s="172"/>
-      <c r="E61" s="140"/>
+      <c r="A61" s="147"/>
+      <c r="B61" s="149"/>
+      <c r="C61" s="147"/>
+      <c r="D61" s="148"/>
+      <c r="E61" s="149"/>
       <c r="F61" s="49"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="139"/>
-      <c r="B62" s="140"/>
-      <c r="C62" s="139"/>
-      <c r="D62" s="172"/>
-      <c r="E62" s="140"/>
+      <c r="A62" s="147"/>
+      <c r="B62" s="149"/>
+      <c r="C62" s="147"/>
+      <c r="D62" s="148"/>
+      <c r="E62" s="149"/>
       <c r="F62" s="49"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="139"/>
-      <c r="B63" s="140"/>
-      <c r="C63" s="139"/>
-      <c r="D63" s="172"/>
-      <c r="E63" s="140"/>
+      <c r="A63" s="147"/>
+      <c r="B63" s="149"/>
+      <c r="C63" s="147"/>
+      <c r="D63" s="148"/>
+      <c r="E63" s="149"/>
       <c r="F63" s="49"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="139"/>
-      <c r="B64" s="140"/>
-      <c r="C64" s="139"/>
-      <c r="D64" s="172"/>
-      <c r="E64" s="140"/>
+      <c r="A64" s="147"/>
+      <c r="B64" s="149"/>
+      <c r="C64" s="147"/>
+      <c r="D64" s="148"/>
+      <c r="E64" s="149"/>
       <c r="F64" s="49"/>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="139"/>
-      <c r="B65" s="140"/>
-      <c r="C65" s="139"/>
-      <c r="D65" s="172"/>
-      <c r="E65" s="140"/>
+      <c r="A65" s="147"/>
+      <c r="B65" s="149"/>
+      <c r="C65" s="147"/>
+      <c r="D65" s="148"/>
+      <c r="E65" s="149"/>
       <c r="F65" s="49"/>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="139"/>
-      <c r="B66" s="140"/>
-      <c r="C66" s="139"/>
-      <c r="D66" s="172"/>
-      <c r="E66" s="140"/>
+      <c r="A66" s="147"/>
+      <c r="B66" s="149"/>
+      <c r="C66" s="147"/>
+      <c r="D66" s="148"/>
+      <c r="E66" s="149"/>
       <c r="F66" s="49"/>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="139"/>
-      <c r="B67" s="140"/>
-      <c r="C67" s="139"/>
-      <c r="D67" s="172"/>
-      <c r="E67" s="140"/>
+      <c r="A67" s="147"/>
+      <c r="B67" s="149"/>
+      <c r="C67" s="147"/>
+      <c r="D67" s="148"/>
+      <c r="E67" s="149"/>
       <c r="F67" s="49"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="139"/>
-      <c r="B68" s="140"/>
-      <c r="C68" s="139"/>
-      <c r="D68" s="172"/>
-      <c r="E68" s="140"/>
+      <c r="A68" s="147"/>
+      <c r="B68" s="149"/>
+      <c r="C68" s="147"/>
+      <c r="D68" s="148"/>
+      <c r="E68" s="149"/>
       <c r="F68" s="49"/>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="139"/>
-      <c r="B69" s="140"/>
-      <c r="C69" s="139"/>
-      <c r="D69" s="172"/>
-      <c r="E69" s="140"/>
+      <c r="A69" s="147"/>
+      <c r="B69" s="149"/>
+      <c r="C69" s="147"/>
+      <c r="D69" s="148"/>
+      <c r="E69" s="149"/>
       <c r="F69" s="49"/>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="166"/>
-      <c r="B70" s="167"/>
-      <c r="C70" s="166"/>
-      <c r="D70" s="173"/>
-      <c r="E70" s="167"/>
+      <c r="A70" s="150"/>
+      <c r="B70" s="152"/>
+      <c r="C70" s="150"/>
+      <c r="D70" s="151"/>
+      <c r="E70" s="152"/>
       <c r="F70" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="95">
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A38:G38"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="C69:E69"/>
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="C59:E59"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D13:E13"/>
@@ -5227,80 +5297,11 @@
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="D16:E16"/>
-    <mergeCell ref="C69:E69"/>
-    <mergeCell ref="C70:E70"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="A38:G38"/>
-    <mergeCell ref="A26:G26"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
@@ -5431,7 +5432,7 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="52" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D7" s="127"/>
       <c r="E7" s="54"/>
@@ -5460,7 +5461,7 @@
       <c r="G8" s="28"/>
       <c r="H8" s="28"/>
       <c r="I8" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M8" s="28"/>
       <c r="N8" s="28"/>
@@ -5542,7 +5543,7 @@
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="52" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D14" s="35"/>
       <c r="E14" s="54"/>
@@ -5555,15 +5556,15 @@
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="122" t="s">
+        <v>173</v>
+      </c>
+      <c r="B15" s="122"/>
+      <c r="C15" s="141" t="s">
         <v>174</v>
       </c>
-      <c r="B15" s="122"/>
-      <c r="C15" s="165" t="s">
+      <c r="D15" s="141"/>
+      <c r="E15" s="95" t="s">
         <v>175</v>
-      </c>
-      <c r="D15" s="165"/>
-      <c r="E15" s="95" t="s">
-        <v>176</v>
       </c>
       <c r="G15" s="54"/>
       <c r="I15"/>
@@ -5573,15 +5574,15 @@
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="122" t="s">
+        <v>225</v>
+      </c>
+      <c r="B16" s="122"/>
+      <c r="C16" s="142" t="s">
+        <v>229</v>
+      </c>
+      <c r="D16" s="141"/>
+      <c r="E16" s="55" t="s">
         <v>226</v>
-      </c>
-      <c r="B16" s="122"/>
-      <c r="C16" s="164" t="s">
-        <v>230</v>
-      </c>
-      <c r="D16" s="165"/>
-      <c r="E16" s="55" t="s">
-        <v>227</v>
       </c>
       <c r="F16" s="54"/>
       <c r="G16" s="54"/>
@@ -5596,13 +5597,13 @@
     </row>
     <row r="17" spans="1:22">
       <c r="A17" s="122" t="s">
+        <v>176</v>
+      </c>
+      <c r="B17" s="122"/>
+      <c r="C17" s="141" t="s">
         <v>177</v>
       </c>
-      <c r="B17" s="122"/>
-      <c r="C17" s="165" t="s">
-        <v>178</v>
-      </c>
-      <c r="D17" s="165"/>
+      <c r="D17" s="141"/>
       <c r="E17" s="55"/>
       <c r="F17" s="55"/>
       <c r="G17" s="54"/>
@@ -5611,13 +5612,13 @@
     </row>
     <row r="18" spans="1:22">
       <c r="A18" s="122" t="s">
+        <v>227</v>
+      </c>
+      <c r="B18" s="122"/>
+      <c r="C18" s="142"/>
+      <c r="D18" s="141"/>
+      <c r="E18" s="55" t="s">
         <v>228</v>
-      </c>
-      <c r="B18" s="122"/>
-      <c r="C18" s="164"/>
-      <c r="D18" s="165"/>
-      <c r="E18" s="55" t="s">
-        <v>229</v>
       </c>
       <c r="F18" s="54"/>
       <c r="G18" s="54"/>
@@ -5632,14 +5633,14 @@
     </row>
     <row r="19" spans="1:22">
       <c r="A19" s="123" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B19" s="124"/>
       <c r="C19" s="100" t="s">
         <v>141</v>
       </c>
       <c r="D19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F19"/>
       <c r="G19"/>
@@ -5665,15 +5666,15 @@
       <c r="L20"/>
     </row>
     <row r="21" spans="1:22">
-      <c r="A21" s="157" t="s">
-        <v>192</v>
-      </c>
-      <c r="B21" s="157"/>
-      <c r="C21" s="157"/>
-      <c r="D21" s="157"/>
-      <c r="E21" s="157"/>
-      <c r="F21" s="157"/>
-      <c r="G21" s="157"/>
+      <c r="A21" s="179" t="s">
+        <v>191</v>
+      </c>
+      <c r="B21" s="179"/>
+      <c r="C21" s="179"/>
+      <c r="D21" s="179"/>
+      <c r="E21" s="179"/>
+      <c r="F21" s="179"/>
+      <c r="G21" s="179"/>
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21"/>
@@ -5683,14 +5684,14 @@
       <c r="A22" s="115" t="s">
         <v>69</v>
       </c>
-      <c r="B22" s="151" t="s">
-        <v>183</v>
-      </c>
-      <c r="C22" s="152"/>
-      <c r="D22" s="152"/>
-      <c r="E22" s="152"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="153"/>
+      <c r="B22" s="173" t="s">
+        <v>182</v>
+      </c>
+      <c r="C22" s="174"/>
+      <c r="D22" s="174"/>
+      <c r="E22" s="174"/>
+      <c r="F22" s="174"/>
+      <c r="G22" s="175"/>
       <c r="H22" s="105"/>
       <c r="I22"/>
       <c r="J22"/>
@@ -5708,12 +5709,12 @@
     </row>
     <row r="23" spans="1:22">
       <c r="A23" s="116"/>
-      <c r="B23" s="168"/>
-      <c r="C23" s="168"/>
-      <c r="D23" s="168"/>
-      <c r="E23" s="168"/>
-      <c r="F23" s="168"/>
-      <c r="G23" s="168"/>
+      <c r="B23" s="157"/>
+      <c r="C23" s="157"/>
+      <c r="D23" s="157"/>
+      <c r="E23" s="157"/>
+      <c r="F23" s="157"/>
+      <c r="G23" s="157"/>
       <c r="H23" s="112"/>
       <c r="I23"/>
       <c r="J23"/>
@@ -5731,12 +5732,12 @@
     </row>
     <row r="24" spans="1:22">
       <c r="A24" s="117"/>
-      <c r="B24" s="169"/>
-      <c r="C24" s="169"/>
-      <c r="D24" s="169"/>
-      <c r="E24" s="169"/>
-      <c r="F24" s="169"/>
-      <c r="G24" s="169"/>
+      <c r="B24" s="159"/>
+      <c r="C24" s="159"/>
+      <c r="D24" s="159"/>
+      <c r="E24" s="159"/>
+      <c r="F24" s="159"/>
+      <c r="G24" s="159"/>
       <c r="H24" s="112"/>
       <c r="I24"/>
       <c r="J24"/>
@@ -5754,12 +5755,12 @@
     </row>
     <row r="25" spans="1:22">
       <c r="A25" s="118"/>
-      <c r="B25" s="170"/>
-      <c r="C25" s="170"/>
-      <c r="D25" s="170"/>
-      <c r="E25" s="170"/>
-      <c r="F25" s="170"/>
-      <c r="G25" s="170"/>
+      <c r="B25" s="161"/>
+      <c r="C25" s="161"/>
+      <c r="D25" s="161"/>
+      <c r="E25" s="161"/>
+      <c r="F25" s="161"/>
+      <c r="G25" s="161"/>
       <c r="H25" s="112"/>
       <c r="M25" s="112"/>
       <c r="N25" s="112"/>
@@ -5779,15 +5780,15 @@
       <c r="L26" s="105"/>
     </row>
     <row r="27" spans="1:22">
-      <c r="A27" s="154" t="s">
-        <v>193</v>
-      </c>
-      <c r="B27" s="155"/>
-      <c r="C27" s="155"/>
-      <c r="D27" s="155"/>
-      <c r="E27" s="155"/>
-      <c r="F27" s="155"/>
-      <c r="G27" s="156"/>
+      <c r="A27" s="176" t="s">
+        <v>192</v>
+      </c>
+      <c r="B27" s="177"/>
+      <c r="C27" s="177"/>
+      <c r="D27" s="177"/>
+      <c r="E27" s="177"/>
+      <c r="F27" s="177"/>
+      <c r="G27" s="178"/>
       <c r="I27" s="105"/>
       <c r="J27" s="105"/>
       <c r="K27" s="105"/>
@@ -5797,14 +5798,14 @@
       <c r="A28" s="115" t="s">
         <v>69</v>
       </c>
-      <c r="B28" s="174" t="s">
-        <v>184</v>
-      </c>
-      <c r="C28" s="174"/>
-      <c r="D28" s="174"/>
-      <c r="E28" s="174"/>
-      <c r="F28" s="174"/>
-      <c r="G28" s="174"/>
+      <c r="B28" s="153" t="s">
+        <v>183</v>
+      </c>
+      <c r="C28" s="153"/>
+      <c r="D28" s="153"/>
+      <c r="E28" s="153"/>
+      <c r="F28" s="153"/>
+      <c r="G28" s="153"/>
       <c r="H28" s="105"/>
       <c r="I28" s="105"/>
       <c r="J28" s="105"/>
@@ -5824,14 +5825,14 @@
       <c r="A29" s="116">
         <v>1</v>
       </c>
-      <c r="B29" s="175" t="s">
-        <v>225</v>
-      </c>
-      <c r="C29" s="175"/>
-      <c r="D29" s="175"/>
-      <c r="E29" s="175"/>
-      <c r="F29" s="175"/>
-      <c r="G29" s="175"/>
+      <c r="B29" s="154" t="s">
+        <v>224</v>
+      </c>
+      <c r="C29" s="154"/>
+      <c r="D29" s="154"/>
+      <c r="E29" s="154"/>
+      <c r="F29" s="154"/>
+      <c r="G29" s="154"/>
       <c r="H29" s="112"/>
       <c r="I29"/>
       <c r="J29"/>
@@ -5849,12 +5850,12 @@
     </row>
     <row r="30" spans="1:22">
       <c r="A30" s="117"/>
-      <c r="B30" s="176"/>
-      <c r="C30" s="176"/>
-      <c r="D30" s="176"/>
-      <c r="E30" s="176"/>
-      <c r="F30" s="176"/>
-      <c r="G30" s="176"/>
+      <c r="B30" s="155"/>
+      <c r="C30" s="155"/>
+      <c r="D30" s="155"/>
+      <c r="E30" s="155"/>
+      <c r="F30" s="155"/>
+      <c r="G30" s="155"/>
       <c r="H30" s="112"/>
       <c r="M30" s="112"/>
       <c r="N30" s="112"/>
@@ -5868,12 +5869,12 @@
     </row>
     <row r="31" spans="1:22">
       <c r="A31" s="118"/>
-      <c r="B31" s="177"/>
-      <c r="C31" s="177"/>
-      <c r="D31" s="177"/>
-      <c r="E31" s="177"/>
-      <c r="F31" s="177"/>
-      <c r="G31" s="177"/>
+      <c r="B31" s="156"/>
+      <c r="C31" s="156"/>
+      <c r="D31" s="156"/>
+      <c r="E31" s="156"/>
+      <c r="F31" s="156"/>
+      <c r="G31" s="156"/>
       <c r="H31" s="112"/>
       <c r="I31" s="105"/>
       <c r="J31" s="105"/>
@@ -5912,15 +5913,15 @@
       <c r="T32"/>
     </row>
     <row r="33" spans="1:26">
-      <c r="A33" s="154" t="s">
-        <v>194</v>
-      </c>
-      <c r="B33" s="155"/>
-      <c r="C33" s="155"/>
-      <c r="D33" s="155"/>
-      <c r="E33" s="155"/>
-      <c r="F33" s="155"/>
-      <c r="G33" s="156"/>
+      <c r="A33" s="176" t="s">
+        <v>193</v>
+      </c>
+      <c r="B33" s="177"/>
+      <c r="C33" s="177"/>
+      <c r="D33" s="177"/>
+      <c r="E33" s="177"/>
+      <c r="F33" s="177"/>
+      <c r="G33" s="178"/>
       <c r="I33" s="112"/>
       <c r="J33" s="112"/>
       <c r="K33" s="112"/>
@@ -5930,14 +5931,14 @@
       <c r="A34" s="115" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="174" t="s">
-        <v>186</v>
-      </c>
-      <c r="C34" s="174"/>
-      <c r="D34" s="174"/>
-      <c r="E34" s="174"/>
-      <c r="F34" s="174"/>
-      <c r="G34" s="174"/>
+      <c r="B34" s="153" t="s">
+        <v>185</v>
+      </c>
+      <c r="C34" s="153"/>
+      <c r="D34" s="153"/>
+      <c r="E34" s="153"/>
+      <c r="F34" s="153"/>
+      <c r="G34" s="153"/>
       <c r="H34" s="105"/>
       <c r="I34" s="112"/>
       <c r="J34" s="112"/>
@@ -5955,12 +5956,12 @@
     </row>
     <row r="35" spans="1:26">
       <c r="A35" s="116"/>
-      <c r="B35" s="168"/>
-      <c r="C35" s="168"/>
-      <c r="D35" s="168"/>
-      <c r="E35" s="168"/>
-      <c r="F35" s="168"/>
-      <c r="G35" s="178"/>
+      <c r="B35" s="157"/>
+      <c r="C35" s="157"/>
+      <c r="D35" s="157"/>
+      <c r="E35" s="157"/>
+      <c r="F35" s="157"/>
+      <c r="G35" s="158"/>
       <c r="H35" s="112"/>
       <c r="I35"/>
       <c r="J35"/>
@@ -5978,12 +5979,12 @@
     </row>
     <row r="36" spans="1:26">
       <c r="A36" s="117"/>
-      <c r="B36" s="169"/>
-      <c r="C36" s="169"/>
-      <c r="D36" s="169"/>
-      <c r="E36" s="169"/>
-      <c r="F36" s="169"/>
-      <c r="G36" s="179"/>
+      <c r="B36" s="159"/>
+      <c r="C36" s="159"/>
+      <c r="D36" s="159"/>
+      <c r="E36" s="159"/>
+      <c r="F36" s="159"/>
+      <c r="G36" s="160"/>
       <c r="H36" s="112"/>
       <c r="M36" s="112"/>
       <c r="N36" s="112"/>
@@ -5997,12 +5998,12 @@
     </row>
     <row r="37" spans="1:26">
       <c r="A37" s="118"/>
-      <c r="B37" s="170"/>
-      <c r="C37" s="170"/>
-      <c r="D37" s="170"/>
-      <c r="E37" s="170"/>
-      <c r="F37" s="170"/>
-      <c r="G37" s="180"/>
+      <c r="B37" s="161"/>
+      <c r="C37" s="161"/>
+      <c r="D37" s="161"/>
+      <c r="E37" s="161"/>
+      <c r="F37" s="161"/>
+      <c r="G37" s="162"/>
       <c r="H37" s="112"/>
       <c r="M37" s="112"/>
       <c r="N37" s="112"/>
@@ -6066,82 +6067,82 @@
       <c r="Z40" s="39"/>
     </row>
     <row r="41" spans="1:26">
-      <c r="A41" s="190" t="s">
+      <c r="A41" s="186" t="s">
         <v>69</v>
       </c>
-      <c r="B41" s="190" t="s">
+      <c r="B41" s="186" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="192" t="s">
+      <c r="C41" s="188" t="s">
         <v>1</v>
       </c>
-      <c r="D41" s="190" t="s">
+      <c r="D41" s="186" t="s">
         <v>2</v>
       </c>
-      <c r="E41" s="193" t="s">
+      <c r="E41" s="189" t="s">
         <v>161</v>
       </c>
-      <c r="F41" s="193" t="s">
-        <v>177</v>
-      </c>
-      <c r="G41" s="190" t="s">
+      <c r="F41" s="189" t="s">
+        <v>176</v>
+      </c>
+      <c r="G41" s="186" t="s">
         <v>13</v>
       </c>
-      <c r="H41" s="190" t="s">
+      <c r="H41" s="186" t="s">
         <v>116</v>
       </c>
-      <c r="I41" s="197" t="s">
+      <c r="I41" s="193" t="s">
+        <v>199</v>
+      </c>
+      <c r="J41" s="193" t="s">
         <v>200</v>
       </c>
-      <c r="J41" s="197" t="s">
+      <c r="K41" s="193" t="s">
         <v>201</v>
       </c>
-      <c r="K41" s="197" t="s">
+      <c r="L41" s="196" t="s">
         <v>202</v>
       </c>
-      <c r="L41" s="186" t="s">
-        <v>203</v>
-      </c>
-      <c r="M41" s="190" t="s">
-        <v>195</v>
-      </c>
-      <c r="N41" s="190" t="s">
-        <v>209</v>
-      </c>
-      <c r="O41" s="192" t="s">
+      <c r="M41" s="186" t="s">
+        <v>194</v>
+      </c>
+      <c r="N41" s="186" t="s">
         <v>208</v>
       </c>
-      <c r="P41" s="188" t="s">
+      <c r="O41" s="188" t="s">
+        <v>207</v>
+      </c>
+      <c r="P41" s="194" t="s">
         <v>71</v>
       </c>
-      <c r="Q41" s="189"/>
-      <c r="R41" s="188" t="s">
+      <c r="Q41" s="195"/>
+      <c r="R41" s="194" t="s">
         <v>17</v>
       </c>
-      <c r="S41" s="189"/>
+      <c r="S41" s="195"/>
       <c r="T41" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="U41" s="190" t="s">
+      <c r="U41" s="186" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:26">
-      <c r="A42" s="191"/>
-      <c r="B42" s="191"/>
-      <c r="C42" s="191"/>
-      <c r="D42" s="191"/>
-      <c r="E42" s="194"/>
-      <c r="F42" s="195"/>
-      <c r="G42" s="191"/>
-      <c r="H42" s="191"/>
-      <c r="I42" s="197"/>
-      <c r="J42" s="197"/>
-      <c r="K42" s="197"/>
-      <c r="L42" s="187"/>
-      <c r="M42" s="196"/>
-      <c r="N42" s="196"/>
-      <c r="O42" s="196"/>
+      <c r="A42" s="187"/>
+      <c r="B42" s="187"/>
+      <c r="C42" s="187"/>
+      <c r="D42" s="187"/>
+      <c r="E42" s="190"/>
+      <c r="F42" s="191"/>
+      <c r="G42" s="187"/>
+      <c r="H42" s="187"/>
+      <c r="I42" s="193"/>
+      <c r="J42" s="193"/>
+      <c r="K42" s="193"/>
+      <c r="L42" s="197"/>
+      <c r="M42" s="192"/>
+      <c r="N42" s="192"/>
+      <c r="O42" s="192"/>
       <c r="P42" s="29" t="s">
         <v>75</v>
       </c>
@@ -6157,7 +6158,7 @@
       <c r="T42" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="U42" s="191"/>
+      <c r="U42" s="187"/>
     </row>
     <row r="43" spans="1:26" ht="30">
       <c r="A43" s="7">
@@ -6179,11 +6180,11 @@
       </c>
       <c r="H43" s="24"/>
       <c r="I43" s="133" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J43" s="133"/>
       <c r="K43" s="138" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L43" s="133"/>
       <c r="M43" s="24" t="s">
@@ -6227,11 +6228,11 @@
       </c>
       <c r="H44" s="25"/>
       <c r="I44" s="135" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J44" s="135"/>
       <c r="K44" s="136" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L44" s="135"/>
       <c r="M44" s="25" t="s">
@@ -6343,7 +6344,7 @@
         <v>111</v>
       </c>
       <c r="E47" s="26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F47" s="26"/>
       <c r="G47" s="86"/>
@@ -6367,7 +6368,7 @@
       <c r="S47" s="32"/>
       <c r="T47" s="32"/>
       <c r="U47" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="48" spans="1:26">
@@ -6416,7 +6417,7 @@
       </c>
       <c r="C49" s="13"/>
       <c r="D49" s="26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E49" s="26"/>
       <c r="F49" s="26"/>
@@ -6835,6 +6836,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="L41:L42"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B35:G35"/>
     <mergeCell ref="U41:U42"/>
     <mergeCell ref="A41:A42"/>
     <mergeCell ref="B41:B42"/>
@@ -6851,27 +6873,6 @@
     <mergeCell ref="M41:M42"/>
     <mergeCell ref="R41:S41"/>
     <mergeCell ref="N41:N42"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="L41:L42"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -6928,7 +6929,7 @@
   </sheetPr>
   <dimension ref="A1:V63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
@@ -7021,7 +7022,7 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="52" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D7" s="35"/>
       <c r="E7" s="54"/>
@@ -7048,7 +7049,7 @@
       <c r="F8" s="54"/>
       <c r="H8" s="28"/>
       <c r="I8" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M8" s="28"/>
       <c r="N8" s="28"/>
@@ -7090,7 +7091,7 @@
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="52" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D11" s="35"/>
       <c r="E11" s="54"/>
@@ -7101,15 +7102,15 @@
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="122" t="s">
+        <v>173</v>
+      </c>
+      <c r="B12" s="122"/>
+      <c r="C12" s="141" t="s">
         <v>174</v>
       </c>
-      <c r="B12" s="122"/>
-      <c r="C12" s="165" t="s">
+      <c r="D12" s="141"/>
+      <c r="E12" s="95" t="s">
         <v>175</v>
-      </c>
-      <c r="D12" s="165"/>
-      <c r="E12" s="95" t="s">
-        <v>176</v>
       </c>
       <c r="F12" s="95"/>
       <c r="H12" s="54"/>
@@ -7119,15 +7120,15 @@
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="122" t="s">
+        <v>225</v>
+      </c>
+      <c r="B13" s="122"/>
+      <c r="C13" s="142" t="s">
+        <v>229</v>
+      </c>
+      <c r="D13" s="141"/>
+      <c r="E13" s="55" t="s">
         <v>226</v>
-      </c>
-      <c r="B13" s="122"/>
-      <c r="C13" s="164" t="s">
-        <v>230</v>
-      </c>
-      <c r="D13" s="165"/>
-      <c r="E13" s="55" t="s">
-        <v>227</v>
       </c>
       <c r="F13" s="54"/>
       <c r="G13" s="54"/>
@@ -7142,13 +7143,13 @@
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="122" t="s">
+        <v>176</v>
+      </c>
+      <c r="B14" s="122"/>
+      <c r="C14" s="141" t="s">
         <v>177</v>
       </c>
-      <c r="B14" s="122"/>
-      <c r="C14" s="165" t="s">
-        <v>178</v>
-      </c>
-      <c r="D14" s="165"/>
+      <c r="D14" s="141"/>
       <c r="E14" s="55"/>
       <c r="F14" s="55"/>
       <c r="G14" s="54"/>
@@ -7157,13 +7158,13 @@
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="122" t="s">
+        <v>227</v>
+      </c>
+      <c r="B15" s="122"/>
+      <c r="C15" s="142"/>
+      <c r="D15" s="141"/>
+      <c r="E15" s="55" t="s">
         <v>228</v>
-      </c>
-      <c r="B15" s="122"/>
-      <c r="C15" s="164"/>
-      <c r="D15" s="165"/>
-      <c r="E15" s="55" t="s">
-        <v>229</v>
       </c>
       <c r="F15" s="54"/>
       <c r="G15" s="54"/>
@@ -7178,14 +7179,14 @@
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="123" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B16" s="124"/>
       <c r="C16" s="100" t="s">
         <v>141</v>
       </c>
       <c r="D16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G16"/>
       <c r="H16"/>
@@ -7209,15 +7210,15 @@
       <c r="L17"/>
     </row>
     <row r="18" spans="1:22">
-      <c r="A18" s="157" t="s">
-        <v>192</v>
-      </c>
-      <c r="B18" s="157"/>
-      <c r="C18" s="157"/>
-      <c r="D18" s="157"/>
-      <c r="E18" s="157"/>
-      <c r="F18" s="157"/>
-      <c r="G18" s="157"/>
+      <c r="A18" s="179" t="s">
+        <v>191</v>
+      </c>
+      <c r="B18" s="179"/>
+      <c r="C18" s="179"/>
+      <c r="D18" s="179"/>
+      <c r="E18" s="179"/>
+      <c r="F18" s="179"/>
+      <c r="G18" s="179"/>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
@@ -7228,14 +7229,14 @@
       <c r="A19" s="115" t="s">
         <v>69</v>
       </c>
-      <c r="B19" s="151" t="s">
-        <v>183</v>
-      </c>
-      <c r="C19" s="152"/>
-      <c r="D19" s="152"/>
-      <c r="E19" s="152"/>
-      <c r="F19" s="152"/>
-      <c r="G19" s="153"/>
+      <c r="B19" s="173" t="s">
+        <v>182</v>
+      </c>
+      <c r="C19" s="174"/>
+      <c r="D19" s="174"/>
+      <c r="E19" s="174"/>
+      <c r="F19" s="174"/>
+      <c r="G19" s="175"/>
       <c r="H19" s="105"/>
       <c r="I19"/>
       <c r="J19"/>
@@ -7251,12 +7252,12 @@
     </row>
     <row r="20" spans="1:22">
       <c r="A20" s="116"/>
-      <c r="B20" s="168"/>
-      <c r="C20" s="168"/>
-      <c r="D20" s="168"/>
-      <c r="E20" s="168"/>
-      <c r="F20" s="168"/>
-      <c r="G20" s="168"/>
+      <c r="B20" s="157"/>
+      <c r="C20" s="157"/>
+      <c r="D20" s="157"/>
+      <c r="E20" s="157"/>
+      <c r="F20" s="157"/>
+      <c r="G20" s="157"/>
       <c r="H20" s="112"/>
       <c r="I20"/>
       <c r="J20"/>
@@ -7271,12 +7272,12 @@
     </row>
     <row r="21" spans="1:22">
       <c r="A21" s="117"/>
-      <c r="B21" s="169"/>
-      <c r="C21" s="169"/>
-      <c r="D21" s="169"/>
-      <c r="E21" s="169"/>
-      <c r="F21" s="169"/>
-      <c r="G21" s="169"/>
+      <c r="B21" s="159"/>
+      <c r="C21" s="159"/>
+      <c r="D21" s="159"/>
+      <c r="E21" s="159"/>
+      <c r="F21" s="159"/>
+      <c r="G21" s="159"/>
       <c r="H21" s="112"/>
       <c r="I21"/>
       <c r="J21"/>
@@ -7291,12 +7292,12 @@
     </row>
     <row r="22" spans="1:22">
       <c r="A22" s="118"/>
-      <c r="B22" s="170"/>
-      <c r="C22" s="170"/>
-      <c r="D22" s="170"/>
-      <c r="E22" s="170"/>
-      <c r="F22" s="170"/>
-      <c r="G22" s="170"/>
+      <c r="B22" s="161"/>
+      <c r="C22" s="161"/>
+      <c r="D22" s="161"/>
+      <c r="E22" s="161"/>
+      <c r="F22" s="161"/>
+      <c r="G22" s="161"/>
       <c r="H22" s="112"/>
       <c r="I22"/>
       <c r="J22"/>
@@ -7323,15 +7324,15 @@
       <c r="O23" s="112"/>
     </row>
     <row r="24" spans="1:22">
-      <c r="A24" s="154" t="s">
-        <v>193</v>
-      </c>
-      <c r="B24" s="155"/>
-      <c r="C24" s="155"/>
-      <c r="D24" s="155"/>
-      <c r="E24" s="155"/>
-      <c r="F24" s="155"/>
-      <c r="G24" s="156"/>
+      <c r="A24" s="176" t="s">
+        <v>192</v>
+      </c>
+      <c r="B24" s="177"/>
+      <c r="C24" s="177"/>
+      <c r="D24" s="177"/>
+      <c r="E24" s="177"/>
+      <c r="F24" s="177"/>
+      <c r="G24" s="178"/>
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24"/>
@@ -7344,14 +7345,14 @@
       <c r="A25" s="115" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="174" t="s">
-        <v>184</v>
-      </c>
-      <c r="C25" s="174"/>
-      <c r="D25" s="174"/>
-      <c r="E25" s="174"/>
-      <c r="F25" s="174"/>
-      <c r="G25" s="174"/>
+      <c r="B25" s="153" t="s">
+        <v>183</v>
+      </c>
+      <c r="C25" s="153"/>
+      <c r="D25" s="153"/>
+      <c r="E25" s="153"/>
+      <c r="F25" s="153"/>
+      <c r="G25" s="153"/>
       <c r="H25" s="105"/>
       <c r="M25" s="112"/>
       <c r="N25" s="112"/>
@@ -7367,14 +7368,14 @@
       <c r="A26" s="116">
         <v>1</v>
       </c>
-      <c r="B26" s="175" t="s">
-        <v>185</v>
-      </c>
-      <c r="C26" s="175"/>
-      <c r="D26" s="175"/>
-      <c r="E26" s="175"/>
-      <c r="F26" s="175"/>
-      <c r="G26" s="175"/>
+      <c r="B26" s="154" t="s">
+        <v>184</v>
+      </c>
+      <c r="C26" s="154"/>
+      <c r="D26" s="154"/>
+      <c r="E26" s="154"/>
+      <c r="F26" s="154"/>
+      <c r="G26" s="154"/>
       <c r="H26" s="112"/>
       <c r="I26" s="105"/>
       <c r="J26" s="105"/>
@@ -7389,12 +7390,12 @@
     </row>
     <row r="27" spans="1:22">
       <c r="A27" s="117"/>
-      <c r="B27" s="176"/>
-      <c r="C27" s="176"/>
-      <c r="D27" s="176"/>
-      <c r="E27" s="176"/>
-      <c r="F27" s="176"/>
-      <c r="G27" s="176"/>
+      <c r="B27" s="155"/>
+      <c r="C27" s="155"/>
+      <c r="D27" s="155"/>
+      <c r="E27" s="155"/>
+      <c r="F27" s="155"/>
+      <c r="G27" s="155"/>
       <c r="H27" s="112"/>
       <c r="I27" s="105"/>
       <c r="J27" s="105"/>
@@ -7409,12 +7410,12 @@
     </row>
     <row r="28" spans="1:22">
       <c r="A28" s="118"/>
-      <c r="B28" s="177"/>
-      <c r="C28" s="177"/>
-      <c r="D28" s="177"/>
-      <c r="E28" s="177"/>
-      <c r="F28" s="177"/>
-      <c r="G28" s="177"/>
+      <c r="B28" s="156"/>
+      <c r="C28" s="156"/>
+      <c r="D28" s="156"/>
+      <c r="E28" s="156"/>
+      <c r="F28" s="156"/>
+      <c r="G28" s="156"/>
       <c r="H28" s="112"/>
       <c r="I28" s="105"/>
       <c r="J28" s="105"/>
@@ -7453,15 +7454,15 @@
       <c r="T29"/>
     </row>
     <row r="30" spans="1:22">
-      <c r="A30" s="154" t="s">
-        <v>194</v>
-      </c>
-      <c r="B30" s="155"/>
-      <c r="C30" s="155"/>
-      <c r="D30" s="155"/>
-      <c r="E30" s="155"/>
-      <c r="F30" s="155"/>
-      <c r="G30" s="156"/>
+      <c r="A30" s="176" t="s">
+        <v>193</v>
+      </c>
+      <c r="B30" s="177"/>
+      <c r="C30" s="177"/>
+      <c r="D30" s="177"/>
+      <c r="E30" s="177"/>
+      <c r="F30" s="177"/>
+      <c r="G30" s="178"/>
       <c r="M30" s="112"/>
       <c r="N30" s="112"/>
       <c r="O30" s="112"/>
@@ -7470,14 +7471,14 @@
       <c r="A31" s="115" t="s">
         <v>69</v>
       </c>
-      <c r="B31" s="174" t="s">
-        <v>186</v>
-      </c>
-      <c r="C31" s="174"/>
-      <c r="D31" s="174"/>
-      <c r="E31" s="174"/>
-      <c r="F31" s="174"/>
-      <c r="G31" s="174"/>
+      <c r="B31" s="153" t="s">
+        <v>185</v>
+      </c>
+      <c r="C31" s="153"/>
+      <c r="D31" s="153"/>
+      <c r="E31" s="153"/>
+      <c r="F31" s="153"/>
+      <c r="G31" s="153"/>
       <c r="H31" s="105"/>
       <c r="I31" s="105"/>
       <c r="J31" s="105"/>
@@ -7495,12 +7496,12 @@
     </row>
     <row r="32" spans="1:22">
       <c r="A32" s="116"/>
-      <c r="B32" s="168"/>
-      <c r="C32" s="168"/>
-      <c r="D32" s="168"/>
-      <c r="E32" s="168"/>
-      <c r="F32" s="168"/>
-      <c r="G32" s="178"/>
+      <c r="B32" s="157"/>
+      <c r="C32" s="157"/>
+      <c r="D32" s="157"/>
+      <c r="E32" s="157"/>
+      <c r="F32" s="157"/>
+      <c r="G32" s="158"/>
       <c r="H32" s="112"/>
       <c r="I32" s="112"/>
       <c r="J32" s="112"/>
@@ -7518,12 +7519,12 @@
     </row>
     <row r="33" spans="1:22">
       <c r="A33" s="117"/>
-      <c r="B33" s="169"/>
-      <c r="C33" s="169"/>
-      <c r="D33" s="169"/>
-      <c r="E33" s="169"/>
-      <c r="F33" s="169"/>
-      <c r="G33" s="179"/>
+      <c r="B33" s="159"/>
+      <c r="C33" s="159"/>
+      <c r="D33" s="159"/>
+      <c r="E33" s="159"/>
+      <c r="F33" s="159"/>
+      <c r="G33" s="160"/>
       <c r="H33" s="112"/>
       <c r="I33" s="112"/>
       <c r="J33" s="112"/>
@@ -7538,12 +7539,12 @@
     </row>
     <row r="34" spans="1:22">
       <c r="A34" s="118"/>
-      <c r="B34" s="170"/>
-      <c r="C34" s="170"/>
-      <c r="D34" s="170"/>
-      <c r="E34" s="170"/>
-      <c r="F34" s="170"/>
-      <c r="G34" s="180"/>
+      <c r="B34" s="161"/>
+      <c r="C34" s="161"/>
+      <c r="D34" s="161"/>
+      <c r="E34" s="161"/>
+      <c r="F34" s="161"/>
+      <c r="G34" s="162"/>
       <c r="H34" s="112"/>
       <c r="I34" s="112"/>
       <c r="J34" s="112"/>
@@ -7613,84 +7614,84 @@
       <c r="U37" s="58"/>
     </row>
     <row r="38" spans="1:22" ht="30" customHeight="1">
-      <c r="A38" s="193" t="s">
+      <c r="A38" s="189" t="s">
         <v>118</v>
       </c>
-      <c r="B38" s="193" t="s">
+      <c r="B38" s="189" t="s">
         <v>119</v>
       </c>
       <c r="C38" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="D38" s="193" t="s">
+      <c r="D38" s="189" t="s">
         <v>101</v>
       </c>
-      <c r="E38" s="193" t="s">
+      <c r="E38" s="189" t="s">
         <v>161</v>
       </c>
-      <c r="F38" s="193" t="s">
-        <v>177</v>
-      </c>
-      <c r="G38" s="193" t="s">
+      <c r="F38" s="189" t="s">
+        <v>176</v>
+      </c>
+      <c r="G38" s="189" t="s">
         <v>140</v>
       </c>
-      <c r="H38" s="193" t="s">
+      <c r="H38" s="189" t="s">
         <v>139</v>
       </c>
-      <c r="I38" s="201" t="s">
+      <c r="I38" s="203" t="s">
+        <v>199</v>
+      </c>
+      <c r="J38" s="205" t="s">
         <v>200</v>
       </c>
-      <c r="J38" s="203" t="s">
+      <c r="K38" s="205" t="s">
         <v>201</v>
       </c>
-      <c r="K38" s="203" t="s">
+      <c r="L38" s="196" t="s">
         <v>202</v>
       </c>
-      <c r="L38" s="186" t="s">
-        <v>203</v>
-      </c>
-      <c r="M38" s="190" t="s">
-        <v>195</v>
-      </c>
-      <c r="N38" s="190" t="s">
-        <v>209</v>
-      </c>
-      <c r="O38" s="192" t="s">
+      <c r="M38" s="186" t="s">
+        <v>194</v>
+      </c>
+      <c r="N38" s="186" t="s">
         <v>208</v>
       </c>
-      <c r="P38" s="199" t="s">
+      <c r="O38" s="188" t="s">
+        <v>207</v>
+      </c>
+      <c r="P38" s="202" t="s">
         <v>122</v>
       </c>
       <c r="Q38" s="200"/>
-      <c r="R38" s="206" t="s">
+      <c r="R38" s="199" t="s">
         <v>123</v>
       </c>
       <c r="S38" s="200"/>
       <c r="T38" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="U38" s="193" t="s">
+      <c r="U38" s="189" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="39" spans="1:22" ht="15">
-      <c r="A39" s="198"/>
-      <c r="B39" s="198"/>
+      <c r="A39" s="201"/>
+      <c r="B39" s="201"/>
       <c r="C39" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="D39" s="198"/>
-      <c r="E39" s="195"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="198"/>
-      <c r="H39" s="198"/>
-      <c r="I39" s="202"/>
-      <c r="J39" s="204"/>
-      <c r="K39" s="204"/>
-      <c r="L39" s="187"/>
-      <c r="M39" s="196"/>
-      <c r="N39" s="196"/>
-      <c r="O39" s="205"/>
+      <c r="D39" s="201"/>
+      <c r="E39" s="191"/>
+      <c r="F39" s="191"/>
+      <c r="G39" s="201"/>
+      <c r="H39" s="201"/>
+      <c r="I39" s="204"/>
+      <c r="J39" s="206"/>
+      <c r="K39" s="206"/>
+      <c r="L39" s="197"/>
+      <c r="M39" s="192"/>
+      <c r="N39" s="192"/>
+      <c r="O39" s="198"/>
       <c r="P39" s="62" t="s">
         <v>126</v>
       </c>
@@ -7706,7 +7707,7 @@
       <c r="T39" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="U39" s="198"/>
+      <c r="U39" s="201"/>
     </row>
     <row r="40" spans="1:22">
       <c r="A40" s="64">
@@ -7728,11 +7729,11 @@
       </c>
       <c r="H40" s="67"/>
       <c r="I40" s="133" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J40" s="133"/>
       <c r="K40" s="134" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L40" s="133"/>
       <c r="M40" s="24" t="s">
@@ -7771,11 +7772,11 @@
       </c>
       <c r="H41" s="67"/>
       <c r="I41" s="135" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J41" s="135"/>
       <c r="K41" s="136" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L41" s="135"/>
       <c r="M41" s="25" t="s">
@@ -7878,7 +7879,7 @@
         <v>110</v>
       </c>
       <c r="E44" s="74" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F44" s="74"/>
       <c r="G44" s="91"/>
@@ -7947,7 +7948,7 @@
       </c>
       <c r="C46" s="73"/>
       <c r="D46" s="74" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E46" s="74"/>
       <c r="F46" s="74"/>
@@ -8366,12 +8367,19 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="O38:O39"/>
-    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="U38:U39"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="N38:N39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="K38:K39"/>
     <mergeCell ref="R38:S38"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C14:D14"/>
@@ -8388,20 +8396,13 @@
     <mergeCell ref="B26:G26"/>
     <mergeCell ref="L38:L39"/>
     <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="O38:O39"/>
+    <mergeCell ref="M38:M39"/>
     <mergeCell ref="B34:G34"/>
-    <mergeCell ref="U38:U39"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="N38:N39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="K38:K39"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -8830,13 +8831,13 @@
         <v>152</v>
       </c>
       <c r="E4" s="43" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F4" s="43" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G4" s="43" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:7">

--- a/meta/api/BlancoApiPostSample.xlsx
+++ b/meta/api/BlancoApiPostSample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGenerator/meta/api/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3FC2B0A-0F68-0149-8B59-0CCFA1F64DF0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9F4277-C9CD-5A4F-B45E-3FAF20CCA75A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="680" windowWidth="21420" windowHeight="17540" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="180" yWindow="680" windowWidth="21420" windowHeight="17540" tabRatio="860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="process" sheetId="19" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="236">
   <si>
     <t>項目名</t>
     <rPh sb="0" eb="3">
@@ -2402,6 +2402,28 @@
   </si>
   <si>
     <t>blancoApiSample</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>com.fasterxml.jackson.annotation.JsonProperty</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>電文定義(Java)・インポート</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">デンブンショリテイギ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アノテーション(Java)</t>
+    <rPh sb="0" eb="2">
+      <t>ソウショウガタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>@JsonProperty("field1")</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -3645,146 +3667,158 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="60" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3808,44 +3842,32 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -4393,7 +4415,7 @@
   </sheetPr>
   <dimension ref="A1:O70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="D9" sqref="D9:E9"/>
     </sheetView>
   </sheetViews>
@@ -4437,137 +4459,137 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="139" t="s">
+      <c r="A5" s="185" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="139"/>
-      <c r="C5" s="139"/>
-      <c r="D5" s="139"/>
-      <c r="E5" s="139"/>
+      <c r="B5" s="185"/>
+      <c r="C5" s="185"/>
+      <c r="D5" s="185"/>
+      <c r="E5" s="185"/>
       <c r="F5" s="55"/>
       <c r="G5" s="55"/>
       <c r="H5" s="95"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="143" t="s">
+      <c r="A6" s="182" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="144"/>
-      <c r="C6" s="145"/>
-      <c r="D6" s="140" t="s">
+      <c r="B6" s="183"/>
+      <c r="C6" s="184"/>
+      <c r="D6" s="181" t="s">
         <v>196</v>
       </c>
-      <c r="E6" s="140"/>
+      <c r="E6" s="181"/>
       <c r="F6" s="55"/>
       <c r="G6" s="55"/>
       <c r="H6" s="95"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="139" t="s">
+      <c r="A7" s="185" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="139"/>
-      <c r="C7" s="139"/>
-      <c r="D7" s="140" t="s">
+      <c r="B7" s="185"/>
+      <c r="C7" s="185"/>
+      <c r="D7" s="181" t="s">
         <v>165</v>
       </c>
-      <c r="E7" s="140"/>
+      <c r="E7" s="181"/>
       <c r="F7" s="55"/>
       <c r="G7" s="55"/>
       <c r="H7" s="95"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="139" t="s">
+      <c r="A8" s="185" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="139"/>
-      <c r="C8" s="139"/>
-      <c r="D8" s="140" t="s">
+      <c r="B8" s="185"/>
+      <c r="C8" s="185"/>
+      <c r="D8" s="181" t="s">
         <v>231</v>
       </c>
-      <c r="E8" s="140"/>
+      <c r="E8" s="181"/>
       <c r="F8" s="95"/>
       <c r="G8" s="95"/>
       <c r="H8" s="95"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="139" t="s">
+      <c r="A9" s="185" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="139"/>
-      <c r="C9" s="139"/>
-      <c r="D9" s="140" t="s">
+      <c r="B9" s="185"/>
+      <c r="C9" s="185"/>
+      <c r="D9" s="181" t="s">
         <v>100</v>
       </c>
-      <c r="E9" s="140"/>
+      <c r="E9" s="181"/>
       <c r="F9" s="95"/>
       <c r="G9" s="95"/>
       <c r="H9" s="95"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="139" t="s">
+      <c r="A10" s="185" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="139"/>
-      <c r="C10" s="139"/>
-      <c r="D10" s="140"/>
-      <c r="E10" s="140"/>
+      <c r="B10" s="185"/>
+      <c r="C10" s="185"/>
+      <c r="D10" s="181"/>
+      <c r="E10" s="181"/>
       <c r="F10" s="95"/>
       <c r="G10" s="95"/>
       <c r="H10" s="95"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="139" t="s">
+      <c r="A11" s="185" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="139"/>
-      <c r="C11" s="139"/>
-      <c r="D11" s="140" t="s">
+      <c r="B11" s="185"/>
+      <c r="C11" s="185"/>
+      <c r="D11" s="181" t="s">
         <v>162</v>
       </c>
-      <c r="E11" s="140"/>
+      <c r="E11" s="181"/>
       <c r="F11" s="95"/>
       <c r="G11" s="95"/>
       <c r="H11" s="95"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="146" t="s">
+      <c r="A12" s="144" t="s">
         <v>173</v>
       </c>
-      <c r="B12" s="146"/>
-      <c r="C12" s="146"/>
-      <c r="D12" s="141" t="s">
+      <c r="B12" s="144"/>
+      <c r="C12" s="144"/>
+      <c r="D12" s="165" t="s">
         <v>174</v>
       </c>
-      <c r="E12" s="141"/>
+      <c r="E12" s="165"/>
       <c r="F12" s="95" t="s">
         <v>175</v>
       </c>
       <c r="G12" s="54"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="146" t="s">
+      <c r="A13" s="144" t="s">
         <v>211</v>
       </c>
-      <c r="B13" s="146"/>
-      <c r="C13" s="146"/>
-      <c r="D13" s="141" t="s">
+      <c r="B13" s="144"/>
+      <c r="C13" s="144"/>
+      <c r="D13" s="165" t="s">
         <v>209</v>
       </c>
-      <c r="E13" s="141"/>
+      <c r="E13" s="165"/>
       <c r="F13" s="95" t="s">
         <v>210</v>
       </c>
       <c r="G13" s="54"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="146" t="s">
+      <c r="A14" s="144" t="s">
         <v>176</v>
       </c>
-      <c r="B14" s="146"/>
-      <c r="C14" s="146"/>
-      <c r="D14" s="142"/>
-      <c r="E14" s="141"/>
+      <c r="B14" s="144"/>
+      <c r="C14" s="144"/>
+      <c r="D14" s="164"/>
+      <c r="E14" s="165"/>
       <c r="F14" s="54" t="s">
         <v>197</v>
       </c>
@@ -4575,15 +4597,15 @@
       <c r="H14" s="95"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="146" t="s">
+      <c r="A15" s="144" t="s">
         <v>216</v>
       </c>
-      <c r="B15" s="146"/>
-      <c r="C15" s="146"/>
-      <c r="D15" s="142" t="s">
+      <c r="B15" s="144"/>
+      <c r="C15" s="144"/>
+      <c r="D15" s="164" t="s">
         <v>214</v>
       </c>
-      <c r="E15" s="141"/>
+      <c r="E15" s="165"/>
       <c r="F15" s="54" t="s">
         <v>219</v>
       </c>
@@ -4591,13 +4613,13 @@
       <c r="H15" s="95"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="146" t="s">
+      <c r="A16" s="144" t="s">
         <v>215</v>
       </c>
-      <c r="B16" s="146"/>
-      <c r="C16" s="146"/>
-      <c r="D16" s="142"/>
-      <c r="E16" s="141"/>
+      <c r="B16" s="144"/>
+      <c r="C16" s="144"/>
+      <c r="D16" s="164"/>
+      <c r="E16" s="165"/>
       <c r="F16" s="54" t="s">
         <v>218</v>
       </c>
@@ -4605,13 +4627,13 @@
       <c r="H16" s="95"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="146" t="s">
+      <c r="A17" s="144" t="s">
         <v>213</v>
       </c>
-      <c r="B17" s="146"/>
-      <c r="C17" s="146"/>
-      <c r="D17" s="142"/>
-      <c r="E17" s="141"/>
+      <c r="B17" s="144"/>
+      <c r="C17" s="144"/>
+      <c r="D17" s="164"/>
+      <c r="E17" s="165"/>
       <c r="F17" s="54" t="s">
         <v>212</v>
       </c>
@@ -4619,19 +4641,19 @@
       <c r="H17" s="95"/>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="183" t="s">
+      <c r="A18" s="161" t="s">
         <v>143</v>
       </c>
-      <c r="B18" s="184"/>
-      <c r="C18" s="185"/>
+      <c r="B18" s="162"/>
+      <c r="C18" s="163"/>
       <c r="D18" s="114"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="169" t="s">
+      <c r="A19" s="145" t="s">
         <v>178</v>
       </c>
-      <c r="B19" s="170"/>
-      <c r="C19" s="171"/>
+      <c r="B19" s="146"/>
+      <c r="C19" s="147"/>
       <c r="D19" s="100"/>
       <c r="E19" t="s">
         <v>179</v>
@@ -4649,15 +4671,15 @@
       <c r="B20" s="6"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="180" t="s">
+      <c r="A21" s="158" t="s">
         <v>187</v>
       </c>
-      <c r="B21" s="181"/>
-      <c r="C21" s="181"/>
-      <c r="D21" s="181"/>
-      <c r="E21" s="181"/>
-      <c r="F21" s="181"/>
-      <c r="G21" s="182"/>
+      <c r="B21" s="159"/>
+      <c r="C21" s="159"/>
+      <c r="D21" s="159"/>
+      <c r="E21" s="159"/>
+      <c r="F21" s="159"/>
+      <c r="G21" s="160"/>
       <c r="H21" s="1" t="s">
         <v>222</v>
       </c>
@@ -4708,28 +4730,28 @@
       <c r="C25"/>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="179" t="s">
+      <c r="A26" s="157" t="s">
         <v>188</v>
       </c>
-      <c r="B26" s="179"/>
-      <c r="C26" s="179"/>
-      <c r="D26" s="179"/>
-      <c r="E26" s="179"/>
-      <c r="F26" s="179"/>
-      <c r="G26" s="179"/>
+      <c r="B26" s="157"/>
+      <c r="C26" s="157"/>
+      <c r="D26" s="157"/>
+      <c r="E26" s="157"/>
+      <c r="F26" s="157"/>
+      <c r="G26" s="157"/>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="115" t="s">
         <v>69</v>
       </c>
-      <c r="B27" s="173" t="s">
+      <c r="B27" s="151" t="s">
         <v>182</v>
       </c>
-      <c r="C27" s="174"/>
-      <c r="D27" s="174"/>
-      <c r="E27" s="174"/>
-      <c r="F27" s="174"/>
-      <c r="G27" s="175"/>
+      <c r="C27" s="152"/>
+      <c r="D27" s="152"/>
+      <c r="E27" s="152"/>
+      <c r="F27" s="152"/>
+      <c r="G27" s="153"/>
       <c r="H27" s="105"/>
       <c r="I27" s="105"/>
       <c r="J27" s="105"/>
@@ -4740,12 +4762,12 @@
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="116"/>
-      <c r="B28" s="157"/>
-      <c r="C28" s="157"/>
-      <c r="D28" s="157"/>
-      <c r="E28" s="157"/>
-      <c r="F28" s="157"/>
-      <c r="G28" s="157"/>
+      <c r="B28" s="168"/>
+      <c r="C28" s="168"/>
+      <c r="D28" s="168"/>
+      <c r="E28" s="168"/>
+      <c r="F28" s="168"/>
+      <c r="G28" s="168"/>
       <c r="H28" s="112"/>
       <c r="I28" s="112"/>
       <c r="J28" s="112"/>
@@ -4756,12 +4778,12 @@
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="117"/>
-      <c r="B29" s="159"/>
-      <c r="C29" s="159"/>
-      <c r="D29" s="159"/>
-      <c r="E29" s="159"/>
-      <c r="F29" s="159"/>
-      <c r="G29" s="159"/>
+      <c r="B29" s="169"/>
+      <c r="C29" s="169"/>
+      <c r="D29" s="169"/>
+      <c r="E29" s="169"/>
+      <c r="F29" s="169"/>
+      <c r="G29" s="169"/>
       <c r="H29" s="112"/>
       <c r="I29" s="112"/>
       <c r="J29" s="112"/>
@@ -4772,12 +4794,12 @@
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="118"/>
-      <c r="B30" s="161"/>
-      <c r="C30" s="161"/>
-      <c r="D30" s="161"/>
-      <c r="E30" s="161"/>
-      <c r="F30" s="161"/>
-      <c r="G30" s="161"/>
+      <c r="B30" s="170"/>
+      <c r="C30" s="170"/>
+      <c r="D30" s="170"/>
+      <c r="E30" s="170"/>
+      <c r="F30" s="170"/>
+      <c r="G30" s="170"/>
       <c r="H30" s="112"/>
       <c r="I30" s="112"/>
       <c r="J30" s="112"/>
@@ -4790,28 +4812,28 @@
       <c r="C31"/>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="176" t="s">
+      <c r="A32" s="154" t="s">
         <v>189</v>
       </c>
-      <c r="B32" s="177"/>
-      <c r="C32" s="177"/>
-      <c r="D32" s="177"/>
-      <c r="E32" s="177"/>
-      <c r="F32" s="177"/>
-      <c r="G32" s="178"/>
+      <c r="B32" s="155"/>
+      <c r="C32" s="155"/>
+      <c r="D32" s="155"/>
+      <c r="E32" s="155"/>
+      <c r="F32" s="155"/>
+      <c r="G32" s="156"/>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="115" t="s">
         <v>69</v>
       </c>
-      <c r="B33" s="153" t="s">
+      <c r="B33" s="174" t="s">
         <v>183</v>
       </c>
-      <c r="C33" s="153"/>
-      <c r="D33" s="153"/>
-      <c r="E33" s="153"/>
-      <c r="F33" s="153"/>
-      <c r="G33" s="153"/>
+      <c r="C33" s="174"/>
+      <c r="D33" s="174"/>
+      <c r="E33" s="174"/>
+      <c r="F33" s="174"/>
+      <c r="G33" s="174"/>
       <c r="H33" s="105"/>
       <c r="I33" s="105"/>
       <c r="J33" s="105"/>
@@ -4824,14 +4846,14 @@
       <c r="A34" s="116">
         <v>1</v>
       </c>
-      <c r="B34" s="154" t="s">
+      <c r="B34" s="175" t="s">
         <v>217</v>
       </c>
-      <c r="C34" s="154"/>
-      <c r="D34" s="154"/>
-      <c r="E34" s="154"/>
-      <c r="F34" s="154"/>
-      <c r="G34" s="154"/>
+      <c r="C34" s="175"/>
+      <c r="D34" s="175"/>
+      <c r="E34" s="175"/>
+      <c r="F34" s="175"/>
+      <c r="G34" s="175"/>
       <c r="H34" s="112"/>
       <c r="I34" s="112"/>
       <c r="J34" s="112"/>
@@ -4842,12 +4864,12 @@
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="117"/>
-      <c r="B35" s="155"/>
-      <c r="C35" s="155"/>
-      <c r="D35" s="155"/>
-      <c r="E35" s="155"/>
-      <c r="F35" s="155"/>
-      <c r="G35" s="155"/>
+      <c r="B35" s="176"/>
+      <c r="C35" s="176"/>
+      <c r="D35" s="176"/>
+      <c r="E35" s="176"/>
+      <c r="F35" s="176"/>
+      <c r="G35" s="176"/>
       <c r="H35" s="112"/>
       <c r="I35" s="112"/>
       <c r="J35" s="112"/>
@@ -4858,12 +4880,12 @@
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="118"/>
-      <c r="B36" s="156"/>
-      <c r="C36" s="156"/>
-      <c r="D36" s="156"/>
-      <c r="E36" s="156"/>
-      <c r="F36" s="156"/>
-      <c r="G36" s="156"/>
+      <c r="B36" s="177"/>
+      <c r="C36" s="177"/>
+      <c r="D36" s="177"/>
+      <c r="E36" s="177"/>
+      <c r="F36" s="177"/>
+      <c r="G36" s="177"/>
       <c r="H36" s="112"/>
       <c r="I36" s="112"/>
       <c r="J36" s="112"/>
@@ -4888,28 +4910,28 @@
       <c r="M37"/>
     </row>
     <row r="38" spans="1:15">
-      <c r="A38" s="176" t="s">
+      <c r="A38" s="154" t="s">
         <v>190</v>
       </c>
-      <c r="B38" s="177"/>
-      <c r="C38" s="177"/>
-      <c r="D38" s="177"/>
-      <c r="E38" s="177"/>
-      <c r="F38" s="177"/>
-      <c r="G38" s="178"/>
+      <c r="B38" s="155"/>
+      <c r="C38" s="155"/>
+      <c r="D38" s="155"/>
+      <c r="E38" s="155"/>
+      <c r="F38" s="155"/>
+      <c r="G38" s="156"/>
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="115" t="s">
         <v>69</v>
       </c>
-      <c r="B39" s="153" t="s">
+      <c r="B39" s="174" t="s">
         <v>185</v>
       </c>
-      <c r="C39" s="153"/>
-      <c r="D39" s="153"/>
-      <c r="E39" s="153"/>
-      <c r="F39" s="153"/>
-      <c r="G39" s="153"/>
+      <c r="C39" s="174"/>
+      <c r="D39" s="174"/>
+      <c r="E39" s="174"/>
+      <c r="F39" s="174"/>
+      <c r="G39" s="174"/>
       <c r="H39" s="105"/>
       <c r="I39" s="105"/>
       <c r="J39" s="105"/>
@@ -4920,12 +4942,12 @@
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="116"/>
-      <c r="B40" s="157"/>
-      <c r="C40" s="157"/>
-      <c r="D40" s="157"/>
-      <c r="E40" s="157"/>
-      <c r="F40" s="157"/>
-      <c r="G40" s="158"/>
+      <c r="B40" s="168"/>
+      <c r="C40" s="168"/>
+      <c r="D40" s="168"/>
+      <c r="E40" s="168"/>
+      <c r="F40" s="168"/>
+      <c r="G40" s="178"/>
       <c r="H40" s="112"/>
       <c r="I40" s="112"/>
       <c r="J40" s="112"/>
@@ -4936,12 +4958,12 @@
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="117"/>
-      <c r="B41" s="159"/>
-      <c r="C41" s="159"/>
-      <c r="D41" s="159"/>
-      <c r="E41" s="159"/>
-      <c r="F41" s="159"/>
-      <c r="G41" s="160"/>
+      <c r="B41" s="169"/>
+      <c r="C41" s="169"/>
+      <c r="D41" s="169"/>
+      <c r="E41" s="169"/>
+      <c r="F41" s="169"/>
+      <c r="G41" s="179"/>
       <c r="H41" s="112"/>
       <c r="I41" s="112"/>
       <c r="J41" s="112"/>
@@ -4952,12 +4974,12 @@
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="118"/>
-      <c r="B42" s="161"/>
-      <c r="C42" s="161"/>
-      <c r="D42" s="161"/>
-      <c r="E42" s="161"/>
-      <c r="F42" s="161"/>
-      <c r="G42" s="162"/>
+      <c r="B42" s="170"/>
+      <c r="C42" s="170"/>
+      <c r="D42" s="170"/>
+      <c r="E42" s="170"/>
+      <c r="F42" s="170"/>
+      <c r="G42" s="180"/>
       <c r="H42" s="112"/>
       <c r="I42" s="112"/>
       <c r="J42" s="112"/>
@@ -4992,254 +5014,267 @@
       <c r="F44" s="5"/>
     </row>
     <row r="45" spans="1:15">
-      <c r="A45" s="166" t="s">
+      <c r="A45" s="141" t="s">
         <v>65</v>
       </c>
-      <c r="B45" s="172"/>
-      <c r="C45" s="166" t="s">
+      <c r="B45" s="148"/>
+      <c r="C45" s="141" t="s">
         <v>66</v>
       </c>
-      <c r="D45" s="167"/>
-      <c r="E45" s="168"/>
+      <c r="D45" s="142"/>
+      <c r="E45" s="143"/>
       <c r="F45" s="29" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:15">
-      <c r="A46" s="163"/>
-      <c r="B46" s="165"/>
-      <c r="C46" s="163"/>
-      <c r="D46" s="164"/>
-      <c r="E46" s="165"/>
+      <c r="A46" s="149"/>
+      <c r="B46" s="150"/>
+      <c r="C46" s="149"/>
+      <c r="D46" s="171"/>
+      <c r="E46" s="150"/>
       <c r="F46" s="49"/>
     </row>
     <row r="47" spans="1:15">
-      <c r="A47" s="147"/>
-      <c r="B47" s="149"/>
-      <c r="C47" s="147"/>
-      <c r="D47" s="148"/>
-      <c r="E47" s="149"/>
+      <c r="A47" s="139"/>
+      <c r="B47" s="140"/>
+      <c r="C47" s="139"/>
+      <c r="D47" s="172"/>
+      <c r="E47" s="140"/>
       <c r="F47" s="49"/>
     </row>
     <row r="48" spans="1:15">
-      <c r="A48" s="147"/>
-      <c r="B48" s="149"/>
-      <c r="C48" s="147"/>
-      <c r="D48" s="148"/>
-      <c r="E48" s="149"/>
+      <c r="A48" s="139"/>
+      <c r="B48" s="140"/>
+      <c r="C48" s="139"/>
+      <c r="D48" s="172"/>
+      <c r="E48" s="140"/>
       <c r="F48" s="49"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="147"/>
-      <c r="B49" s="149"/>
-      <c r="C49" s="147"/>
-      <c r="D49" s="148"/>
-      <c r="E49" s="149"/>
+      <c r="A49" s="139"/>
+      <c r="B49" s="140"/>
+      <c r="C49" s="139"/>
+      <c r="D49" s="172"/>
+      <c r="E49" s="140"/>
       <c r="F49" s="49"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="147"/>
-      <c r="B50" s="149"/>
-      <c r="C50" s="147"/>
-      <c r="D50" s="148"/>
-      <c r="E50" s="149"/>
+      <c r="A50" s="139"/>
+      <c r="B50" s="140"/>
+      <c r="C50" s="139"/>
+      <c r="D50" s="172"/>
+      <c r="E50" s="140"/>
       <c r="F50" s="49"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="147"/>
-      <c r="B51" s="149"/>
-      <c r="C51" s="147"/>
-      <c r="D51" s="148"/>
-      <c r="E51" s="149"/>
+      <c r="A51" s="139"/>
+      <c r="B51" s="140"/>
+      <c r="C51" s="139"/>
+      <c r="D51" s="172"/>
+      <c r="E51" s="140"/>
       <c r="F51" s="49"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="147"/>
-      <c r="B52" s="149"/>
-      <c r="C52" s="147"/>
-      <c r="D52" s="148"/>
-      <c r="E52" s="149"/>
+      <c r="A52" s="139"/>
+      <c r="B52" s="140"/>
+      <c r="C52" s="139"/>
+      <c r="D52" s="172"/>
+      <c r="E52" s="140"/>
       <c r="F52" s="49"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="147"/>
-      <c r="B53" s="149"/>
-      <c r="C53" s="147"/>
-      <c r="D53" s="148"/>
-      <c r="E53" s="149"/>
+      <c r="A53" s="139"/>
+      <c r="B53" s="140"/>
+      <c r="C53" s="139"/>
+      <c r="D53" s="172"/>
+      <c r="E53" s="140"/>
       <c r="F53" s="49"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="147"/>
-      <c r="B54" s="149"/>
-      <c r="C54" s="147"/>
-      <c r="D54" s="148"/>
-      <c r="E54" s="149"/>
+      <c r="A54" s="139"/>
+      <c r="B54" s="140"/>
+      <c r="C54" s="139"/>
+      <c r="D54" s="172"/>
+      <c r="E54" s="140"/>
       <c r="F54" s="49"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="147"/>
-      <c r="B55" s="149"/>
-      <c r="C55" s="147"/>
-      <c r="D55" s="148"/>
-      <c r="E55" s="149"/>
+      <c r="A55" s="139"/>
+      <c r="B55" s="140"/>
+      <c r="C55" s="139"/>
+      <c r="D55" s="172"/>
+      <c r="E55" s="140"/>
       <c r="F55" s="49"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="147"/>
-      <c r="B56" s="149"/>
-      <c r="C56" s="147"/>
-      <c r="D56" s="148"/>
-      <c r="E56" s="149"/>
+      <c r="A56" s="139"/>
+      <c r="B56" s="140"/>
+      <c r="C56" s="139"/>
+      <c r="D56" s="172"/>
+      <c r="E56" s="140"/>
       <c r="F56" s="49"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="147"/>
-      <c r="B57" s="149"/>
-      <c r="C57" s="147"/>
-      <c r="D57" s="148"/>
-      <c r="E57" s="149"/>
+      <c r="A57" s="139"/>
+      <c r="B57" s="140"/>
+      <c r="C57" s="139"/>
+      <c r="D57" s="172"/>
+      <c r="E57" s="140"/>
       <c r="F57" s="49"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="147"/>
-      <c r="B58" s="149"/>
-      <c r="C58" s="147"/>
-      <c r="D58" s="148"/>
-      <c r="E58" s="149"/>
+      <c r="A58" s="139"/>
+      <c r="B58" s="140"/>
+      <c r="C58" s="139"/>
+      <c r="D58" s="172"/>
+      <c r="E58" s="140"/>
       <c r="F58" s="49"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="147"/>
-      <c r="B59" s="149"/>
-      <c r="C59" s="147"/>
-      <c r="D59" s="148"/>
-      <c r="E59" s="149"/>
+      <c r="A59" s="139"/>
+      <c r="B59" s="140"/>
+      <c r="C59" s="139"/>
+      <c r="D59" s="172"/>
+      <c r="E59" s="140"/>
       <c r="F59" s="49"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="147"/>
-      <c r="B60" s="149"/>
-      <c r="C60" s="147"/>
-      <c r="D60" s="148"/>
-      <c r="E60" s="149"/>
+      <c r="A60" s="139"/>
+      <c r="B60" s="140"/>
+      <c r="C60" s="139"/>
+      <c r="D60" s="172"/>
+      <c r="E60" s="140"/>
       <c r="F60" s="49"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="147"/>
-      <c r="B61" s="149"/>
-      <c r="C61" s="147"/>
-      <c r="D61" s="148"/>
-      <c r="E61" s="149"/>
+      <c r="A61" s="139"/>
+      <c r="B61" s="140"/>
+      <c r="C61" s="139"/>
+      <c r="D61" s="172"/>
+      <c r="E61" s="140"/>
       <c r="F61" s="49"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="147"/>
-      <c r="B62" s="149"/>
-      <c r="C62" s="147"/>
-      <c r="D62" s="148"/>
-      <c r="E62" s="149"/>
+      <c r="A62" s="139"/>
+      <c r="B62" s="140"/>
+      <c r="C62" s="139"/>
+      <c r="D62" s="172"/>
+      <c r="E62" s="140"/>
       <c r="F62" s="49"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="147"/>
-      <c r="B63" s="149"/>
-      <c r="C63" s="147"/>
-      <c r="D63" s="148"/>
-      <c r="E63" s="149"/>
+      <c r="A63" s="139"/>
+      <c r="B63" s="140"/>
+      <c r="C63" s="139"/>
+      <c r="D63" s="172"/>
+      <c r="E63" s="140"/>
       <c r="F63" s="49"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="147"/>
-      <c r="B64" s="149"/>
-      <c r="C64" s="147"/>
-      <c r="D64" s="148"/>
-      <c r="E64" s="149"/>
+      <c r="A64" s="139"/>
+      <c r="B64" s="140"/>
+      <c r="C64" s="139"/>
+      <c r="D64" s="172"/>
+      <c r="E64" s="140"/>
       <c r="F64" s="49"/>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="147"/>
-      <c r="B65" s="149"/>
-      <c r="C65" s="147"/>
-      <c r="D65" s="148"/>
-      <c r="E65" s="149"/>
+      <c r="A65" s="139"/>
+      <c r="B65" s="140"/>
+      <c r="C65" s="139"/>
+      <c r="D65" s="172"/>
+      <c r="E65" s="140"/>
       <c r="F65" s="49"/>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="147"/>
-      <c r="B66" s="149"/>
-      <c r="C66" s="147"/>
-      <c r="D66" s="148"/>
-      <c r="E66" s="149"/>
+      <c r="A66" s="139"/>
+      <c r="B66" s="140"/>
+      <c r="C66" s="139"/>
+      <c r="D66" s="172"/>
+      <c r="E66" s="140"/>
       <c r="F66" s="49"/>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="147"/>
-      <c r="B67" s="149"/>
-      <c r="C67" s="147"/>
-      <c r="D67" s="148"/>
-      <c r="E67" s="149"/>
+      <c r="A67" s="139"/>
+      <c r="B67" s="140"/>
+      <c r="C67" s="139"/>
+      <c r="D67" s="172"/>
+      <c r="E67" s="140"/>
       <c r="F67" s="49"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="147"/>
-      <c r="B68" s="149"/>
-      <c r="C68" s="147"/>
-      <c r="D68" s="148"/>
-      <c r="E68" s="149"/>
+      <c r="A68" s="139"/>
+      <c r="B68" s="140"/>
+      <c r="C68" s="139"/>
+      <c r="D68" s="172"/>
+      <c r="E68" s="140"/>
       <c r="F68" s="49"/>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="147"/>
-      <c r="B69" s="149"/>
-      <c r="C69" s="147"/>
-      <c r="D69" s="148"/>
-      <c r="E69" s="149"/>
+      <c r="A69" s="139"/>
+      <c r="B69" s="140"/>
+      <c r="C69" s="139"/>
+      <c r="D69" s="172"/>
+      <c r="E69" s="140"/>
       <c r="F69" s="49"/>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="150"/>
-      <c r="B70" s="152"/>
-      <c r="C70" s="150"/>
-      <c r="D70" s="151"/>
-      <c r="E70" s="152"/>
+      <c r="A70" s="166"/>
+      <c r="B70" s="167"/>
+      <c r="C70" s="166"/>
+      <c r="D70" s="173"/>
+      <c r="E70" s="167"/>
       <c r="F70" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="95">
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="A38:G38"/>
-    <mergeCell ref="A26:G26"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="C69:E69"/>
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C58:E58"/>
     <mergeCell ref="A67:B67"/>
     <mergeCell ref="A68:B68"/>
     <mergeCell ref="A69:B69"/>
@@ -5256,52 +5291,39 @@
     <mergeCell ref="C52:E52"/>
     <mergeCell ref="C53:E53"/>
     <mergeCell ref="A62:B62"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="C69:E69"/>
-    <mergeCell ref="C70:E70"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A38:G38"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
@@ -5334,10 +5356,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z66"/>
+  <dimension ref="A1:Z72"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" topLeftCell="J29" workbookViewId="0">
+      <selection activeCell="V47" sqref="V47:V48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -5360,7 +5382,7 @@
     <col min="19" max="19" width="6.83203125" style="1" customWidth="1"/>
     <col min="20" max="20" width="9" style="1" customWidth="1"/>
     <col min="21" max="21" width="16.6640625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="6.83203125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="32" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="18.6640625" style="1" customWidth="1"/>
     <col min="24" max="24" width="43.5" style="1" customWidth="1"/>
     <col min="25" max="25" width="11.33203125" style="1" customWidth="1"/>
@@ -5375,7 +5397,7 @@
     <col min="34" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="19">
+    <row r="1" spans="1:22" ht="19">
       <c r="A1" s="18" t="s">
         <v>23</v>
       </c>
@@ -5383,17 +5405,17 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:22">
       <c r="B2" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:22">
       <c r="B3" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:22">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -5408,7 +5430,7 @@
       <c r="N5" s="28"/>
       <c r="O5" s="28"/>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:22">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
@@ -5426,7 +5448,7 @@
       <c r="N6" s="28"/>
       <c r="O6" s="28"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:22">
       <c r="A7" s="4" t="s">
         <v>81</v>
       </c>
@@ -5447,7 +5469,7 @@
       <c r="R7" s="54"/>
       <c r="S7"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:22">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
@@ -5467,7 +5489,7 @@
       <c r="N8" s="28"/>
       <c r="O8" s="28"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:22">
       <c r="A9" s="4" t="s">
         <v>155</v>
       </c>
@@ -5484,7 +5506,7 @@
       <c r="N9" s="28"/>
       <c r="O9" s="28"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:22">
       <c r="A10" s="56" t="s">
         <v>156</v>
       </c>
@@ -5498,7 +5520,7 @@
       <c r="N10" s="28"/>
       <c r="O10" s="28"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:22">
       <c r="A11" s="56" t="s">
         <v>157</v>
       </c>
@@ -5512,7 +5534,7 @@
       <c r="N11" s="28"/>
       <c r="O11" s="28"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:22">
       <c r="A12" s="56" t="s">
         <v>158</v>
       </c>
@@ -5526,7 +5548,7 @@
       <c r="N12" s="28"/>
       <c r="O12" s="28"/>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:22">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
@@ -5537,7 +5559,7 @@
       <c r="F13" s="54"/>
       <c r="G13" s="54"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:22">
       <c r="A14" s="4" t="s">
         <v>99</v>
       </c>
@@ -5553,16 +5575,17 @@
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14"/>
-    </row>
-    <row r="15" spans="1:19">
+      <c r="V14"/>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" s="122" t="s">
         <v>173</v>
       </c>
       <c r="B15" s="122"/>
-      <c r="C15" s="141" t="s">
+      <c r="C15" s="165" t="s">
         <v>174</v>
       </c>
-      <c r="D15" s="141"/>
+      <c r="D15" s="165"/>
       <c r="E15" s="95" t="s">
         <v>175</v>
       </c>
@@ -5571,16 +5594,17 @@
       <c r="J15"/>
       <c r="K15"/>
       <c r="L15"/>
-    </row>
-    <row r="16" spans="1:19">
+      <c r="V15"/>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" s="122" t="s">
         <v>225</v>
       </c>
       <c r="B16" s="122"/>
-      <c r="C16" s="142" t="s">
+      <c r="C16" s="164" t="s">
         <v>229</v>
       </c>
-      <c r="D16" s="141"/>
+      <c r="D16" s="165"/>
       <c r="E16" s="55" t="s">
         <v>226</v>
       </c>
@@ -5594,16 +5618,17 @@
       <c r="M16" s="95"/>
       <c r="N16" s="95"/>
       <c r="O16" s="95"/>
+      <c r="V16"/>
     </row>
     <row r="17" spans="1:22">
       <c r="A17" s="122" t="s">
         <v>176</v>
       </c>
       <c r="B17" s="122"/>
-      <c r="C17" s="141" t="s">
+      <c r="C17" s="165" t="s">
         <v>177</v>
       </c>
-      <c r="D17" s="141"/>
+      <c r="D17" s="165"/>
       <c r="E17" s="55"/>
       <c r="F17" s="55"/>
       <c r="G17" s="54"/>
@@ -5615,8 +5640,8 @@
         <v>227</v>
       </c>
       <c r="B18" s="122"/>
-      <c r="C18" s="142"/>
-      <c r="D18" s="141"/>
+      <c r="C18" s="164"/>
+      <c r="D18" s="165"/>
       <c r="E18" s="55" t="s">
         <v>228</v>
       </c>
@@ -5630,6 +5655,7 @@
       <c r="M18" s="95"/>
       <c r="N18" s="95"/>
       <c r="O18" s="95"/>
+      <c r="V18"/>
     </row>
     <row r="19" spans="1:22">
       <c r="A19" s="123" t="s">
@@ -5656,6 +5682,7 @@
       <c r="Q19"/>
       <c r="R19"/>
       <c r="S19"/>
+      <c r="V19"/>
     </row>
     <row r="20" spans="1:22">
       <c r="A20" s="6"/>
@@ -5664,34 +5691,36 @@
       <c r="J20"/>
       <c r="K20"/>
       <c r="L20"/>
+      <c r="V20"/>
     </row>
     <row r="21" spans="1:22">
-      <c r="A21" s="179" t="s">
+      <c r="A21" s="157" t="s">
         <v>191</v>
       </c>
-      <c r="B21" s="179"/>
-      <c r="C21" s="179"/>
-      <c r="D21" s="179"/>
-      <c r="E21" s="179"/>
-      <c r="F21" s="179"/>
-      <c r="G21" s="179"/>
+      <c r="B21" s="157"/>
+      <c r="C21" s="157"/>
+      <c r="D21" s="157"/>
+      <c r="E21" s="157"/>
+      <c r="F21" s="157"/>
+      <c r="G21" s="157"/>
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21"/>
       <c r="L21"/>
+      <c r="V21"/>
     </row>
     <row r="22" spans="1:22">
       <c r="A22" s="115" t="s">
         <v>69</v>
       </c>
-      <c r="B22" s="173" t="s">
+      <c r="B22" s="151" t="s">
         <v>182</v>
       </c>
-      <c r="C22" s="174"/>
-      <c r="D22" s="174"/>
-      <c r="E22" s="174"/>
-      <c r="F22" s="174"/>
-      <c r="G22" s="175"/>
+      <c r="C22" s="152"/>
+      <c r="D22" s="152"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="152"/>
+      <c r="G22" s="153"/>
       <c r="H22" s="105"/>
       <c r="I22"/>
       <c r="J22"/>
@@ -5705,16 +5734,16 @@
       <c r="R22" s="105"/>
       <c r="S22" s="105"/>
       <c r="U22" s="111"/>
-      <c r="V22" s="111"/>
+      <c r="V22"/>
     </row>
     <row r="23" spans="1:22">
       <c r="A23" s="116"/>
-      <c r="B23" s="157"/>
-      <c r="C23" s="157"/>
-      <c r="D23" s="157"/>
-      <c r="E23" s="157"/>
-      <c r="F23" s="157"/>
-      <c r="G23" s="157"/>
+      <c r="B23" s="168"/>
+      <c r="C23" s="168"/>
+      <c r="D23" s="168"/>
+      <c r="E23" s="168"/>
+      <c r="F23" s="168"/>
+      <c r="G23" s="168"/>
       <c r="H23" s="112"/>
       <c r="I23"/>
       <c r="J23"/>
@@ -5732,12 +5761,12 @@
     </row>
     <row r="24" spans="1:22">
       <c r="A24" s="117"/>
-      <c r="B24" s="159"/>
-      <c r="C24" s="159"/>
-      <c r="D24" s="159"/>
-      <c r="E24" s="159"/>
-      <c r="F24" s="159"/>
-      <c r="G24" s="159"/>
+      <c r="B24" s="169"/>
+      <c r="C24" s="169"/>
+      <c r="D24" s="169"/>
+      <c r="E24" s="169"/>
+      <c r="F24" s="169"/>
+      <c r="G24" s="169"/>
       <c r="H24" s="112"/>
       <c r="I24"/>
       <c r="J24"/>
@@ -5755,12 +5784,12 @@
     </row>
     <row r="25" spans="1:22">
       <c r="A25" s="118"/>
-      <c r="B25" s="161"/>
-      <c r="C25" s="161"/>
-      <c r="D25" s="161"/>
-      <c r="E25" s="161"/>
-      <c r="F25" s="161"/>
-      <c r="G25" s="161"/>
+      <c r="B25" s="170"/>
+      <c r="C25" s="170"/>
+      <c r="D25" s="170"/>
+      <c r="E25" s="170"/>
+      <c r="F25" s="170"/>
+      <c r="G25" s="170"/>
       <c r="H25" s="112"/>
       <c r="M25" s="112"/>
       <c r="N25" s="112"/>
@@ -5770,7 +5799,6 @@
       <c r="R25" s="112"/>
       <c r="T25"/>
       <c r="U25"/>
-      <c r="V25"/>
     </row>
     <row r="26" spans="1:22">
       <c r="C26"/>
@@ -5778,34 +5806,36 @@
       <c r="J26" s="105"/>
       <c r="K26" s="105"/>
       <c r="L26" s="105"/>
+      <c r="V26" s="105"/>
     </row>
     <row r="27" spans="1:22">
-      <c r="A27" s="176" t="s">
+      <c r="A27" s="154" t="s">
         <v>192</v>
       </c>
-      <c r="B27" s="177"/>
-      <c r="C27" s="177"/>
-      <c r="D27" s="177"/>
-      <c r="E27" s="177"/>
-      <c r="F27" s="177"/>
-      <c r="G27" s="178"/>
+      <c r="B27" s="155"/>
+      <c r="C27" s="155"/>
+      <c r="D27" s="155"/>
+      <c r="E27" s="155"/>
+      <c r="F27" s="155"/>
+      <c r="G27" s="156"/>
       <c r="I27" s="105"/>
       <c r="J27" s="105"/>
       <c r="K27" s="105"/>
       <c r="L27" s="105"/>
+      <c r="V27" s="105"/>
     </row>
     <row r="28" spans="1:22">
       <c r="A28" s="115" t="s">
         <v>69</v>
       </c>
-      <c r="B28" s="153" t="s">
+      <c r="B28" s="174" t="s">
         <v>183</v>
       </c>
-      <c r="C28" s="153"/>
-      <c r="D28" s="153"/>
-      <c r="E28" s="153"/>
-      <c r="F28" s="153"/>
-      <c r="G28" s="153"/>
+      <c r="C28" s="174"/>
+      <c r="D28" s="174"/>
+      <c r="E28" s="174"/>
+      <c r="F28" s="174"/>
+      <c r="G28" s="174"/>
       <c r="H28" s="105"/>
       <c r="I28" s="105"/>
       <c r="J28" s="105"/>
@@ -5819,20 +5849,20 @@
       <c r="R28" s="105"/>
       <c r="S28" s="105"/>
       <c r="U28" s="111"/>
-      <c r="V28" s="111"/>
+      <c r="V28" s="105"/>
     </row>
     <row r="29" spans="1:22">
       <c r="A29" s="116">
         <v>1</v>
       </c>
-      <c r="B29" s="154" t="s">
+      <c r="B29" s="175" t="s">
         <v>224</v>
       </c>
-      <c r="C29" s="154"/>
-      <c r="D29" s="154"/>
-      <c r="E29" s="154"/>
-      <c r="F29" s="154"/>
-      <c r="G29" s="154"/>
+      <c r="C29" s="175"/>
+      <c r="D29" s="175"/>
+      <c r="E29" s="175"/>
+      <c r="F29" s="175"/>
+      <c r="G29" s="175"/>
       <c r="H29" s="112"/>
       <c r="I29"/>
       <c r="J29"/>
@@ -5850,12 +5880,14 @@
     </row>
     <row r="30" spans="1:22">
       <c r="A30" s="117"/>
-      <c r="B30" s="155"/>
-      <c r="C30" s="155"/>
-      <c r="D30" s="155"/>
-      <c r="E30" s="155"/>
-      <c r="F30" s="155"/>
-      <c r="G30" s="155"/>
+      <c r="B30" s="176" t="s">
+        <v>232</v>
+      </c>
+      <c r="C30" s="176"/>
+      <c r="D30" s="176"/>
+      <c r="E30" s="176"/>
+      <c r="F30" s="176"/>
+      <c r="G30" s="176"/>
       <c r="H30" s="112"/>
       <c r="M30" s="112"/>
       <c r="N30" s="112"/>
@@ -5865,16 +5897,15 @@
       <c r="R30" s="112"/>
       <c r="T30"/>
       <c r="U30"/>
-      <c r="V30"/>
     </row>
     <row r="31" spans="1:22">
       <c r="A31" s="118"/>
-      <c r="B31" s="156"/>
-      <c r="C31" s="156"/>
-      <c r="D31" s="156"/>
-      <c r="E31" s="156"/>
-      <c r="F31" s="156"/>
-      <c r="G31" s="156"/>
+      <c r="B31" s="177"/>
+      <c r="C31" s="177"/>
+      <c r="D31" s="177"/>
+      <c r="E31" s="177"/>
+      <c r="F31" s="177"/>
+      <c r="G31" s="177"/>
       <c r="H31" s="112"/>
       <c r="I31" s="105"/>
       <c r="J31" s="105"/>
@@ -5888,7 +5919,7 @@
       <c r="R31" s="112"/>
       <c r="T31"/>
       <c r="U31"/>
-      <c r="V31"/>
+      <c r="V31" s="105"/>
     </row>
     <row r="32" spans="1:22">
       <c r="A32"/>
@@ -5911,39 +5942,41 @@
       <c r="R32"/>
       <c r="S32"/>
       <c r="T32"/>
+      <c r="V32" s="112"/>
     </row>
     <row r="33" spans="1:26">
-      <c r="A33" s="176" t="s">
-        <v>193</v>
-      </c>
-      <c r="B33" s="177"/>
-      <c r="C33" s="177"/>
-      <c r="D33" s="177"/>
-      <c r="E33" s="177"/>
-      <c r="F33" s="177"/>
-      <c r="G33" s="178"/>
-      <c r="I33" s="112"/>
-      <c r="J33" s="112"/>
-      <c r="K33" s="112"/>
-      <c r="L33" s="112"/>
+      <c r="A33" s="154" t="s">
+        <v>233</v>
+      </c>
+      <c r="B33" s="155"/>
+      <c r="C33" s="155"/>
+      <c r="D33" s="155"/>
+      <c r="E33" s="155"/>
+      <c r="F33" s="155"/>
+      <c r="G33" s="156"/>
+      <c r="I33" s="105"/>
+      <c r="J33" s="105"/>
+      <c r="K33" s="105"/>
+      <c r="L33" s="105"/>
+      <c r="V33" s="105"/>
     </row>
     <row r="34" spans="1:26">
       <c r="A34" s="115" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="153" t="s">
-        <v>185</v>
-      </c>
-      <c r="C34" s="153"/>
-      <c r="D34" s="153"/>
-      <c r="E34" s="153"/>
-      <c r="F34" s="153"/>
-      <c r="G34" s="153"/>
+      <c r="B34" s="174" t="s">
+        <v>183</v>
+      </c>
+      <c r="C34" s="174"/>
+      <c r="D34" s="174"/>
+      <c r="E34" s="174"/>
+      <c r="F34" s="174"/>
+      <c r="G34" s="174"/>
       <c r="H34" s="105"/>
-      <c r="I34" s="112"/>
-      <c r="J34" s="112"/>
-      <c r="K34" s="112"/>
-      <c r="L34" s="112"/>
+      <c r="I34" s="105"/>
+      <c r="J34" s="105"/>
+      <c r="K34" s="105"/>
+      <c r="L34" s="105"/>
       <c r="M34" s="105"/>
       <c r="N34" s="105"/>
       <c r="O34" s="105"/>
@@ -5952,16 +5985,20 @@
       <c r="R34" s="105"/>
       <c r="S34" s="105"/>
       <c r="U34" s="111"/>
-      <c r="V34" s="111"/>
+      <c r="V34" s="105"/>
     </row>
     <row r="35" spans="1:26">
-      <c r="A35" s="116"/>
-      <c r="B35" s="157"/>
-      <c r="C35" s="157"/>
-      <c r="D35" s="157"/>
-      <c r="E35" s="157"/>
-      <c r="F35" s="157"/>
-      <c r="G35" s="158"/>
+      <c r="A35" s="116">
+        <v>1</v>
+      </c>
+      <c r="B35" s="175" t="s">
+        <v>232</v>
+      </c>
+      <c r="C35" s="175"/>
+      <c r="D35" s="175"/>
+      <c r="E35" s="175"/>
+      <c r="F35" s="175"/>
+      <c r="G35" s="175"/>
       <c r="H35" s="112"/>
       <c r="I35"/>
       <c r="J35"/>
@@ -5979,12 +6016,12 @@
     </row>
     <row r="36" spans="1:26">
       <c r="A36" s="117"/>
-      <c r="B36" s="159"/>
-      <c r="C36" s="159"/>
-      <c r="D36" s="159"/>
-      <c r="E36" s="159"/>
-      <c r="F36" s="159"/>
-      <c r="G36" s="160"/>
+      <c r="B36" s="176"/>
+      <c r="C36" s="176"/>
+      <c r="D36" s="176"/>
+      <c r="E36" s="176"/>
+      <c r="F36" s="176"/>
+      <c r="G36" s="176"/>
       <c r="H36" s="112"/>
       <c r="M36" s="112"/>
       <c r="N36" s="112"/>
@@ -5994,17 +6031,20 @@
       <c r="R36" s="112"/>
       <c r="T36"/>
       <c r="U36"/>
-      <c r="V36"/>
     </row>
     <row r="37" spans="1:26">
       <c r="A37" s="118"/>
-      <c r="B37" s="161"/>
-      <c r="C37" s="161"/>
-      <c r="D37" s="161"/>
-      <c r="E37" s="161"/>
-      <c r="F37" s="161"/>
-      <c r="G37" s="162"/>
+      <c r="B37" s="177"/>
+      <c r="C37" s="177"/>
+      <c r="D37" s="177"/>
+      <c r="E37" s="177"/>
+      <c r="F37" s="177"/>
+      <c r="G37" s="177"/>
       <c r="H37" s="112"/>
+      <c r="I37" s="105"/>
+      <c r="J37" s="105"/>
+      <c r="K37" s="105"/>
+      <c r="L37" s="105"/>
       <c r="M37" s="112"/>
       <c r="N37" s="112"/>
       <c r="O37" s="112"/>
@@ -6013,7 +6053,7 @@
       <c r="R37" s="112"/>
       <c r="T37"/>
       <c r="U37"/>
-      <c r="V37"/>
+      <c r="V37" s="105"/>
     </row>
     <row r="38" spans="1:26">
       <c r="A38"/>
@@ -6024,6 +6064,10 @@
       <c r="F38"/>
       <c r="G38"/>
       <c r="H38"/>
+      <c r="I38" s="112"/>
+      <c r="J38" s="112"/>
+      <c r="K38" s="112"/>
+      <c r="L38" s="112"/>
       <c r="M38"/>
       <c r="N38"/>
       <c r="O38"/>
@@ -6032,514 +6076,489 @@
       <c r="R38"/>
       <c r="S38"/>
       <c r="T38"/>
+      <c r="V38" s="112"/>
     </row>
     <row r="39" spans="1:26">
-      <c r="A39" s="6"/>
+      <c r="A39" s="154" t="s">
+        <v>193</v>
+      </c>
+      <c r="B39" s="155"/>
+      <c r="C39" s="155"/>
+      <c r="D39" s="155"/>
+      <c r="E39" s="155"/>
+      <c r="F39" s="155"/>
+      <c r="G39" s="156"/>
+      <c r="I39" s="112"/>
+      <c r="J39" s="112"/>
+      <c r="K39" s="112"/>
+      <c r="L39" s="112"/>
+      <c r="V39" s="112"/>
     </row>
     <row r="40" spans="1:26">
-      <c r="A40" s="19" t="s">
+      <c r="A40" s="115" t="s">
+        <v>69</v>
+      </c>
+      <c r="B40" s="174" t="s">
+        <v>185</v>
+      </c>
+      <c r="C40" s="174"/>
+      <c r="D40" s="174"/>
+      <c r="E40" s="174"/>
+      <c r="F40" s="174"/>
+      <c r="G40" s="174"/>
+      <c r="H40" s="105"/>
+      <c r="I40" s="112"/>
+      <c r="J40" s="112"/>
+      <c r="K40" s="112"/>
+      <c r="L40" s="112"/>
+      <c r="M40" s="105"/>
+      <c r="N40" s="105"/>
+      <c r="O40" s="105"/>
+      <c r="P40" s="105"/>
+      <c r="Q40" s="105"/>
+      <c r="R40" s="105"/>
+      <c r="S40" s="105"/>
+      <c r="U40" s="111"/>
+      <c r="V40" s="112"/>
+    </row>
+    <row r="41" spans="1:26">
+      <c r="A41" s="116"/>
+      <c r="B41" s="168"/>
+      <c r="C41" s="168"/>
+      <c r="D41" s="168"/>
+      <c r="E41" s="168"/>
+      <c r="F41" s="168"/>
+      <c r="G41" s="178"/>
+      <c r="H41" s="112"/>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41" s="112"/>
+      <c r="N41" s="112"/>
+      <c r="O41" s="112"/>
+      <c r="P41" s="112"/>
+      <c r="Q41" s="112"/>
+      <c r="R41" s="112"/>
+      <c r="T41"/>
+      <c r="U41"/>
+      <c r="V41"/>
+    </row>
+    <row r="42" spans="1:26">
+      <c r="A42" s="117"/>
+      <c r="B42" s="169"/>
+      <c r="C42" s="169"/>
+      <c r="D42" s="169"/>
+      <c r="E42" s="169"/>
+      <c r="F42" s="169"/>
+      <c r="G42" s="179"/>
+      <c r="H42" s="112"/>
+      <c r="M42" s="112"/>
+      <c r="N42" s="112"/>
+      <c r="O42" s="112"/>
+      <c r="P42" s="112"/>
+      <c r="Q42" s="112"/>
+      <c r="R42" s="112"/>
+      <c r="T42"/>
+      <c r="U42"/>
+    </row>
+    <row r="43" spans="1:26">
+      <c r="A43" s="118"/>
+      <c r="B43" s="170"/>
+      <c r="C43" s="170"/>
+      <c r="D43" s="170"/>
+      <c r="E43" s="170"/>
+      <c r="F43" s="170"/>
+      <c r="G43" s="180"/>
+      <c r="H43" s="112"/>
+      <c r="M43" s="112"/>
+      <c r="N43" s="112"/>
+      <c r="O43" s="112"/>
+      <c r="P43" s="112"/>
+      <c r="Q43" s="112"/>
+      <c r="R43" s="112"/>
+      <c r="T43"/>
+      <c r="U43"/>
+    </row>
+    <row r="44" spans="1:26">
+      <c r="A44"/>
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="M44"/>
+      <c r="N44"/>
+      <c r="O44"/>
+      <c r="P44"/>
+      <c r="Q44"/>
+      <c r="R44"/>
+      <c r="S44"/>
+      <c r="T44"/>
+    </row>
+    <row r="45" spans="1:26">
+      <c r="A45" s="6"/>
+    </row>
+    <row r="46" spans="1:26">
+      <c r="A46" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B40" s="37"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="119"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="132"/>
-      <c r="J40" s="132"/>
-      <c r="K40" s="132"/>
-      <c r="L40" s="132"/>
-      <c r="M40" s="37"/>
-      <c r="N40" s="37"/>
-      <c r="O40" s="37"/>
-      <c r="P40" s="37"/>
-      <c r="Q40" s="37"/>
-      <c r="R40" s="37"/>
-      <c r="S40" s="37"/>
-      <c r="T40" s="37"/>
-      <c r="U40" s="38"/>
-      <c r="V40" s="55"/>
-      <c r="W40" s="55"/>
-      <c r="X40" s="55"/>
-      <c r="Y40" s="39"/>
-      <c r="Z40" s="39"/>
-    </row>
-    <row r="41" spans="1:26">
-      <c r="A41" s="186" t="s">
+      <c r="B46" s="37"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="119"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="132"/>
+      <c r="J46" s="132"/>
+      <c r="K46" s="132"/>
+      <c r="L46" s="132"/>
+      <c r="M46" s="37"/>
+      <c r="N46" s="37"/>
+      <c r="O46" s="37"/>
+      <c r="P46" s="37"/>
+      <c r="Q46" s="37"/>
+      <c r="R46" s="37"/>
+      <c r="S46" s="37"/>
+      <c r="T46" s="37"/>
+      <c r="U46" s="38"/>
+      <c r="V46" s="132"/>
+      <c r="W46" s="55"/>
+      <c r="X46" s="55"/>
+      <c r="Y46" s="39"/>
+      <c r="Z46" s="39"/>
+    </row>
+    <row r="47" spans="1:26">
+      <c r="A47" s="190" t="s">
         <v>69</v>
       </c>
-      <c r="B41" s="186" t="s">
+      <c r="B47" s="190" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="188" t="s">
+      <c r="C47" s="192" t="s">
         <v>1</v>
       </c>
-      <c r="D41" s="186" t="s">
+      <c r="D47" s="190" t="s">
         <v>2</v>
       </c>
-      <c r="E41" s="189" t="s">
+      <c r="E47" s="193" t="s">
         <v>161</v>
       </c>
-      <c r="F41" s="189" t="s">
+      <c r="F47" s="193" t="s">
         <v>176</v>
       </c>
-      <c r="G41" s="186" t="s">
+      <c r="G47" s="190" t="s">
         <v>13</v>
       </c>
-      <c r="H41" s="186" t="s">
+      <c r="H47" s="190" t="s">
         <v>116</v>
       </c>
-      <c r="I41" s="193" t="s">
+      <c r="I47" s="197" t="s">
         <v>199</v>
       </c>
-      <c r="J41" s="193" t="s">
+      <c r="J47" s="197" t="s">
         <v>200</v>
       </c>
-      <c r="K41" s="193" t="s">
+      <c r="K47" s="197" t="s">
         <v>201</v>
       </c>
-      <c r="L41" s="196" t="s">
+      <c r="L47" s="186" t="s">
         <v>202</v>
       </c>
-      <c r="M41" s="186" t="s">
+      <c r="M47" s="190" t="s">
         <v>194</v>
       </c>
-      <c r="N41" s="186" t="s">
+      <c r="N47" s="190" t="s">
         <v>208</v>
       </c>
-      <c r="O41" s="188" t="s">
+      <c r="O47" s="192" t="s">
         <v>207</v>
       </c>
-      <c r="P41" s="194" t="s">
+      <c r="P47" s="188" t="s">
         <v>71</v>
       </c>
-      <c r="Q41" s="195"/>
-      <c r="R41" s="194" t="s">
+      <c r="Q47" s="189"/>
+      <c r="R47" s="188" t="s">
         <v>17</v>
       </c>
-      <c r="S41" s="195"/>
-      <c r="T41" s="34" t="s">
+      <c r="S47" s="189"/>
+      <c r="T47" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="U41" s="186" t="s">
+      <c r="U47" s="190" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="1:26">
-      <c r="A42" s="187"/>
-      <c r="B42" s="187"/>
-      <c r="C42" s="187"/>
-      <c r="D42" s="187"/>
-      <c r="E42" s="190"/>
-      <c r="F42" s="191"/>
-      <c r="G42" s="187"/>
-      <c r="H42" s="187"/>
-      <c r="I42" s="193"/>
-      <c r="J42" s="193"/>
-      <c r="K42" s="193"/>
-      <c r="L42" s="197"/>
-      <c r="M42" s="192"/>
-      <c r="N42" s="192"/>
-      <c r="O42" s="192"/>
-      <c r="P42" s="29" t="s">
+      <c r="V47" s="197" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26">
+      <c r="A48" s="191"/>
+      <c r="B48" s="191"/>
+      <c r="C48" s="191"/>
+      <c r="D48" s="191"/>
+      <c r="E48" s="194"/>
+      <c r="F48" s="195"/>
+      <c r="G48" s="191"/>
+      <c r="H48" s="191"/>
+      <c r="I48" s="197"/>
+      <c r="J48" s="197"/>
+      <c r="K48" s="197"/>
+      <c r="L48" s="187"/>
+      <c r="M48" s="196"/>
+      <c r="N48" s="196"/>
+      <c r="O48" s="196"/>
+      <c r="P48" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="Q42" s="29" t="s">
+      <c r="Q48" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="R42" s="29" t="s">
+      <c r="R48" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="S42" s="29" t="s">
+      <c r="S48" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="T42" s="29" t="s">
+      <c r="T48" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="U42" s="187"/>
-    </row>
-    <row r="43" spans="1:26" ht="30">
-      <c r="A43" s="7">
+      <c r="U48" s="191"/>
+      <c r="V48" s="197"/>
+    </row>
+    <row r="49" spans="1:22" ht="30">
+      <c r="A49" s="7">
         <v>1</v>
       </c>
-      <c r="B43" s="20" t="s">
+      <c r="B49" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C49" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D43" s="24" t="s">
+      <c r="D49" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="120"/>
-      <c r="G43" s="84" t="s">
+      <c r="E49" s="24"/>
+      <c r="F49" s="120"/>
+      <c r="G49" s="84" t="s">
         <v>141</v>
       </c>
-      <c r="H43" s="24"/>
-      <c r="I43" s="133" t="s">
+      <c r="H49" s="24"/>
+      <c r="I49" s="133" t="s">
         <v>203</v>
       </c>
-      <c r="J43" s="133"/>
-      <c r="K43" s="138" t="s">
+      <c r="J49" s="133"/>
+      <c r="K49" s="138" t="s">
         <v>223</v>
       </c>
-      <c r="L43" s="133"/>
-      <c r="M43" s="24" t="s">
+      <c r="L49" s="133"/>
+      <c r="M49" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="N43" s="24" t="s">
+      <c r="N49" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="O43" s="24" t="s">
+      <c r="O49" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="P43" s="24">
+      <c r="P49" s="24">
         <v>0</v>
       </c>
-      <c r="Q43" s="30">
+      <c r="Q49" s="30">
         <v>10</v>
       </c>
-      <c r="R43" s="24"/>
-      <c r="S43" s="30"/>
-      <c r="T43" s="30"/>
-      <c r="U43" s="9"/>
-    </row>
-    <row r="44" spans="1:26">
-      <c r="A44" s="10">
-        <f t="shared" ref="A44:A49" si="0">A43+1</f>
+      <c r="R49" s="24"/>
+      <c r="S49" s="30"/>
+      <c r="T49" s="30"/>
+      <c r="U49" s="9"/>
+      <c r="V49" s="138"/>
+    </row>
+    <row r="50" spans="1:22">
+      <c r="A50" s="10">
+        <f t="shared" ref="A50:A55" si="0">A49+1</f>
         <v>2</v>
       </c>
-      <c r="B44" s="21" t="s">
+      <c r="B50" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C50" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="D44" s="25" t="s">
+      <c r="D50" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="85" t="s">
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="85" t="s">
         <v>141</v>
       </c>
-      <c r="H44" s="25"/>
-      <c r="I44" s="135" t="s">
+      <c r="H50" s="25"/>
+      <c r="I50" s="135" t="s">
         <v>204</v>
       </c>
-      <c r="J44" s="135"/>
-      <c r="K44" s="136" t="s">
+      <c r="J50" s="135"/>
+      <c r="K50" s="136" t="s">
         <v>205</v>
       </c>
-      <c r="L44" s="135"/>
-      <c r="M44" s="25" t="s">
+      <c r="L50" s="135"/>
+      <c r="M50" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="N44" s="25" t="s">
+      <c r="N50" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="O44" s="25" t="s">
+      <c r="O50" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="P44" s="21"/>
-      <c r="Q44" s="31"/>
-      <c r="R44" s="21">
+      <c r="P50" s="21"/>
+      <c r="Q50" s="31"/>
+      <c r="R50" s="21">
         <v>0</v>
       </c>
-      <c r="S44" s="31">
+      <c r="S50" s="31">
         <v>100</v>
       </c>
-      <c r="T44" s="31"/>
-      <c r="U44" s="12"/>
-    </row>
-    <row r="45" spans="1:26">
-      <c r="A45" s="10">
+      <c r="T50" s="31"/>
+      <c r="U50" s="12"/>
+      <c r="V50" s="136" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22">
+      <c r="A51" s="10">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B45" s="22" t="s">
+      <c r="B51" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="C45" s="13"/>
-      <c r="D45" s="26" t="s">
+      <c r="C51" s="13"/>
+      <c r="D51" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="86" t="s">
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="86" t="s">
         <v>141</v>
       </c>
-      <c r="H45" s="26" t="b">
+      <c r="H51" s="26" t="b">
         <v>1</v>
       </c>
-      <c r="I45" s="135"/>
-      <c r="J45" s="135"/>
-      <c r="K45" s="135"/>
-      <c r="L45" s="135"/>
-      <c r="M45" s="25" t="s">
+      <c r="I51" s="135"/>
+      <c r="J51" s="135"/>
+      <c r="K51" s="135"/>
+      <c r="L51" s="135"/>
+      <c r="M51" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="N45" s="25" t="s">
+      <c r="N51" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="O45" s="25" t="s">
+      <c r="O51" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="P45" s="21"/>
-      <c r="Q45" s="31"/>
-      <c r="R45" s="21"/>
-      <c r="S45" s="31"/>
-      <c r="T45" s="31"/>
-      <c r="U45" s="14"/>
-    </row>
-    <row r="46" spans="1:26">
-      <c r="A46" s="10">
+      <c r="P51" s="21"/>
+      <c r="Q51" s="31"/>
+      <c r="R51" s="21"/>
+      <c r="S51" s="31"/>
+      <c r="T51" s="31"/>
+      <c r="U51" s="14"/>
+      <c r="V51" s="135"/>
+    </row>
+    <row r="52" spans="1:22">
+      <c r="A52" s="10">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B46" s="22" t="s">
+      <c r="B52" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="C46" s="13"/>
-      <c r="D46" s="26" t="s">
+      <c r="C52" s="13"/>
+      <c r="D52" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="E46" s="82"/>
-      <c r="F46" s="82"/>
-      <c r="G46" s="87"/>
-      <c r="H46" s="82"/>
-      <c r="I46" s="135"/>
-      <c r="J46" s="135"/>
-      <c r="K46" s="135"/>
-      <c r="L46" s="135"/>
-      <c r="M46" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="N46" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="O46" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="P46" s="21"/>
-      <c r="Q46" s="31"/>
-      <c r="R46" s="21"/>
-      <c r="S46" s="31"/>
-      <c r="T46" s="31"/>
-      <c r="U46" s="14"/>
-    </row>
-    <row r="47" spans="1:26">
-      <c r="A47" s="10">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B47" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="C47" s="13"/>
-      <c r="D47" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="E47" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="F47" s="26"/>
-      <c r="G47" s="86"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="136"/>
-      <c r="J47" s="136"/>
-      <c r="K47" s="136"/>
-      <c r="L47" s="136"/>
-      <c r="M47" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="N47" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="O47" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="P47" s="25"/>
-      <c r="Q47" s="32"/>
-      <c r="R47" s="25"/>
-      <c r="S47" s="32"/>
-      <c r="T47" s="32"/>
-      <c r="U47" s="14" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="48" spans="1:26">
-      <c r="A48" s="10">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B48" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="C48" s="13"/>
-      <c r="D48" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="E48" s="26"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="86"/>
-      <c r="H48" s="26"/>
-      <c r="I48" s="135"/>
-      <c r="J48" s="135"/>
-      <c r="K48" s="135"/>
-      <c r="L48" s="135"/>
-      <c r="M48" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="N48" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="O48" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="P48" s="21"/>
-      <c r="Q48" s="31"/>
-      <c r="R48" s="21"/>
-      <c r="S48" s="31"/>
-      <c r="T48" s="31"/>
-      <c r="U48" s="14"/>
-    </row>
-    <row r="49" spans="1:21">
-      <c r="A49" s="10">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B49" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="C49" s="13"/>
-      <c r="D49" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="86"/>
-      <c r="H49" s="26"/>
-      <c r="I49" s="136"/>
-      <c r="J49" s="136"/>
-      <c r="K49" s="136"/>
-      <c r="L49" s="136"/>
-      <c r="M49" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="N49" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="O49" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="P49" s="21"/>
-      <c r="Q49" s="31"/>
-      <c r="R49" s="21"/>
-      <c r="S49" s="31"/>
-      <c r="T49" s="31"/>
-      <c r="U49" s="14"/>
-    </row>
-    <row r="50" spans="1:21">
-      <c r="A50" s="10"/>
-      <c r="B50" s="22"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="86"/>
-      <c r="H50" s="26"/>
-      <c r="I50" s="135"/>
-      <c r="J50" s="135"/>
-      <c r="K50" s="135"/>
-      <c r="L50" s="135"/>
-      <c r="M50" s="25"/>
-      <c r="N50" s="25"/>
-      <c r="O50" s="25"/>
-      <c r="P50" s="21"/>
-      <c r="Q50" s="31"/>
-      <c r="R50" s="21"/>
-      <c r="S50" s="31"/>
-      <c r="T50" s="31"/>
-      <c r="U50" s="14"/>
-    </row>
-    <row r="51" spans="1:21">
-      <c r="A51" s="10"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="26"/>
-      <c r="G51" s="86"/>
-      <c r="H51" s="26"/>
-      <c r="I51" s="136"/>
-      <c r="J51" s="136"/>
-      <c r="K51" s="136"/>
-      <c r="L51" s="136"/>
-      <c r="M51" s="25"/>
-      <c r="N51" s="25"/>
-      <c r="O51" s="25"/>
-      <c r="P51" s="25"/>
-      <c r="Q51" s="32"/>
-      <c r="R51" s="25"/>
-      <c r="S51" s="32"/>
-      <c r="T51" s="32"/>
-      <c r="U51" s="14"/>
-    </row>
-    <row r="52" spans="1:21">
-      <c r="A52" s="10"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="26"/>
-      <c r="G52" s="86"/>
-      <c r="H52" s="26"/>
+      <c r="E52" s="82"/>
+      <c r="F52" s="82"/>
+      <c r="G52" s="87"/>
+      <c r="H52" s="82"/>
       <c r="I52" s="135"/>
       <c r="J52" s="135"/>
       <c r="K52" s="135"/>
       <c r="L52" s="135"/>
-      <c r="M52" s="25"/>
-      <c r="N52" s="25"/>
-      <c r="O52" s="25"/>
+      <c r="M52" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="N52" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="O52" s="25" t="s">
+        <v>141</v>
+      </c>
       <c r="P52" s="21"/>
       <c r="Q52" s="31"/>
       <c r="R52" s="21"/>
       <c r="S52" s="31"/>
       <c r="T52" s="31"/>
       <c r="U52" s="14"/>
-    </row>
-    <row r="53" spans="1:21">
-      <c r="A53" s="10"/>
-      <c r="B53" s="22"/>
+      <c r="V52" s="135"/>
+    </row>
+    <row r="53" spans="1:22">
+      <c r="A53" s="10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B53" s="22" t="s">
+        <v>97</v>
+      </c>
       <c r="C53" s="13"/>
-      <c r="D53" s="26"/>
-      <c r="E53" s="26"/>
+      <c r="D53" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="E53" s="26" t="s">
+        <v>168</v>
+      </c>
       <c r="F53" s="26"/>
       <c r="G53" s="86"/>
       <c r="H53" s="26"/>
-      <c r="I53" s="135"/>
-      <c r="J53" s="135"/>
-      <c r="K53" s="135"/>
-      <c r="L53" s="135"/>
-      <c r="M53" s="25"/>
-      <c r="N53" s="25"/>
-      <c r="O53" s="25"/>
-      <c r="P53" s="21"/>
-      <c r="Q53" s="31"/>
-      <c r="R53" s="21"/>
-      <c r="S53" s="31"/>
-      <c r="T53" s="31"/>
-      <c r="U53" s="14"/>
-    </row>
-    <row r="54" spans="1:21">
-      <c r="A54" s="10"/>
-      <c r="B54" s="22"/>
+      <c r="I53" s="136"/>
+      <c r="J53" s="136"/>
+      <c r="K53" s="136"/>
+      <c r="L53" s="136"/>
+      <c r="M53" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="N53" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="O53" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="P53" s="25"/>
+      <c r="Q53" s="32"/>
+      <c r="R53" s="25"/>
+      <c r="S53" s="32"/>
+      <c r="T53" s="32"/>
+      <c r="U53" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="V53" s="136"/>
+    </row>
+    <row r="54" spans="1:22">
+      <c r="A54" s="10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B54" s="22" t="s">
+        <v>98</v>
+      </c>
       <c r="C54" s="13"/>
-      <c r="D54" s="26"/>
+      <c r="D54" s="26" t="s">
+        <v>113</v>
+      </c>
       <c r="E54" s="26"/>
       <c r="F54" s="26"/>
       <c r="G54" s="86"/>
@@ -6548,40 +6567,61 @@
       <c r="J54" s="135"/>
       <c r="K54" s="135"/>
       <c r="L54" s="135"/>
-      <c r="M54" s="25"/>
-      <c r="N54" s="25"/>
-      <c r="O54" s="25"/>
+      <c r="M54" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="N54" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="O54" s="25" t="s">
+        <v>141</v>
+      </c>
       <c r="P54" s="21"/>
       <c r="Q54" s="31"/>
       <c r="R54" s="21"/>
       <c r="S54" s="31"/>
       <c r="T54" s="31"/>
       <c r="U54" s="14"/>
-    </row>
-    <row r="55" spans="1:21">
-      <c r="A55" s="10"/>
-      <c r="B55" s="22"/>
+      <c r="V54" s="135"/>
+    </row>
+    <row r="55" spans="1:22">
+      <c r="A55" s="10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>115</v>
+      </c>
       <c r="C55" s="13"/>
-      <c r="D55" s="26"/>
+      <c r="D55" s="26" t="s">
+        <v>169</v>
+      </c>
       <c r="E55" s="26"/>
       <c r="F55" s="26"/>
       <c r="G55" s="86"/>
       <c r="H55" s="26"/>
-      <c r="I55" s="135"/>
-      <c r="J55" s="135"/>
-      <c r="K55" s="135"/>
-      <c r="L55" s="135"/>
-      <c r="M55" s="25"/>
-      <c r="N55" s="25"/>
-      <c r="O55" s="25"/>
+      <c r="I55" s="136"/>
+      <c r="J55" s="136"/>
+      <c r="K55" s="136"/>
+      <c r="L55" s="136"/>
+      <c r="M55" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="N55" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="O55" s="25" t="s">
+        <v>141</v>
+      </c>
       <c r="P55" s="21"/>
       <c r="Q55" s="31"/>
       <c r="R55" s="21"/>
       <c r="S55" s="31"/>
       <c r="T55" s="31"/>
       <c r="U55" s="14"/>
-    </row>
-    <row r="56" spans="1:21">
+      <c r="V55" s="136"/>
+    </row>
+    <row r="56" spans="1:22">
       <c r="A56" s="10"/>
       <c r="B56" s="22"/>
       <c r="C56" s="13"/>
@@ -6603,8 +6643,9 @@
       <c r="S56" s="31"/>
       <c r="T56" s="31"/>
       <c r="U56" s="14"/>
-    </row>
-    <row r="57" spans="1:21">
+      <c r="V56" s="135"/>
+    </row>
+    <row r="57" spans="1:22">
       <c r="A57" s="10"/>
       <c r="B57" s="22"/>
       <c r="C57" s="13"/>
@@ -6613,10 +6654,10 @@
       <c r="F57" s="26"/>
       <c r="G57" s="86"/>
       <c r="H57" s="26"/>
-      <c r="I57" s="26"/>
-      <c r="J57" s="26"/>
-      <c r="K57" s="26"/>
-      <c r="L57" s="26"/>
+      <c r="I57" s="136"/>
+      <c r="J57" s="136"/>
+      <c r="K57" s="136"/>
+      <c r="L57" s="136"/>
       <c r="M57" s="25"/>
       <c r="N57" s="25"/>
       <c r="O57" s="25"/>
@@ -6626,8 +6667,9 @@
       <c r="S57" s="32"/>
       <c r="T57" s="32"/>
       <c r="U57" s="14"/>
-    </row>
-    <row r="58" spans="1:21">
+      <c r="V57" s="136"/>
+    </row>
+    <row r="58" spans="1:22">
       <c r="A58" s="10"/>
       <c r="B58" s="22"/>
       <c r="C58" s="13"/>
@@ -6636,10 +6678,10 @@
       <c r="F58" s="26"/>
       <c r="G58" s="86"/>
       <c r="H58" s="26"/>
-      <c r="I58" s="26"/>
-      <c r="J58" s="26"/>
-      <c r="K58" s="26"/>
-      <c r="L58" s="26"/>
+      <c r="I58" s="135"/>
+      <c r="J58" s="135"/>
+      <c r="K58" s="135"/>
+      <c r="L58" s="135"/>
       <c r="M58" s="25"/>
       <c r="N58" s="25"/>
       <c r="O58" s="25"/>
@@ -6649,8 +6691,9 @@
       <c r="S58" s="31"/>
       <c r="T58" s="31"/>
       <c r="U58" s="14"/>
-    </row>
-    <row r="59" spans="1:21">
+      <c r="V58" s="135"/>
+    </row>
+    <row r="59" spans="1:22">
       <c r="A59" s="10"/>
       <c r="B59" s="22"/>
       <c r="C59" s="13"/>
@@ -6659,10 +6702,10 @@
       <c r="F59" s="26"/>
       <c r="G59" s="86"/>
       <c r="H59" s="26"/>
-      <c r="I59" s="26"/>
-      <c r="J59" s="26"/>
-      <c r="K59" s="26"/>
-      <c r="L59" s="26"/>
+      <c r="I59" s="135"/>
+      <c r="J59" s="135"/>
+      <c r="K59" s="135"/>
+      <c r="L59" s="135"/>
       <c r="M59" s="25"/>
       <c r="N59" s="25"/>
       <c r="O59" s="25"/>
@@ -6672,8 +6715,9 @@
       <c r="S59" s="31"/>
       <c r="T59" s="31"/>
       <c r="U59" s="14"/>
-    </row>
-    <row r="60" spans="1:21">
+      <c r="V59" s="135"/>
+    </row>
+    <row r="60" spans="1:22">
       <c r="A60" s="10"/>
       <c r="B60" s="22"/>
       <c r="C60" s="13"/>
@@ -6682,10 +6726,10 @@
       <c r="F60" s="26"/>
       <c r="G60" s="86"/>
       <c r="H60" s="26"/>
-      <c r="I60" s="26"/>
-      <c r="J60" s="26"/>
-      <c r="K60" s="26"/>
-      <c r="L60" s="26"/>
+      <c r="I60" s="135"/>
+      <c r="J60" s="135"/>
+      <c r="K60" s="135"/>
+      <c r="L60" s="135"/>
       <c r="M60" s="25"/>
       <c r="N60" s="25"/>
       <c r="O60" s="25"/>
@@ -6695,8 +6739,9 @@
       <c r="S60" s="31"/>
       <c r="T60" s="31"/>
       <c r="U60" s="14"/>
-    </row>
-    <row r="61" spans="1:21">
+      <c r="V60" s="135"/>
+    </row>
+    <row r="61" spans="1:22">
       <c r="A61" s="10"/>
       <c r="B61" s="22"/>
       <c r="C61" s="13"/>
@@ -6705,10 +6750,10 @@
       <c r="F61" s="26"/>
       <c r="G61" s="86"/>
       <c r="H61" s="26"/>
-      <c r="I61" s="26"/>
-      <c r="J61" s="26"/>
-      <c r="K61" s="26"/>
-      <c r="L61" s="26"/>
+      <c r="I61" s="135"/>
+      <c r="J61" s="135"/>
+      <c r="K61" s="135"/>
+      <c r="L61" s="135"/>
       <c r="M61" s="25"/>
       <c r="N61" s="25"/>
       <c r="O61" s="25"/>
@@ -6718,8 +6763,9 @@
       <c r="S61" s="31"/>
       <c r="T61" s="31"/>
       <c r="U61" s="14"/>
-    </row>
-    <row r="62" spans="1:21">
+      <c r="V61" s="135"/>
+    </row>
+    <row r="62" spans="1:22">
       <c r="A62" s="10"/>
       <c r="B62" s="22"/>
       <c r="C62" s="13"/>
@@ -6728,21 +6774,22 @@
       <c r="F62" s="26"/>
       <c r="G62" s="86"/>
       <c r="H62" s="26"/>
-      <c r="I62" s="26"/>
-      <c r="J62" s="26"/>
-      <c r="K62" s="26"/>
-      <c r="L62" s="26"/>
+      <c r="I62" s="135"/>
+      <c r="J62" s="135"/>
+      <c r="K62" s="135"/>
+      <c r="L62" s="135"/>
       <c r="M62" s="25"/>
       <c r="N62" s="25"/>
       <c r="O62" s="25"/>
-      <c r="P62" s="25"/>
-      <c r="Q62" s="32"/>
-      <c r="R62" s="25"/>
-      <c r="S62" s="32"/>
-      <c r="T62" s="32"/>
+      <c r="P62" s="21"/>
+      <c r="Q62" s="31"/>
+      <c r="R62" s="21"/>
+      <c r="S62" s="31"/>
+      <c r="T62" s="31"/>
       <c r="U62" s="14"/>
-    </row>
-    <row r="63" spans="1:21">
+      <c r="V62" s="135"/>
+    </row>
+    <row r="63" spans="1:22">
       <c r="A63" s="10"/>
       <c r="B63" s="22"/>
       <c r="C63" s="13"/>
@@ -6758,14 +6805,15 @@
       <c r="M63" s="25"/>
       <c r="N63" s="25"/>
       <c r="O63" s="25"/>
-      <c r="P63" s="21"/>
-      <c r="Q63" s="31"/>
-      <c r="R63" s="21"/>
-      <c r="S63" s="31"/>
-      <c r="T63" s="31"/>
+      <c r="P63" s="25"/>
+      <c r="Q63" s="32"/>
+      <c r="R63" s="25"/>
+      <c r="S63" s="32"/>
+      <c r="T63" s="32"/>
       <c r="U63" s="14"/>
-    </row>
-    <row r="64" spans="1:21">
+      <c r="V63" s="26"/>
+    </row>
+    <row r="64" spans="1:22">
       <c r="A64" s="10"/>
       <c r="B64" s="22"/>
       <c r="C64" s="13"/>
@@ -6787,8 +6835,9 @@
       <c r="S64" s="31"/>
       <c r="T64" s="31"/>
       <c r="U64" s="14"/>
-    </row>
-    <row r="65" spans="1:21">
+      <c r="V64" s="26"/>
+    </row>
+    <row r="65" spans="1:22">
       <c r="A65" s="10"/>
       <c r="B65" s="22"/>
       <c r="C65" s="13"/>
@@ -6804,48 +6853,206 @@
       <c r="M65" s="25"/>
       <c r="N65" s="25"/>
       <c r="O65" s="25"/>
-      <c r="P65" s="25"/>
-      <c r="Q65" s="32"/>
-      <c r="R65" s="25"/>
-      <c r="S65" s="32"/>
-      <c r="T65" s="32"/>
+      <c r="P65" s="21"/>
+      <c r="Q65" s="31"/>
+      <c r="R65" s="21"/>
+      <c r="S65" s="31"/>
+      <c r="T65" s="31"/>
       <c r="U65" s="14"/>
-    </row>
-    <row r="66" spans="1:21">
-      <c r="A66" s="15"/>
-      <c r="B66" s="23"/>
-      <c r="C66" s="16"/>
-      <c r="D66" s="27"/>
-      <c r="E66" s="27"/>
-      <c r="F66" s="27"/>
-      <c r="G66" s="88"/>
-      <c r="H66" s="27"/>
-      <c r="I66" s="27"/>
-      <c r="J66" s="27"/>
-      <c r="K66" s="27"/>
-      <c r="L66" s="27"/>
-      <c r="M66" s="27"/>
-      <c r="N66" s="27"/>
-      <c r="O66" s="27"/>
-      <c r="P66" s="23"/>
-      <c r="Q66" s="33"/>
-      <c r="R66" s="23"/>
-      <c r="S66" s="33"/>
-      <c r="T66" s="33"/>
-      <c r="U66" s="17"/>
+      <c r="V65" s="26"/>
+    </row>
+    <row r="66" spans="1:22">
+      <c r="A66" s="10"/>
+      <c r="B66" s="22"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="26"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="26"/>
+      <c r="G66" s="86"/>
+      <c r="H66" s="26"/>
+      <c r="I66" s="26"/>
+      <c r="J66" s="26"/>
+      <c r="K66" s="26"/>
+      <c r="L66" s="26"/>
+      <c r="M66" s="25"/>
+      <c r="N66" s="25"/>
+      <c r="O66" s="25"/>
+      <c r="P66" s="21"/>
+      <c r="Q66" s="31"/>
+      <c r="R66" s="21"/>
+      <c r="S66" s="31"/>
+      <c r="T66" s="31"/>
+      <c r="U66" s="14"/>
+      <c r="V66" s="26"/>
+    </row>
+    <row r="67" spans="1:22">
+      <c r="A67" s="10"/>
+      <c r="B67" s="22"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="26"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="26"/>
+      <c r="G67" s="86"/>
+      <c r="H67" s="26"/>
+      <c r="I67" s="26"/>
+      <c r="J67" s="26"/>
+      <c r="K67" s="26"/>
+      <c r="L67" s="26"/>
+      <c r="M67" s="25"/>
+      <c r="N67" s="25"/>
+      <c r="O67" s="25"/>
+      <c r="P67" s="21"/>
+      <c r="Q67" s="31"/>
+      <c r="R67" s="21"/>
+      <c r="S67" s="31"/>
+      <c r="T67" s="31"/>
+      <c r="U67" s="14"/>
+      <c r="V67" s="26"/>
+    </row>
+    <row r="68" spans="1:22">
+      <c r="A68" s="10"/>
+      <c r="B68" s="22"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="26"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="26"/>
+      <c r="G68" s="86"/>
+      <c r="H68" s="26"/>
+      <c r="I68" s="26"/>
+      <c r="J68" s="26"/>
+      <c r="K68" s="26"/>
+      <c r="L68" s="26"/>
+      <c r="M68" s="25"/>
+      <c r="N68" s="25"/>
+      <c r="O68" s="25"/>
+      <c r="P68" s="25"/>
+      <c r="Q68" s="32"/>
+      <c r="R68" s="25"/>
+      <c r="S68" s="32"/>
+      <c r="T68" s="32"/>
+      <c r="U68" s="14"/>
+      <c r="V68" s="26"/>
+    </row>
+    <row r="69" spans="1:22">
+      <c r="A69" s="10"/>
+      <c r="B69" s="22"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="26"/>
+      <c r="G69" s="86"/>
+      <c r="H69" s="26"/>
+      <c r="I69" s="26"/>
+      <c r="J69" s="26"/>
+      <c r="K69" s="26"/>
+      <c r="L69" s="26"/>
+      <c r="M69" s="25"/>
+      <c r="N69" s="25"/>
+      <c r="O69" s="25"/>
+      <c r="P69" s="21"/>
+      <c r="Q69" s="31"/>
+      <c r="R69" s="21"/>
+      <c r="S69" s="31"/>
+      <c r="T69" s="31"/>
+      <c r="U69" s="14"/>
+      <c r="V69" s="26"/>
+    </row>
+    <row r="70" spans="1:22">
+      <c r="A70" s="10"/>
+      <c r="B70" s="22"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="26"/>
+      <c r="E70" s="26"/>
+      <c r="F70" s="26"/>
+      <c r="G70" s="86"/>
+      <c r="H70" s="26"/>
+      <c r="I70" s="26"/>
+      <c r="J70" s="26"/>
+      <c r="K70" s="26"/>
+      <c r="L70" s="26"/>
+      <c r="M70" s="25"/>
+      <c r="N70" s="25"/>
+      <c r="O70" s="25"/>
+      <c r="P70" s="21"/>
+      <c r="Q70" s="31"/>
+      <c r="R70" s="21"/>
+      <c r="S70" s="31"/>
+      <c r="T70" s="31"/>
+      <c r="U70" s="14"/>
+      <c r="V70" s="26"/>
+    </row>
+    <row r="71" spans="1:22">
+      <c r="A71" s="10"/>
+      <c r="B71" s="22"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="26"/>
+      <c r="E71" s="26"/>
+      <c r="F71" s="26"/>
+      <c r="G71" s="86"/>
+      <c r="H71" s="26"/>
+      <c r="I71" s="26"/>
+      <c r="J71" s="26"/>
+      <c r="K71" s="26"/>
+      <c r="L71" s="26"/>
+      <c r="M71" s="25"/>
+      <c r="N71" s="25"/>
+      <c r="O71" s="25"/>
+      <c r="P71" s="25"/>
+      <c r="Q71" s="32"/>
+      <c r="R71" s="25"/>
+      <c r="S71" s="32"/>
+      <c r="T71" s="32"/>
+      <c r="U71" s="14"/>
+      <c r="V71" s="26"/>
+    </row>
+    <row r="72" spans="1:22">
+      <c r="A72" s="15"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="27"/>
+      <c r="E72" s="27"/>
+      <c r="F72" s="27"/>
+      <c r="G72" s="88"/>
+      <c r="H72" s="27"/>
+      <c r="I72" s="27"/>
+      <c r="J72" s="27"/>
+      <c r="K72" s="27"/>
+      <c r="L72" s="27"/>
+      <c r="M72" s="27"/>
+      <c r="N72" s="27"/>
+      <c r="O72" s="27"/>
+      <c r="P72" s="23"/>
+      <c r="Q72" s="33"/>
+      <c r="R72" s="23"/>
+      <c r="S72" s="33"/>
+      <c r="T72" s="33"/>
+      <c r="U72" s="17"/>
+      <c r="V72" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="L41:L42"/>
+  <mergeCells count="43">
+    <mergeCell ref="V47:V48"/>
+    <mergeCell ref="U47:U48"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="O47:O48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="M47:M48"/>
+    <mergeCell ref="R47:S47"/>
+    <mergeCell ref="N47:N48"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="P47:Q47"/>
     <mergeCell ref="B31:G31"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="A39:G39"/>
+    <mergeCell ref="B40:G40"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
@@ -6856,23 +7063,17 @@
     <mergeCell ref="B25:G25"/>
     <mergeCell ref="A27:G27"/>
     <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="B34:G34"/>
     <mergeCell ref="B35:G35"/>
-    <mergeCell ref="U41:U42"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="O41:O42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="R41:S41"/>
-    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B37:G37"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -6882,7 +7083,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C19" xr:uid="{C2D0C7F4-19B0-DB40-AFFD-E6928EE4E5C2}">
       <formula1>isImport</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M43:O66" xr:uid="{1FBC7B49-ABAE-AE4A-8A55-EF1A4EFC4446}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M49:O72" xr:uid="{1FBC7B49-ABAE-AE4A-8A55-EF1A4EFC4446}">
       <formula1>isNullable</formula1>
     </dataValidation>
   </dataValidations>
@@ -6914,7 +7115,7 @@
           <x14:formula1>
             <xm:f>config!$B$5:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>G43:G66</xm:sqref>
+          <xm:sqref>G49:G72</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7105,10 +7306,10 @@
         <v>173</v>
       </c>
       <c r="B12" s="122"/>
-      <c r="C12" s="141" t="s">
+      <c r="C12" s="165" t="s">
         <v>174</v>
       </c>
-      <c r="D12" s="141"/>
+      <c r="D12" s="165"/>
       <c r="E12" s="95" t="s">
         <v>175</v>
       </c>
@@ -7123,10 +7324,10 @@
         <v>225</v>
       </c>
       <c r="B13" s="122"/>
-      <c r="C13" s="142" t="s">
+      <c r="C13" s="164" t="s">
         <v>229</v>
       </c>
-      <c r="D13" s="141"/>
+      <c r="D13" s="165"/>
       <c r="E13" s="55" t="s">
         <v>226</v>
       </c>
@@ -7146,10 +7347,10 @@
         <v>176</v>
       </c>
       <c r="B14" s="122"/>
-      <c r="C14" s="141" t="s">
+      <c r="C14" s="165" t="s">
         <v>177</v>
       </c>
-      <c r="D14" s="141"/>
+      <c r="D14" s="165"/>
       <c r="E14" s="55"/>
       <c r="F14" s="55"/>
       <c r="G14" s="54"/>
@@ -7161,8 +7362,8 @@
         <v>227</v>
       </c>
       <c r="B15" s="122"/>
-      <c r="C15" s="142"/>
-      <c r="D15" s="141"/>
+      <c r="C15" s="164"/>
+      <c r="D15" s="165"/>
       <c r="E15" s="55" t="s">
         <v>228</v>
       </c>
@@ -7210,15 +7411,15 @@
       <c r="L17"/>
     </row>
     <row r="18" spans="1:22">
-      <c r="A18" s="179" t="s">
+      <c r="A18" s="157" t="s">
         <v>191</v>
       </c>
-      <c r="B18" s="179"/>
-      <c r="C18" s="179"/>
-      <c r="D18" s="179"/>
-      <c r="E18" s="179"/>
-      <c r="F18" s="179"/>
-      <c r="G18" s="179"/>
+      <c r="B18" s="157"/>
+      <c r="C18" s="157"/>
+      <c r="D18" s="157"/>
+      <c r="E18" s="157"/>
+      <c r="F18" s="157"/>
+      <c r="G18" s="157"/>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
@@ -7229,14 +7430,14 @@
       <c r="A19" s="115" t="s">
         <v>69</v>
       </c>
-      <c r="B19" s="173" t="s">
+      <c r="B19" s="151" t="s">
         <v>182</v>
       </c>
-      <c r="C19" s="174"/>
-      <c r="D19" s="174"/>
-      <c r="E19" s="174"/>
-      <c r="F19" s="174"/>
-      <c r="G19" s="175"/>
+      <c r="C19" s="152"/>
+      <c r="D19" s="152"/>
+      <c r="E19" s="152"/>
+      <c r="F19" s="152"/>
+      <c r="G19" s="153"/>
       <c r="H19" s="105"/>
       <c r="I19"/>
       <c r="J19"/>
@@ -7252,12 +7453,12 @@
     </row>
     <row r="20" spans="1:22">
       <c r="A20" s="116"/>
-      <c r="B20" s="157"/>
-      <c r="C20" s="157"/>
-      <c r="D20" s="157"/>
-      <c r="E20" s="157"/>
-      <c r="F20" s="157"/>
-      <c r="G20" s="157"/>
+      <c r="B20" s="168"/>
+      <c r="C20" s="168"/>
+      <c r="D20" s="168"/>
+      <c r="E20" s="168"/>
+      <c r="F20" s="168"/>
+      <c r="G20" s="168"/>
       <c r="H20" s="112"/>
       <c r="I20"/>
       <c r="J20"/>
@@ -7272,12 +7473,12 @@
     </row>
     <row r="21" spans="1:22">
       <c r="A21" s="117"/>
-      <c r="B21" s="159"/>
-      <c r="C21" s="159"/>
-      <c r="D21" s="159"/>
-      <c r="E21" s="159"/>
-      <c r="F21" s="159"/>
-      <c r="G21" s="159"/>
+      <c r="B21" s="169"/>
+      <c r="C21" s="169"/>
+      <c r="D21" s="169"/>
+      <c r="E21" s="169"/>
+      <c r="F21" s="169"/>
+      <c r="G21" s="169"/>
       <c r="H21" s="112"/>
       <c r="I21"/>
       <c r="J21"/>
@@ -7292,12 +7493,12 @@
     </row>
     <row r="22" spans="1:22">
       <c r="A22" s="118"/>
-      <c r="B22" s="161"/>
-      <c r="C22" s="161"/>
-      <c r="D22" s="161"/>
-      <c r="E22" s="161"/>
-      <c r="F22" s="161"/>
-      <c r="G22" s="161"/>
+      <c r="B22" s="170"/>
+      <c r="C22" s="170"/>
+      <c r="D22" s="170"/>
+      <c r="E22" s="170"/>
+      <c r="F22" s="170"/>
+      <c r="G22" s="170"/>
       <c r="H22" s="112"/>
       <c r="I22"/>
       <c r="J22"/>
@@ -7324,15 +7525,15 @@
       <c r="O23" s="112"/>
     </row>
     <row r="24" spans="1:22">
-      <c r="A24" s="176" t="s">
+      <c r="A24" s="154" t="s">
         <v>192</v>
       </c>
-      <c r="B24" s="177"/>
-      <c r="C24" s="177"/>
-      <c r="D24" s="177"/>
-      <c r="E24" s="177"/>
-      <c r="F24" s="177"/>
-      <c r="G24" s="178"/>
+      <c r="B24" s="155"/>
+      <c r="C24" s="155"/>
+      <c r="D24" s="155"/>
+      <c r="E24" s="155"/>
+      <c r="F24" s="155"/>
+      <c r="G24" s="156"/>
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24"/>
@@ -7345,14 +7546,14 @@
       <c r="A25" s="115" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="153" t="s">
+      <c r="B25" s="174" t="s">
         <v>183</v>
       </c>
-      <c r="C25" s="153"/>
-      <c r="D25" s="153"/>
-      <c r="E25" s="153"/>
-      <c r="F25" s="153"/>
-      <c r="G25" s="153"/>
+      <c r="C25" s="174"/>
+      <c r="D25" s="174"/>
+      <c r="E25" s="174"/>
+      <c r="F25" s="174"/>
+      <c r="G25" s="174"/>
       <c r="H25" s="105"/>
       <c r="M25" s="112"/>
       <c r="N25" s="112"/>
@@ -7368,14 +7569,14 @@
       <c r="A26" s="116">
         <v>1</v>
       </c>
-      <c r="B26" s="154" t="s">
+      <c r="B26" s="175" t="s">
         <v>184</v>
       </c>
-      <c r="C26" s="154"/>
-      <c r="D26" s="154"/>
-      <c r="E26" s="154"/>
-      <c r="F26" s="154"/>
-      <c r="G26" s="154"/>
+      <c r="C26" s="175"/>
+      <c r="D26" s="175"/>
+      <c r="E26" s="175"/>
+      <c r="F26" s="175"/>
+      <c r="G26" s="175"/>
       <c r="H26" s="112"/>
       <c r="I26" s="105"/>
       <c r="J26" s="105"/>
@@ -7390,12 +7591,12 @@
     </row>
     <row r="27" spans="1:22">
       <c r="A27" s="117"/>
-      <c r="B27" s="155"/>
-      <c r="C27" s="155"/>
-      <c r="D27" s="155"/>
-      <c r="E27" s="155"/>
-      <c r="F27" s="155"/>
-      <c r="G27" s="155"/>
+      <c r="B27" s="176"/>
+      <c r="C27" s="176"/>
+      <c r="D27" s="176"/>
+      <c r="E27" s="176"/>
+      <c r="F27" s="176"/>
+      <c r="G27" s="176"/>
       <c r="H27" s="112"/>
       <c r="I27" s="105"/>
       <c r="J27" s="105"/>
@@ -7410,12 +7611,12 @@
     </row>
     <row r="28" spans="1:22">
       <c r="A28" s="118"/>
-      <c r="B28" s="156"/>
-      <c r="C28" s="156"/>
-      <c r="D28" s="156"/>
-      <c r="E28" s="156"/>
-      <c r="F28" s="156"/>
-      <c r="G28" s="156"/>
+      <c r="B28" s="177"/>
+      <c r="C28" s="177"/>
+      <c r="D28" s="177"/>
+      <c r="E28" s="177"/>
+      <c r="F28" s="177"/>
+      <c r="G28" s="177"/>
       <c r="H28" s="112"/>
       <c r="I28" s="105"/>
       <c r="J28" s="105"/>
@@ -7454,15 +7655,15 @@
       <c r="T29"/>
     </row>
     <row r="30" spans="1:22">
-      <c r="A30" s="176" t="s">
+      <c r="A30" s="154" t="s">
         <v>193</v>
       </c>
-      <c r="B30" s="177"/>
-      <c r="C30" s="177"/>
-      <c r="D30" s="177"/>
-      <c r="E30" s="177"/>
-      <c r="F30" s="177"/>
-      <c r="G30" s="178"/>
+      <c r="B30" s="155"/>
+      <c r="C30" s="155"/>
+      <c r="D30" s="155"/>
+      <c r="E30" s="155"/>
+      <c r="F30" s="155"/>
+      <c r="G30" s="156"/>
       <c r="M30" s="112"/>
       <c r="N30" s="112"/>
       <c r="O30" s="112"/>
@@ -7471,14 +7672,14 @@
       <c r="A31" s="115" t="s">
         <v>69</v>
       </c>
-      <c r="B31" s="153" t="s">
+      <c r="B31" s="174" t="s">
         <v>185</v>
       </c>
-      <c r="C31" s="153"/>
-      <c r="D31" s="153"/>
-      <c r="E31" s="153"/>
-      <c r="F31" s="153"/>
-      <c r="G31" s="153"/>
+      <c r="C31" s="174"/>
+      <c r="D31" s="174"/>
+      <c r="E31" s="174"/>
+      <c r="F31" s="174"/>
+      <c r="G31" s="174"/>
       <c r="H31" s="105"/>
       <c r="I31" s="105"/>
       <c r="J31" s="105"/>
@@ -7496,12 +7697,12 @@
     </row>
     <row r="32" spans="1:22">
       <c r="A32" s="116"/>
-      <c r="B32" s="157"/>
-      <c r="C32" s="157"/>
-      <c r="D32" s="157"/>
-      <c r="E32" s="157"/>
-      <c r="F32" s="157"/>
-      <c r="G32" s="158"/>
+      <c r="B32" s="168"/>
+      <c r="C32" s="168"/>
+      <c r="D32" s="168"/>
+      <c r="E32" s="168"/>
+      <c r="F32" s="168"/>
+      <c r="G32" s="178"/>
       <c r="H32" s="112"/>
       <c r="I32" s="112"/>
       <c r="J32" s="112"/>
@@ -7519,12 +7720,12 @@
     </row>
     <row r="33" spans="1:22">
       <c r="A33" s="117"/>
-      <c r="B33" s="159"/>
-      <c r="C33" s="159"/>
-      <c r="D33" s="159"/>
-      <c r="E33" s="159"/>
-      <c r="F33" s="159"/>
-      <c r="G33" s="160"/>
+      <c r="B33" s="169"/>
+      <c r="C33" s="169"/>
+      <c r="D33" s="169"/>
+      <c r="E33" s="169"/>
+      <c r="F33" s="169"/>
+      <c r="G33" s="179"/>
       <c r="H33" s="112"/>
       <c r="I33" s="112"/>
       <c r="J33" s="112"/>
@@ -7539,12 +7740,12 @@
     </row>
     <row r="34" spans="1:22">
       <c r="A34" s="118"/>
-      <c r="B34" s="161"/>
-      <c r="C34" s="161"/>
-      <c r="D34" s="161"/>
-      <c r="E34" s="161"/>
-      <c r="F34" s="161"/>
-      <c r="G34" s="162"/>
+      <c r="B34" s="170"/>
+      <c r="C34" s="170"/>
+      <c r="D34" s="170"/>
+      <c r="E34" s="170"/>
+      <c r="F34" s="170"/>
+      <c r="G34" s="180"/>
       <c r="H34" s="112"/>
       <c r="I34" s="112"/>
       <c r="J34" s="112"/>
@@ -7614,84 +7815,84 @@
       <c r="U37" s="58"/>
     </row>
     <row r="38" spans="1:22" ht="30" customHeight="1">
-      <c r="A38" s="189" t="s">
+      <c r="A38" s="193" t="s">
         <v>118</v>
       </c>
-      <c r="B38" s="189" t="s">
+      <c r="B38" s="193" t="s">
         <v>119</v>
       </c>
       <c r="C38" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="D38" s="189" t="s">
+      <c r="D38" s="193" t="s">
         <v>101</v>
       </c>
-      <c r="E38" s="189" t="s">
+      <c r="E38" s="193" t="s">
         <v>161</v>
       </c>
-      <c r="F38" s="189" t="s">
+      <c r="F38" s="193" t="s">
         <v>176</v>
       </c>
-      <c r="G38" s="189" t="s">
+      <c r="G38" s="193" t="s">
         <v>140</v>
       </c>
-      <c r="H38" s="189" t="s">
+      <c r="H38" s="193" t="s">
         <v>139</v>
       </c>
-      <c r="I38" s="203" t="s">
+      <c r="I38" s="201" t="s">
         <v>199</v>
       </c>
-      <c r="J38" s="205" t="s">
+      <c r="J38" s="203" t="s">
         <v>200</v>
       </c>
-      <c r="K38" s="205" t="s">
+      <c r="K38" s="203" t="s">
         <v>201</v>
       </c>
-      <c r="L38" s="196" t="s">
+      <c r="L38" s="186" t="s">
         <v>202</v>
       </c>
-      <c r="M38" s="186" t="s">
+      <c r="M38" s="190" t="s">
         <v>194</v>
       </c>
-      <c r="N38" s="186" t="s">
+      <c r="N38" s="190" t="s">
         <v>208</v>
       </c>
-      <c r="O38" s="188" t="s">
+      <c r="O38" s="192" t="s">
         <v>207</v>
       </c>
-      <c r="P38" s="202" t="s">
+      <c r="P38" s="199" t="s">
         <v>122</v>
       </c>
       <c r="Q38" s="200"/>
-      <c r="R38" s="199" t="s">
+      <c r="R38" s="205" t="s">
         <v>123</v>
       </c>
       <c r="S38" s="200"/>
       <c r="T38" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="U38" s="189" t="s">
+      <c r="U38" s="193" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="39" spans="1:22" ht="15">
-      <c r="A39" s="201"/>
-      <c r="B39" s="201"/>
+      <c r="A39" s="198"/>
+      <c r="B39" s="198"/>
       <c r="C39" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="D39" s="201"/>
-      <c r="E39" s="191"/>
-      <c r="F39" s="191"/>
-      <c r="G39" s="201"/>
-      <c r="H39" s="201"/>
-      <c r="I39" s="204"/>
-      <c r="J39" s="206"/>
-      <c r="K39" s="206"/>
-      <c r="L39" s="197"/>
-      <c r="M39" s="192"/>
-      <c r="N39" s="192"/>
-      <c r="O39" s="198"/>
+      <c r="D39" s="198"/>
+      <c r="E39" s="195"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="198"/>
+      <c r="H39" s="198"/>
+      <c r="I39" s="202"/>
+      <c r="J39" s="204"/>
+      <c r="K39" s="204"/>
+      <c r="L39" s="187"/>
+      <c r="M39" s="196"/>
+      <c r="N39" s="196"/>
+      <c r="O39" s="206"/>
       <c r="P39" s="62" t="s">
         <v>126</v>
       </c>
@@ -7707,7 +7908,7 @@
       <c r="T39" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="U39" s="201"/>
+      <c r="U39" s="198"/>
     </row>
     <row r="40" spans="1:22">
       <c r="A40" s="64">
@@ -8367,6 +8568,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C15:D15"/>
     <mergeCell ref="U38:U39"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="B38:B39"/>
@@ -8381,28 +8602,8 @@
     <mergeCell ref="J38:J39"/>
     <mergeCell ref="K38:K39"/>
     <mergeCell ref="R38:S38"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="A24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B26:G26"/>
     <mergeCell ref="L38:L39"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="B31:G31"/>
     <mergeCell ref="O38:O39"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="B34:G34"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
